--- a/df1.xlsx
+++ b/df1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="21">
   <si>
     <t>Product</t>
   </si>
@@ -438,7 +438,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O172"/>
+  <dimension ref="A1:O147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -499,19 +499,19 @@
         <v>19</v>
       </c>
       <c r="F2" s="2">
-        <v>43344.16666666666</v>
+        <v>43344.375</v>
       </c>
       <c r="G2">
-        <v>0.8369</v>
+        <v>0.8304</v>
       </c>
       <c r="H2">
         <v>3000000</v>
       </c>
       <c r="I2" s="2">
-        <v>43388.16666666666</v>
+        <v>43388.375</v>
       </c>
       <c r="J2">
-        <v>0.7495000000000001</v>
+        <v>0.7509</v>
       </c>
       <c r="K2">
         <v>200</v>
@@ -520,13 +520,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>34324742.79176205</v>
+        <v>317418.8573711546</v>
       </c>
       <c r="N2">
-        <v>957</v>
+        <v>9.567671001926783</v>
       </c>
       <c r="O2">
-        <v>34324742.79176205</v>
+        <v>317418.8573711546</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -540,19 +540,19 @@
         <v>20</v>
       </c>
       <c r="F3" s="2">
-        <v>43344.41666666666</v>
+        <v>43346.41666666666</v>
       </c>
       <c r="G3">
-        <v>27613</v>
+        <v>27750</v>
       </c>
       <c r="H3">
         <v>150</v>
       </c>
       <c r="I3" s="2">
-        <v>43344.67361111111</v>
+        <v>43346.67361111111</v>
       </c>
       <c r="J3">
-        <v>27613</v>
+        <v>27690</v>
       </c>
       <c r="K3">
         <v>200</v>
@@ -561,13 +561,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>-200</v>
+        <v>-9200</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>-0.221021021021021</v>
       </c>
       <c r="O3">
-        <v>-200</v>
+        <v>-9200</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -587,19 +587,19 @@
         <v>19</v>
       </c>
       <c r="F4" s="2">
-        <v>43344.41666666666</v>
+        <v>43346.41666666666</v>
       </c>
       <c r="G4">
-        <v>461.2204069403997</v>
+        <v>503.738548688465</v>
       </c>
       <c r="H4">
         <v>50</v>
       </c>
       <c r="I4" s="2">
-        <v>43344.67361111111</v>
+        <v>43346.67361111111</v>
       </c>
       <c r="J4">
-        <v>461.2204069403997</v>
+        <v>527.0648646475292</v>
       </c>
       <c r="K4">
         <v>200</v>
@@ -608,13 +608,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>-200</v>
+        <v>-1366.315797953212</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>-5.424702165480704</v>
       </c>
       <c r="O4">
-        <v>-200</v>
+        <v>-1366.315797953212</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -625,22 +625,22 @@
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F5" s="2">
-        <v>43346.41666666666</v>
+        <v>43347.41666666666</v>
       </c>
       <c r="G5">
-        <v>27750</v>
+        <v>27667</v>
       </c>
       <c r="H5">
         <v>150</v>
       </c>
       <c r="I5" s="2">
-        <v>43346.67361111111</v>
+        <v>43347.61180555556</v>
       </c>
       <c r="J5">
-        <v>27690</v>
+        <v>27944</v>
       </c>
       <c r="K5">
         <v>200</v>
@@ -649,13 +649,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>-9200</v>
+        <v>-41750</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>-1.006011975759328</v>
       </c>
       <c r="O5">
-        <v>-9200</v>
+        <v>-41750</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -663,7 +663,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6">
         <v>27200</v>
@@ -675,19 +675,19 @@
         <v>19</v>
       </c>
       <c r="F6" s="2">
-        <v>43346.41666666666</v>
+        <v>43347.41666666666</v>
       </c>
       <c r="G6">
-        <v>408.934148004495</v>
+        <v>520.9238188343261</v>
       </c>
       <c r="H6">
         <v>50</v>
       </c>
       <c r="I6" s="2">
-        <v>43346.67361111111</v>
+        <v>43347.67361111111</v>
       </c>
       <c r="J6">
-        <v>431.2763804649585</v>
+        <v>436.8125810818001</v>
       </c>
       <c r="K6">
         <v>200</v>
@@ -696,13 +696,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>-1317.111623023175</v>
+        <v>4005.5618876263</v>
       </c>
       <c r="N6">
-        <v>-6</v>
+        <v>15.37868587614046</v>
       </c>
       <c r="O6">
-        <v>-1317.111623023175</v>
+        <v>4005.5618876263</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -716,19 +716,19 @@
         <v>19</v>
       </c>
       <c r="F7" s="2">
-        <v>43347.41666666666</v>
+        <v>43348.41666666666</v>
       </c>
       <c r="G7">
-        <v>27667</v>
+        <v>27628</v>
       </c>
       <c r="H7">
         <v>150</v>
       </c>
       <c r="I7" s="2">
-        <v>43347.67361111111</v>
+        <v>43348.67361111111</v>
       </c>
       <c r="J7">
-        <v>27892</v>
+        <v>27113</v>
       </c>
       <c r="K7">
         <v>200</v>
@@ -737,13 +737,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>-33950</v>
+        <v>77050</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>1.859224940881232</v>
       </c>
       <c r="O7">
-        <v>-33950</v>
+        <v>77050</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -763,19 +763,19 @@
         <v>19</v>
       </c>
       <c r="F8" s="2">
-        <v>43347.41666666666</v>
+        <v>43348.41666666666</v>
       </c>
       <c r="G8">
-        <v>834.0927346603639</v>
+        <v>520.9678455305475</v>
       </c>
       <c r="H8">
         <v>50</v>
       </c>
       <c r="I8" s="2">
-        <v>43347.67361111111</v>
+        <v>43348.67361111111</v>
       </c>
       <c r="J8">
-        <v>978.8450366804573</v>
+        <v>759.495563602557</v>
       </c>
       <c r="K8">
         <v>200</v>
@@ -784,13 +784,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>-7437.615101004667</v>
+        <v>-12126.38590360048</v>
       </c>
       <c r="N8">
-        <v>-17</v>
+        <v>-46.55329885571386</v>
       </c>
       <c r="O8">
-        <v>-7437.615101004667</v>
+        <v>-12126.38590360048</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -804,19 +804,19 @@
         <v>19</v>
       </c>
       <c r="F9" s="2">
-        <v>43348.41666666666</v>
+        <v>43349.41666666666</v>
       </c>
       <c r="G9">
-        <v>27628</v>
+        <v>27134</v>
       </c>
       <c r="H9">
         <v>150</v>
       </c>
       <c r="I9" s="2">
-        <v>43348.67361111111</v>
+        <v>43349.67361111111</v>
       </c>
       <c r="J9">
-        <v>27113</v>
+        <v>26968</v>
       </c>
       <c r="K9">
         <v>200</v>
@@ -825,13 +825,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>77050</v>
+        <v>24700</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <v>0.6068646961991107</v>
       </c>
       <c r="O9">
-        <v>77050</v>
+        <v>24700</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -839,31 +839,31 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10">
-        <v>27200</v>
+        <v>26600</v>
       </c>
       <c r="D10">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F10" s="2">
-        <v>43348.41666666666</v>
+        <v>43349.41666666666</v>
       </c>
       <c r="G10">
-        <v>795.6207641639849</v>
+        <v>449.0091035752557</v>
       </c>
       <c r="H10">
         <v>50</v>
       </c>
       <c r="I10" s="2">
-        <v>43348.67361111111</v>
+        <v>43349.67361111111</v>
       </c>
       <c r="J10">
-        <v>516.7866177371998</v>
+        <v>514.525337903</v>
       </c>
       <c r="K10">
         <v>200</v>
@@ -872,13 +872,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>13741.70732133925</v>
+        <v>3075.811716387216</v>
       </c>
       <c r="N10">
-        <v>34</v>
+        <v>13.70044256072281</v>
       </c>
       <c r="O10">
-        <v>13741.70732133925</v>
+        <v>3075.811716387216</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -892,19 +892,19 @@
         <v>19</v>
       </c>
       <c r="F11" s="2">
-        <v>43349.41666666666</v>
+        <v>43350.41666666666</v>
       </c>
       <c r="G11">
-        <v>27134</v>
+        <v>27106</v>
       </c>
       <c r="H11">
         <v>150</v>
       </c>
       <c r="I11" s="2">
-        <v>43349.67361111111</v>
+        <v>43350.67361111111</v>
       </c>
       <c r="J11">
-        <v>26968</v>
+        <v>26852</v>
       </c>
       <c r="K11">
         <v>200</v>
@@ -913,13 +913,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>24700</v>
+        <v>37900</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.932142944981431</v>
       </c>
       <c r="O11">
-        <v>24700</v>
+        <v>37900</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -939,19 +939,19 @@
         <v>20</v>
       </c>
       <c r="F12" s="2">
-        <v>43349.41666666666</v>
+        <v>43350.41666666666</v>
       </c>
       <c r="G12">
-        <v>350.5141861972988</v>
+        <v>443.9512762787672</v>
       </c>
       <c r="H12">
         <v>50</v>
       </c>
       <c r="I12" s="2">
-        <v>43349.67361111111</v>
+        <v>43350.67361111111</v>
       </c>
       <c r="J12">
-        <v>412.9963551198398</v>
+        <v>547.9358301920165</v>
       </c>
       <c r="K12">
         <v>200</v>
@@ -960,13 +960,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>2924.108446127048</v>
+        <v>4999.227695662466</v>
       </c>
       <c r="N12">
-        <v>16</v>
+        <v>22.52151514268127</v>
       </c>
       <c r="O12">
-        <v>2924.108446127048</v>
+        <v>4999.227695662466</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -980,19 +980,19 @@
         <v>19</v>
       </c>
       <c r="F13" s="2">
-        <v>43350.41666666666</v>
+        <v>43353.41666666666</v>
       </c>
       <c r="G13">
-        <v>27106</v>
+        <v>26605</v>
       </c>
       <c r="H13">
         <v>150</v>
       </c>
       <c r="I13" s="2">
-        <v>43350.67361111111</v>
+        <v>43353.67361111111</v>
       </c>
       <c r="J13">
-        <v>26852</v>
+        <v>26620</v>
       </c>
       <c r="K13">
         <v>200</v>
@@ -1001,13 +1001,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>37900</v>
+        <v>-2450</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>-0.06139196892814634</v>
       </c>
       <c r="O13">
-        <v>37900</v>
+        <v>-2450</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1018,7 +1018,7 @@
         <v>16</v>
       </c>
       <c r="C14">
-        <v>26600</v>
+        <v>26200</v>
       </c>
       <c r="D14">
         <v>9</v>
@@ -1027,19 +1027,19 @@
         <v>20</v>
       </c>
       <c r="F14" s="2">
-        <v>43350.41666666666</v>
+        <v>43353.41666666666</v>
       </c>
       <c r="G14">
-        <v>342.651708552834</v>
+        <v>424.7070774311796</v>
       </c>
       <c r="H14">
         <v>50</v>
       </c>
       <c r="I14" s="2">
-        <v>43350.67361111111</v>
+        <v>43353.67361111111</v>
       </c>
       <c r="J14">
-        <v>442.3472237303577</v>
+        <v>418.8329549772825</v>
       </c>
       <c r="K14">
         <v>200</v>
@@ -1048,13 +1048,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>4784.775758876185</v>
+        <v>-493.7061226948572</v>
       </c>
       <c r="N14">
-        <v>27</v>
+        <v>-2.324925337628066</v>
       </c>
       <c r="O14">
-        <v>4784.775758876185</v>
+        <v>-493.7061226948572</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1068,19 +1068,19 @@
         <v>19</v>
       </c>
       <c r="F15" s="2">
-        <v>43351.41666666666</v>
+        <v>43354.41666666666</v>
       </c>
       <c r="G15">
-        <v>26697</v>
+        <v>26548</v>
       </c>
       <c r="H15">
         <v>150</v>
       </c>
       <c r="I15" s="2">
-        <v>43351.67361111111</v>
+        <v>43354.67361111111</v>
       </c>
       <c r="J15">
-        <v>26697</v>
+        <v>26347</v>
       </c>
       <c r="K15">
         <v>200</v>
@@ -1089,13 +1089,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>-200</v>
+        <v>29950</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.7520968308974939</v>
       </c>
       <c r="O15">
-        <v>-200</v>
+        <v>29950</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1106,7 +1106,7 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <v>26200</v>
+        <v>26000</v>
       </c>
       <c r="D16">
         <v>9</v>
@@ -1115,19 +1115,19 @@
         <v>20</v>
       </c>
       <c r="F16" s="2">
-        <v>43351.41666666666</v>
+        <v>43354.41666666666</v>
       </c>
       <c r="G16">
-        <v>319.8992034082003</v>
+        <v>350.2932655696968</v>
       </c>
       <c r="H16">
         <v>50</v>
       </c>
       <c r="I16" s="2">
-        <v>43351.67361111111</v>
+        <v>43354.67361111111</v>
       </c>
       <c r="J16">
-        <v>319.8992034082003</v>
+        <v>426.340598804205</v>
       </c>
       <c r="K16">
         <v>200</v>
@@ -1136,13 +1136,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>-200</v>
+        <v>3602.366661725409</v>
       </c>
       <c r="N16">
-        <v>-1</v>
+        <v>20.56771862780021</v>
       </c>
       <c r="O16">
-        <v>-200</v>
+        <v>3602.366661725409</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1156,19 +1156,19 @@
         <v>19</v>
       </c>
       <c r="F17" s="2">
-        <v>43353.41666666666</v>
+        <v>43355.41666666666</v>
       </c>
       <c r="G17">
-        <v>26605</v>
+        <v>26230</v>
       </c>
       <c r="H17">
         <v>150</v>
       </c>
       <c r="I17" s="2">
-        <v>43353.67361111111</v>
+        <v>43355.67361111111</v>
       </c>
       <c r="J17">
-        <v>26620</v>
+        <v>26363</v>
       </c>
       <c r="K17">
         <v>200</v>
@@ -1177,13 +1177,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>-2450</v>
+        <v>-20150</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>-0.5121362307790063</v>
       </c>
       <c r="O17">
-        <v>-2450</v>
+        <v>-20150</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1194,7 +1194,7 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>26200</v>
+        <v>25800</v>
       </c>
       <c r="D18">
         <v>9</v>
@@ -1203,19 +1203,19 @@
         <v>20</v>
       </c>
       <c r="F18" s="2">
-        <v>43353.41666666666</v>
+        <v>43355.41666666666</v>
       </c>
       <c r="G18">
-        <v>353.5627456283728</v>
+        <v>372.1850415928129</v>
       </c>
       <c r="H18">
         <v>50</v>
       </c>
       <c r="I18" s="2">
-        <v>43353.67361111111</v>
+        <v>43355.67361111111</v>
       </c>
       <c r="J18">
-        <v>347.9072495845012</v>
+        <v>324.2788728821088</v>
       </c>
       <c r="K18">
         <v>200</v>
@@ -1224,13 +1224,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>-482.7748021935804</v>
+        <v>-2595.308435535208</v>
       </c>
       <c r="N18">
-        <v>-2</v>
+        <v>-13.94633392265448</v>
       </c>
       <c r="O18">
-        <v>-482.7748021935804</v>
+        <v>-2595.308435535208</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1241,22 +1241,22 @@
         <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F19" s="2">
-        <v>43354.41666666666</v>
+        <v>43356.41666666666</v>
       </c>
       <c r="G19">
-        <v>26548</v>
+        <v>26890</v>
       </c>
       <c r="H19">
         <v>150</v>
       </c>
       <c r="I19" s="2">
-        <v>43354.67361111111</v>
+        <v>43356.67361111111</v>
       </c>
       <c r="J19">
-        <v>26347</v>
+        <v>27026</v>
       </c>
       <c r="K19">
         <v>200</v>
@@ -1265,13 +1265,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>29950</v>
+        <v>20200</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.5008057518284368</v>
       </c>
       <c r="O19">
-        <v>29950</v>
+        <v>20200</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1282,28 +1282,28 @@
         <v>16</v>
       </c>
       <c r="C20">
-        <v>26000</v>
+        <v>26400</v>
       </c>
       <c r="D20">
         <v>9</v>
       </c>
       <c r="E20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F20" s="2">
-        <v>43354.41666666666</v>
+        <v>43356.41666666666</v>
       </c>
       <c r="G20">
-        <v>280.3969258255911</v>
+        <v>344.4523429273213</v>
       </c>
       <c r="H20">
         <v>50</v>
       </c>
       <c r="I20" s="2">
-        <v>43354.67361111111</v>
+        <v>43356.67361111111</v>
       </c>
       <c r="J20">
-        <v>352.9710656619936</v>
+        <v>297.9170998211976</v>
       </c>
       <c r="K20">
         <v>200</v>
@@ -1312,13 +1312,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>3428.706991820127</v>
+        <v>2126.762155306187</v>
       </c>
       <c r="N20">
-        <v>24</v>
+        <v>12.34865837887437</v>
       </c>
       <c r="O20">
-        <v>3428.706991820127</v>
+        <v>2126.762155306187</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1329,22 +1329,22 @@
         <v>15</v>
       </c>
       <c r="E21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F21" s="2">
-        <v>43355.41666666666</v>
+        <v>43357.41666666666</v>
       </c>
       <c r="G21">
-        <v>26230</v>
+        <v>27080</v>
       </c>
       <c r="H21">
         <v>150</v>
       </c>
       <c r="I21" s="2">
-        <v>43355.67361111111</v>
+        <v>43357.67361111111</v>
       </c>
       <c r="J21">
-        <v>26363</v>
+        <v>27226</v>
       </c>
       <c r="K21">
         <v>200</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>-20150</v>
+        <v>21700</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.534219596258001</v>
       </c>
       <c r="O21">
-        <v>-20150</v>
+        <v>21700</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1370,28 +1370,28 @@
         <v>16</v>
       </c>
       <c r="C22">
-        <v>25800</v>
+        <v>26600</v>
       </c>
       <c r="D22">
         <v>9</v>
       </c>
       <c r="E22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F22" s="2">
-        <v>43355.41666666666</v>
+        <v>43357.41666666666</v>
       </c>
       <c r="G22">
-        <v>298.6226617853717</v>
+        <v>333.5404979558552</v>
       </c>
       <c r="H22">
         <v>50</v>
       </c>
       <c r="I22" s="2">
-        <v>43355.67361111111</v>
+        <v>43357.67361111111</v>
       </c>
       <c r="J22">
-        <v>253.5139285497407</v>
+        <v>283.9926404081343</v>
       </c>
       <c r="K22">
         <v>200</v>
@@ -1400,13 +1400,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>-2455.43666178155</v>
+        <v>2277.392877386046</v>
       </c>
       <c r="N22">
-        <v>-16</v>
+        <v>13.65587022471534</v>
       </c>
       <c r="O22">
-        <v>-2455.43666178155</v>
+        <v>2277.392877386046</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1417,22 +1417,22 @@
         <v>15</v>
       </c>
       <c r="E23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F23" s="2">
-        <v>43356.41666666666</v>
+        <v>43360.41666666666</v>
       </c>
       <c r="G23">
-        <v>26890</v>
+        <v>26831</v>
       </c>
       <c r="H23">
         <v>150</v>
       </c>
       <c r="I23" s="2">
-        <v>43356.67361111111</v>
+        <v>43360.67361111111</v>
       </c>
       <c r="J23">
-        <v>27026</v>
+        <v>26855</v>
       </c>
       <c r="K23">
         <v>200</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>20200</v>
+        <v>-3800</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>-0.09441814816195197</v>
       </c>
       <c r="O23">
-        <v>20200</v>
+        <v>-3800</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1464,22 +1464,22 @@
         <v>9</v>
       </c>
       <c r="E24" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F24" s="2">
-        <v>43356.41666666666</v>
+        <v>43360.41666666666</v>
       </c>
       <c r="G24">
-        <v>267.9368970080704</v>
+        <v>288.4177385503608</v>
       </c>
       <c r="H24">
         <v>50</v>
       </c>
       <c r="I24" s="2">
-        <v>43356.67361111111</v>
+        <v>43360.67361111111</v>
       </c>
       <c r="J24">
-        <v>224.8332307491737</v>
+        <v>279.9534827878233</v>
       </c>
       <c r="K24">
         <v>200</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1955.183312944837</v>
+        <v>-623.2127881268752</v>
       </c>
       <c r="N24">
-        <v>14</v>
+        <v>-4.321598187817811</v>
       </c>
       <c r="O24">
-        <v>1955.183312944837</v>
+        <v>-623.2127881268752</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,22 +1505,22 @@
         <v>15</v>
       </c>
       <c r="E25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F25" s="2">
-        <v>43357.41666666666</v>
+        <v>43361.41666666666</v>
       </c>
       <c r="G25">
-        <v>27080</v>
+        <v>26740</v>
       </c>
       <c r="H25">
         <v>150</v>
       </c>
       <c r="I25" s="2">
-        <v>43357.67361111111</v>
+        <v>43361.59513888889</v>
       </c>
       <c r="J25">
-        <v>27226</v>
+        <v>27008</v>
       </c>
       <c r="K25">
         <v>200</v>
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>21700</v>
+        <v>-40400</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>-1.007230117177761</v>
       </c>
       <c r="O25">
-        <v>21700</v>
+        <v>-40400</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -1546,28 +1546,28 @@
         <v>16</v>
       </c>
       <c r="C26">
-        <v>26600</v>
+        <v>26200</v>
       </c>
       <c r="D26">
         <v>9</v>
       </c>
       <c r="E26" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F26" s="2">
-        <v>43357.41666666666</v>
+        <v>43361.41666666666</v>
       </c>
       <c r="G26">
-        <v>253.6370177279896</v>
+        <v>228.064422501182</v>
       </c>
       <c r="H26">
         <v>50</v>
       </c>
       <c r="I26" s="2">
-        <v>43357.67361111111</v>
+        <v>43361.67361111111</v>
       </c>
       <c r="J26">
-        <v>208.1626009457023</v>
+        <v>149.4495148601272</v>
       </c>
       <c r="K26">
         <v>200</v>
@@ -1576,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>2073.720839114367</v>
+        <v>-4130.745382052737</v>
       </c>
       <c r="N26">
-        <v>16</v>
+        <v>-36.22437324288341</v>
       </c>
       <c r="O26">
-        <v>2073.720839114367</v>
+        <v>-4130.745382052737</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -1593,22 +1593,22 @@
         <v>15</v>
       </c>
       <c r="E27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F27" s="2">
-        <v>43358.41666666666</v>
+        <v>43362.41666666666</v>
       </c>
       <c r="G27">
-        <v>26943</v>
+        <v>27128</v>
       </c>
       <c r="H27">
         <v>150</v>
       </c>
       <c r="I27" s="2">
-        <v>43358.67361111111</v>
+        <v>43362.48055555556</v>
       </c>
       <c r="J27">
-        <v>26943</v>
+        <v>27404</v>
       </c>
       <c r="K27">
         <v>200</v>
@@ -1617,13 +1617,13 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>-200</v>
+        <v>41200</v>
       </c>
       <c r="N27">
-        <v>0</v>
+        <v>1.012484026344245</v>
       </c>
       <c r="O27">
-        <v>-200</v>
+        <v>41200</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -1631,10 +1631,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C28">
-        <v>26400</v>
+        <v>26600</v>
       </c>
       <c r="D28">
         <v>9</v>
@@ -1643,19 +1643,19 @@
         <v>19</v>
       </c>
       <c r="F28" s="2">
-        <v>43358.41666666666</v>
+        <v>43362.41666666666</v>
       </c>
       <c r="G28">
-        <v>724.9410310310304</v>
+        <v>216.5683735675557</v>
       </c>
       <c r="H28">
         <v>50</v>
       </c>
       <c r="I28" s="2">
-        <v>43358.67361111111</v>
+        <v>43362.67361111111</v>
       </c>
       <c r="J28">
-        <v>724.9410310310304</v>
+        <v>150.8158008603259</v>
       </c>
       <c r="K28">
         <v>200</v>
@@ -1664,13 +1664,13 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>-200</v>
+        <v>3087.628635361489</v>
       </c>
       <c r="N28">
-        <v>0</v>
+        <v>28.51412313348092</v>
       </c>
       <c r="O28">
-        <v>-200</v>
+        <v>3087.628635361489</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -1681,22 +1681,22 @@
         <v>15</v>
       </c>
       <c r="E29" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F29" s="2">
-        <v>43360.41666666666</v>
+        <v>43363.41666666666</v>
       </c>
       <c r="G29">
-        <v>26831</v>
+        <v>27597</v>
       </c>
       <c r="H29">
         <v>150</v>
       </c>
       <c r="I29" s="2">
-        <v>43360.67361111111</v>
+        <v>43363.67361111111</v>
       </c>
       <c r="J29">
-        <v>26855</v>
+        <v>27454</v>
       </c>
       <c r="K29">
         <v>200</v>
@@ -1705,13 +1705,13 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <v>-3800</v>
+        <v>-21650</v>
       </c>
       <c r="N29">
-        <v>0</v>
+        <v>-0.5230037081325265</v>
       </c>
       <c r="O29">
-        <v>-3800</v>
+        <v>-21650</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -1722,28 +1722,28 @@
         <v>16</v>
       </c>
       <c r="C30">
-        <v>26400</v>
+        <v>27000</v>
       </c>
       <c r="D30">
         <v>9</v>
       </c>
       <c r="E30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F30" s="2">
-        <v>43360.41666666666</v>
+        <v>43363.41666666666</v>
       </c>
       <c r="G30">
-        <v>245.2500770024253</v>
+        <v>179.6213814916373</v>
       </c>
       <c r="H30">
         <v>50</v>
       </c>
       <c r="I30" s="2">
-        <v>43360.67361111111</v>
+        <v>43363.67361111111</v>
       </c>
       <c r="J30">
-        <v>237.1469909307434</v>
+        <v>222.959974860134</v>
       </c>
       <c r="K30">
         <v>200</v>
@@ -1752,13 +1752,13 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>-605.154303584095</v>
+        <v>-2366.929668424837</v>
       </c>
       <c r="N30">
-        <v>-4</v>
+        <v>-26.35465386992399</v>
       </c>
       <c r="O30">
-        <v>-605.154303584095</v>
+        <v>-2366.929668424837</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -1769,22 +1769,22 @@
         <v>15</v>
       </c>
       <c r="E31" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F31" s="2">
-        <v>43361.41666666666</v>
+        <v>43364.41666666666</v>
       </c>
       <c r="G31">
-        <v>26740</v>
+        <v>27651</v>
       </c>
       <c r="H31">
         <v>150</v>
       </c>
       <c r="I31" s="2">
-        <v>43361.67361111111</v>
+        <v>43364.61736111111</v>
       </c>
       <c r="J31">
-        <v>27033</v>
+        <v>27934</v>
       </c>
       <c r="K31">
         <v>200</v>
@@ -1793,13 +1793,13 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>-44150</v>
+        <v>42250</v>
       </c>
       <c r="N31">
-        <v>-1</v>
+        <v>1.018649114558847</v>
       </c>
       <c r="O31">
-        <v>-44150</v>
+        <v>42250</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -1810,28 +1810,28 @@
         <v>16</v>
       </c>
       <c r="C32">
-        <v>26200</v>
+        <v>27200</v>
       </c>
       <c r="D32">
         <v>9</v>
       </c>
       <c r="E32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F32" s="2">
-        <v>43361.41666666666</v>
+        <v>43364.41666666666</v>
       </c>
       <c r="G32">
-        <v>185.526943124898</v>
+        <v>201.9540849731238</v>
       </c>
       <c r="H32">
         <v>50</v>
       </c>
       <c r="I32" s="2">
-        <v>43361.67361111111</v>
+        <v>43364.67361111111</v>
       </c>
       <c r="J32">
-        <v>113.8434896529297</v>
+        <v>132.377111864218</v>
       </c>
       <c r="K32">
         <v>200</v>
@@ -1840,13 +1840,13 @@
         <v>0</v>
       </c>
       <c r="M32">
-        <v>-3784.172673598414</v>
+        <v>3278.84865544529</v>
       </c>
       <c r="N32">
-        <v>-40</v>
+        <v>32.47122885265373</v>
       </c>
       <c r="O32">
-        <v>-3784.172673598414</v>
+        <v>3278.84865544529</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -1857,22 +1857,22 @@
         <v>15</v>
       </c>
       <c r="E33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F33" s="2">
-        <v>43362.41666666666</v>
+        <v>43367.41666666666</v>
       </c>
       <c r="G33">
-        <v>27128</v>
+        <v>27567</v>
       </c>
       <c r="H33">
         <v>150</v>
       </c>
       <c r="I33" s="2">
-        <v>43362.67361111111</v>
+        <v>43367.67361111111</v>
       </c>
       <c r="J33">
-        <v>27370</v>
+        <v>27473</v>
       </c>
       <c r="K33">
         <v>200</v>
@@ -1881,13 +1881,13 @@
         <v>0</v>
       </c>
       <c r="M33">
-        <v>36100</v>
+        <v>13900</v>
       </c>
       <c r="N33">
-        <v>0</v>
+        <v>0.3361507115996179</v>
       </c>
       <c r="O33">
-        <v>36100</v>
+        <v>13900</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -1895,10 +1895,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C34">
-        <v>26600</v>
+        <v>27000</v>
       </c>
       <c r="D34">
         <v>9</v>
@@ -1907,19 +1907,19 @@
         <v>19</v>
       </c>
       <c r="F34" s="2">
-        <v>43362.41666666666</v>
+        <v>43367.41666666666</v>
       </c>
       <c r="G34">
-        <v>171.1811173244432</v>
+        <v>89.30772132642414</v>
       </c>
       <c r="H34">
         <v>50</v>
       </c>
       <c r="I34" s="2">
-        <v>43362.67361111111</v>
+        <v>43367.67361111111</v>
       </c>
       <c r="J34">
-        <v>111.8481909065931</v>
+        <v>111.3312633104761</v>
       </c>
       <c r="K34">
         <v>200</v>
@@ -1928,13 +1928,13 @@
         <v>0</v>
       </c>
       <c r="M34">
-        <v>2766.646320892505</v>
+        <v>-1301.177099202596</v>
       </c>
       <c r="N34">
-        <v>32</v>
+        <v>-29.13918482919812</v>
       </c>
       <c r="O34">
-        <v>2766.646320892505</v>
+        <v>-1301.177099202596</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -1945,22 +1945,22 @@
         <v>15</v>
       </c>
       <c r="E35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F35" s="2">
-        <v>43363.41666666666</v>
+        <v>43368.41666666666</v>
       </c>
       <c r="G35">
-        <v>27597</v>
+        <v>27446</v>
       </c>
       <c r="H35">
         <v>150</v>
       </c>
       <c r="I35" s="2">
-        <v>43363.67361111111</v>
+        <v>43368.67361111111</v>
       </c>
       <c r="J35">
-        <v>27454</v>
+        <v>27446</v>
       </c>
       <c r="K35">
         <v>200</v>
@@ -1969,13 +1969,13 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>-21650</v>
+        <v>-200</v>
       </c>
       <c r="N35">
-        <v>0</v>
+        <v>-0.004858024241540965</v>
       </c>
       <c r="O35">
-        <v>-21650</v>
+        <v>-200</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -1983,7 +1983,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C36">
         <v>27000</v>
@@ -1995,19 +1995,19 @@
         <v>19</v>
       </c>
       <c r="F36" s="2">
-        <v>43363.41666666666</v>
+        <v>43368.41666666666</v>
       </c>
       <c r="G36">
-        <v>133.279906920543</v>
+        <v>86.92098110697407</v>
       </c>
       <c r="H36">
         <v>50</v>
       </c>
       <c r="I36" s="2">
-        <v>43363.67361111111</v>
+        <v>43368.67361111111</v>
       </c>
       <c r="J36">
-        <v>172.6676874506793</v>
+        <v>86.92098110697407</v>
       </c>
       <c r="K36">
         <v>200</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="M36">
-        <v>-2169.389026506815</v>
+        <v>-200</v>
       </c>
       <c r="N36">
-        <v>-32</v>
+        <v>-4.601880868184381</v>
       </c>
       <c r="O36">
-        <v>-2169.389026506815</v>
+        <v>-200</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -2036,19 +2036,19 @@
         <v>20</v>
       </c>
       <c r="F37" s="2">
-        <v>43364.41666666666</v>
+        <v>43369.41666666666</v>
       </c>
       <c r="G37">
-        <v>27651</v>
+        <v>27656</v>
       </c>
       <c r="H37">
         <v>150</v>
       </c>
       <c r="I37" s="2">
-        <v>43364.67361111111</v>
+        <v>43369.45763888889</v>
       </c>
       <c r="J37">
-        <v>27905</v>
+        <v>27945</v>
       </c>
       <c r="K37">
         <v>200</v>
@@ -2057,13 +2057,13 @@
         <v>0</v>
       </c>
       <c r="M37">
-        <v>37900</v>
+        <v>43150</v>
       </c>
       <c r="N37">
-        <v>0</v>
+        <v>1.040160061710539</v>
       </c>
       <c r="O37">
-        <v>37900</v>
+        <v>43150</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -2083,19 +2083,19 @@
         <v>19</v>
       </c>
       <c r="F38" s="2">
-        <v>43364.41666666666</v>
+        <v>43369.41666666666</v>
       </c>
       <c r="G38">
-        <v>148.2582676526999</v>
+        <v>52.24945231799029</v>
       </c>
       <c r="H38">
         <v>50</v>
       </c>
       <c r="I38" s="2">
-        <v>43364.67361111111</v>
+        <v>43369.67361111111</v>
       </c>
       <c r="J38">
-        <v>87.72167890967376</v>
+        <v>30.28954131924183</v>
       </c>
       <c r="K38">
         <v>200</v>
@@ -2104,13 +2104,13 @@
         <v>0</v>
       </c>
       <c r="M38">
-        <v>2826.829437151309</v>
+        <v>897.9955499374228</v>
       </c>
       <c r="N38">
-        <v>38</v>
+        <v>34.37339570459877</v>
       </c>
       <c r="O38">
-        <v>2826.829437151309</v>
+        <v>897.9955499374228</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -2124,19 +2124,19 @@
         <v>20</v>
       </c>
       <c r="F39" s="2">
-        <v>43365.41666666666</v>
+        <v>43370.41666666666</v>
       </c>
       <c r="G39">
-        <v>27855</v>
+        <v>27836</v>
       </c>
       <c r="H39">
         <v>150</v>
       </c>
       <c r="I39" s="2">
-        <v>43365.67361111111</v>
+        <v>43370.67361111111</v>
       </c>
       <c r="J39">
-        <v>27855</v>
+        <v>27742</v>
       </c>
       <c r="K39">
         <v>200</v>
@@ -2145,13 +2145,13 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>-200</v>
+        <v>-14300</v>
       </c>
       <c r="N39">
-        <v>0</v>
+        <v>-0.3424821573980936</v>
       </c>
       <c r="O39">
-        <v>-200</v>
+        <v>-14300</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -2171,19 +2171,19 @@
         <v>19</v>
       </c>
       <c r="F40" s="2">
-        <v>43365.41666666666</v>
+        <v>43370.41666666666</v>
       </c>
       <c r="G40">
-        <v>119.486689813737</v>
+        <v>20.35833714459295</v>
       </c>
       <c r="H40">
         <v>50</v>
       </c>
       <c r="I40" s="2">
-        <v>43365.67361111111</v>
+        <v>43370.67361111111</v>
       </c>
       <c r="J40">
-        <v>119.486689813737</v>
+        <v>33.6850111415888</v>
       </c>
       <c r="K40">
         <v>200</v>
@@ -2192,13 +2192,13 @@
         <v>0</v>
       </c>
       <c r="M40">
-        <v>-200</v>
+        <v>-866.3336998497925</v>
       </c>
       <c r="N40">
-        <v>-3</v>
+        <v>-85.10849326217053</v>
       </c>
       <c r="O40">
-        <v>-200</v>
+        <v>-866.3336998497925</v>
       </c>
     </row>
     <row r="41" spans="1:15">
@@ -2212,19 +2212,19 @@
         <v>19</v>
       </c>
       <c r="F41" s="2">
-        <v>43367.41666666666</v>
+        <v>43371.41666666666</v>
       </c>
       <c r="G41">
-        <v>27567</v>
+        <v>27819</v>
       </c>
       <c r="H41">
         <v>150</v>
       </c>
       <c r="I41" s="2">
-        <v>43367.67361111111</v>
+        <v>43371.67361111111</v>
       </c>
       <c r="J41">
-        <v>27473</v>
+        <v>27767</v>
       </c>
       <c r="K41">
         <v>200</v>
@@ -2233,13 +2233,13 @@
         <v>0</v>
       </c>
       <c r="M41">
-        <v>13900</v>
+        <v>7600</v>
       </c>
       <c r="N41">
-        <v>0</v>
+        <v>0.1821297194962676</v>
       </c>
       <c r="O41">
-        <v>13900</v>
+        <v>7600</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -2250,28 +2250,28 @@
         <v>17</v>
       </c>
       <c r="C42">
-        <v>27000</v>
+        <v>27400</v>
       </c>
       <c r="D42">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
         <v>19</v>
       </c>
       <c r="F42" s="2">
-        <v>43367.41666666666</v>
+        <v>43371.41666666666</v>
       </c>
       <c r="G42">
-        <v>643.9453145364205</v>
+        <v>676.5449879637927</v>
       </c>
       <c r="H42">
         <v>50</v>
       </c>
       <c r="I42" s="2">
-        <v>43367.67361111111</v>
+        <v>43371.67361111111</v>
       </c>
       <c r="J42">
-        <v>572.0125241826536</v>
+        <v>698.785878416651</v>
       </c>
       <c r="K42">
         <v>200</v>
@@ -2280,13 +2280,13 @@
         <v>0</v>
       </c>
       <c r="M42">
-        <v>3396.639517688345</v>
+        <v>-1312.044522642918</v>
       </c>
       <c r="N42">
-        <v>10</v>
+        <v>-3.878661570139772</v>
       </c>
       <c r="O42">
-        <v>3396.639517688345</v>
+        <v>-1312.044522642918</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -2300,19 +2300,19 @@
         <v>19</v>
       </c>
       <c r="F43" s="2">
-        <v>43368.41666666666</v>
+        <v>43374.41666666666</v>
       </c>
       <c r="G43">
-        <v>27446</v>
+        <v>27707</v>
       </c>
       <c r="H43">
         <v>150</v>
       </c>
       <c r="I43" s="2">
-        <v>43368.67361111111</v>
+        <v>43374.67361111111</v>
       </c>
       <c r="J43">
-        <v>27446</v>
+        <v>27707</v>
       </c>
       <c r="K43">
         <v>200</v>
@@ -2324,7 +2324,7 @@
         <v>-200</v>
       </c>
       <c r="N43">
-        <v>0</v>
+        <v>-0.004812261642665512</v>
       </c>
       <c r="O43">
         <v>-200</v>
@@ -2338,28 +2338,28 @@
         <v>17</v>
       </c>
       <c r="C44">
-        <v>27000</v>
+        <v>27200</v>
       </c>
       <c r="D44">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
         <v>19</v>
       </c>
       <c r="F44" s="2">
-        <v>43368.41666666666</v>
+        <v>43374.41666666666</v>
       </c>
       <c r="G44">
-        <v>523.6907791837621</v>
+        <v>592.8397659668426</v>
       </c>
       <c r="H44">
         <v>50</v>
       </c>
       <c r="I44" s="2">
-        <v>43368.67361111111</v>
+        <v>43374.67361111111</v>
       </c>
       <c r="J44">
-        <v>523.6907791837621</v>
+        <v>592.8397659668426</v>
       </c>
       <c r="K44">
         <v>200</v>
@@ -2371,7 +2371,7 @@
         <v>-200</v>
       </c>
       <c r="N44">
-        <v>0</v>
+        <v>-0.6747185714636624</v>
       </c>
       <c r="O44">
         <v>-200</v>
@@ -2385,22 +2385,22 @@
         <v>15</v>
       </c>
       <c r="E45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F45" s="2">
-        <v>43369.41666666666</v>
+        <v>43375.41666666666</v>
       </c>
       <c r="G45">
-        <v>27656</v>
+        <v>27373</v>
       </c>
       <c r="H45">
         <v>150</v>
       </c>
       <c r="I45" s="2">
-        <v>43369.67361111111</v>
+        <v>43375.67361111111</v>
       </c>
       <c r="J45">
-        <v>27802</v>
+        <v>27043</v>
       </c>
       <c r="K45">
         <v>200</v>
@@ -2409,13 +2409,13 @@
         <v>0</v>
       </c>
       <c r="M45">
-        <v>21700</v>
+        <v>49300</v>
       </c>
       <c r="N45">
-        <v>0</v>
+        <v>1.200696550128472</v>
       </c>
       <c r="O45">
-        <v>21700</v>
+        <v>49300</v>
       </c>
     </row>
     <row r="46" spans="1:15">
@@ -2423,31 +2423,31 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C46">
-        <v>27200</v>
+        <v>26800</v>
       </c>
       <c r="D46">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
         <v>19</v>
       </c>
       <c r="F46" s="2">
-        <v>43369.41666666666</v>
+        <v>43375.41666666666</v>
       </c>
       <c r="G46">
-        <v>52.24945231799029</v>
+        <v>541.4692678611773</v>
       </c>
       <c r="H46">
         <v>50</v>
       </c>
       <c r="I46" s="2">
-        <v>43369.67361111111</v>
+        <v>43375.67361111111</v>
       </c>
       <c r="J46">
-        <v>30.28954131924183</v>
+        <v>679.4108004790032</v>
       </c>
       <c r="K46">
         <v>200</v>
@@ -2456,13 +2456,13 @@
         <v>0</v>
       </c>
       <c r="M46">
-        <v>897.9955499374228</v>
+        <v>-7097.076630891297</v>
       </c>
       <c r="N46">
-        <v>34</v>
+        <v>-26.21414381992537</v>
       </c>
       <c r="O46">
-        <v>897.9955499374228</v>
+        <v>-7097.076630891297</v>
       </c>
     </row>
     <row r="47" spans="1:15">
@@ -2473,22 +2473,22 @@
         <v>15</v>
       </c>
       <c r="E47" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F47" s="2">
-        <v>43370.41666666666</v>
+        <v>43376.41666666666</v>
       </c>
       <c r="G47">
-        <v>27836</v>
+        <v>27129</v>
       </c>
       <c r="H47">
         <v>150</v>
       </c>
       <c r="I47" s="2">
-        <v>43370.67361111111</v>
+        <v>43376.67361111111</v>
       </c>
       <c r="J47">
-        <v>27742</v>
+        <v>27030</v>
       </c>
       <c r="K47">
         <v>200</v>
@@ -2497,13 +2497,13 @@
         <v>0</v>
       </c>
       <c r="M47">
-        <v>-14300</v>
+        <v>14650</v>
       </c>
       <c r="N47">
-        <v>0</v>
+        <v>0.3600083551427132</v>
       </c>
       <c r="O47">
-        <v>-14300</v>
+        <v>14650</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -2511,31 +2511,31 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C48">
-        <v>27400</v>
+        <v>26600</v>
       </c>
       <c r="D48">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
         <v>19</v>
       </c>
       <c r="F48" s="2">
-        <v>43370.41666666666</v>
+        <v>43376.41666666666</v>
       </c>
       <c r="G48">
-        <v>20.35833714459295</v>
+        <v>538.9808092528583</v>
       </c>
       <c r="H48">
         <v>50</v>
       </c>
       <c r="I48" s="2">
-        <v>43370.67361111111</v>
+        <v>43376.67361111111</v>
       </c>
       <c r="J48">
-        <v>33.6850111415888</v>
+        <v>578.6739244019063</v>
       </c>
       <c r="K48">
         <v>200</v>
@@ -2544,13 +2544,13 @@
         <v>0</v>
       </c>
       <c r="M48">
-        <v>-866.3336998497925</v>
+        <v>-2184.655757452401</v>
       </c>
       <c r="N48">
-        <v>-85</v>
+        <v>-8.106617972097364</v>
       </c>
       <c r="O48">
-        <v>-866.3336998497925</v>
+        <v>-2184.655757452401</v>
       </c>
     </row>
     <row r="49" spans="1:15">
@@ -2564,19 +2564,19 @@
         <v>19</v>
       </c>
       <c r="F49" s="2">
-        <v>43371.41666666666</v>
+        <v>43377.41666666666</v>
       </c>
       <c r="G49">
-        <v>27819</v>
+        <v>26618</v>
       </c>
       <c r="H49">
         <v>150</v>
       </c>
       <c r="I49" s="2">
-        <v>43371.67361111111</v>
+        <v>43377.67361111111</v>
       </c>
       <c r="J49">
-        <v>27767</v>
+        <v>26577</v>
       </c>
       <c r="K49">
         <v>200</v>
@@ -2585,13 +2585,13 @@
         <v>0</v>
       </c>
       <c r="M49">
-        <v>7600</v>
+        <v>5950</v>
       </c>
       <c r="N49">
-        <v>0</v>
+        <v>0.1490219650862825</v>
       </c>
       <c r="O49">
-        <v>7600</v>
+        <v>5950</v>
       </c>
     </row>
     <row r="50" spans="1:15">
@@ -2599,31 +2599,31 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C50">
-        <v>27400</v>
+        <v>26200</v>
       </c>
       <c r="D50">
         <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F50" s="2">
-        <v>43371.41666666666</v>
+        <v>43377.41666666666</v>
       </c>
       <c r="G50">
-        <v>877.0892631232455</v>
+        <v>558.1763887314537</v>
       </c>
       <c r="H50">
         <v>50</v>
       </c>
       <c r="I50" s="2">
-        <v>43371.67361111111</v>
+        <v>43377.67361111111</v>
       </c>
       <c r="J50">
-        <v>846.6957189820969</v>
+        <v>575.1947225601889</v>
       </c>
       <c r="K50">
         <v>200</v>
@@ -2632,13 +2632,13 @@
         <v>0</v>
       </c>
       <c r="M50">
-        <v>1319.67720705743</v>
+        <v>650.9166914367597</v>
       </c>
       <c r="N50">
-        <v>3</v>
+        <v>2.332297476487938</v>
       </c>
       <c r="O50">
-        <v>1319.67720705743</v>
+        <v>650.9166914367597</v>
       </c>
     </row>
     <row r="51" spans="1:15">
@@ -2646,25 +2646,25 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E51" t="s">
         <v>19</v>
       </c>
       <c r="F51" s="2">
-        <v>43372.41666666666</v>
+        <v>43378.01597222222</v>
       </c>
       <c r="G51">
-        <v>27707</v>
+        <v>0.52957</v>
       </c>
       <c r="H51">
-        <v>150</v>
+        <v>420000</v>
       </c>
       <c r="I51" s="2">
-        <v>43372.67361111111</v>
+        <v>43378.64652777778</v>
       </c>
       <c r="J51">
-        <v>27707</v>
+        <v>0.51832</v>
       </c>
       <c r="K51">
         <v>200</v>
@@ -2673,13 +2673,13 @@
         <v>0</v>
       </c>
       <c r="M51">
-        <v>-200</v>
+        <v>36809.03499999995</v>
       </c>
       <c r="N51">
-        <v>0</v>
+        <v>2.112884799914382</v>
       </c>
       <c r="O51">
-        <v>-200</v>
+        <v>36809.03499999995</v>
       </c>
     </row>
     <row r="52" spans="1:15">
@@ -2687,31 +2687,25 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>17</v>
-      </c>
-      <c r="C52">
-        <v>27200</v>
-      </c>
-      <c r="D52">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E52" t="s">
         <v>19</v>
       </c>
       <c r="F52" s="2">
-        <v>43372.41666666666</v>
+        <v>43378.41666666666</v>
       </c>
       <c r="G52">
-        <v>912.7121918884004</v>
+        <v>26469</v>
       </c>
       <c r="H52">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="I52" s="2">
-        <v>43372.67361111111</v>
+        <v>43378.67361111111</v>
       </c>
       <c r="J52">
-        <v>912.7121918884004</v>
+        <v>26498</v>
       </c>
       <c r="K52">
         <v>200</v>
@@ -2720,13 +2714,13 @@
         <v>0</v>
       </c>
       <c r="M52">
-        <v>-200</v>
+        <v>-4550</v>
       </c>
       <c r="N52">
-        <v>0</v>
+        <v>-0.1145994685607062</v>
       </c>
       <c r="O52">
-        <v>-200</v>
+        <v>-4550</v>
       </c>
     </row>
     <row r="53" spans="1:15">
@@ -2734,25 +2728,31 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="C53">
+        <v>26000</v>
+      </c>
+      <c r="D53">
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F53" s="2">
-        <v>43375.41666666666</v>
+        <v>43378.41666666666</v>
       </c>
       <c r="G53">
-        <v>27373</v>
+        <v>517.8875885732577</v>
       </c>
       <c r="H53">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="I53" s="2">
-        <v>43375.67361111111</v>
+        <v>43378.67361111111</v>
       </c>
       <c r="J53">
-        <v>27043</v>
+        <v>506.464661719232</v>
       </c>
       <c r="K53">
         <v>200</v>
@@ -2761,13 +2761,13 @@
         <v>0</v>
       </c>
       <c r="M53">
-        <v>49300</v>
+        <v>-771.1463427012859</v>
       </c>
       <c r="N53">
-        <v>1</v>
+        <v>-2.978045273592045</v>
       </c>
       <c r="O53">
-        <v>49300</v>
+        <v>-771.1463427012859</v>
       </c>
     </row>
     <row r="54" spans="1:15">
@@ -2775,31 +2775,25 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>17</v>
-      </c>
-      <c r="C54">
-        <v>26800</v>
-      </c>
-      <c r="D54">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E54" t="s">
         <v>19</v>
       </c>
       <c r="F54" s="2">
-        <v>43375.41666666666</v>
+        <v>43381.41666666666</v>
       </c>
       <c r="G54">
-        <v>932.4076633968689</v>
+        <v>26426</v>
       </c>
       <c r="H54">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="I54" s="2">
-        <v>43375.67361111111</v>
+        <v>43381.67361111111</v>
       </c>
       <c r="J54">
-        <v>736.2875457836453</v>
+        <v>26157</v>
       </c>
       <c r="K54">
         <v>200</v>
@@ -2808,13 +2802,13 @@
         <v>0</v>
       </c>
       <c r="M54">
-        <v>9606.005880661178</v>
+        <v>40150</v>
       </c>
       <c r="N54">
-        <v>20</v>
+        <v>1.012891344383057</v>
       </c>
       <c r="O54">
-        <v>9606.005880661178</v>
+        <v>40150</v>
       </c>
     </row>
     <row r="55" spans="1:15">
@@ -2822,25 +2816,31 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="C55">
+        <v>26000</v>
+      </c>
+      <c r="D55">
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F55" s="2">
-        <v>43376.41666666666</v>
+        <v>43381.41666666666</v>
       </c>
       <c r="G55">
-        <v>27129</v>
+        <v>491.1907269126259</v>
       </c>
       <c r="H55">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="I55" s="2">
-        <v>43376.67361111111</v>
+        <v>43381.67361111111</v>
       </c>
       <c r="J55">
-        <v>27030</v>
+        <v>607.452553023566</v>
       </c>
       <c r="K55">
         <v>200</v>
@@ -2849,13 +2849,13 @@
         <v>0</v>
       </c>
       <c r="M55">
-        <v>14650</v>
+        <v>5613.091305547005</v>
       </c>
       <c r="N55">
-        <v>0</v>
+        <v>22.85503776029336</v>
       </c>
       <c r="O55">
-        <v>14650</v>
+        <v>5613.091305547005</v>
       </c>
     </row>
     <row r="56" spans="1:15">
@@ -2863,31 +2863,25 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>17</v>
-      </c>
-      <c r="C56">
-        <v>26600</v>
-      </c>
-      <c r="D56">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E56" t="s">
         <v>19</v>
       </c>
       <c r="F56" s="2">
-        <v>43376.41666666666</v>
+        <v>43381.99097222222</v>
       </c>
       <c r="G56">
-        <v>887.62035341706</v>
+        <v>0.491</v>
       </c>
       <c r="H56">
-        <v>50</v>
+        <v>420000</v>
       </c>
       <c r="I56" s="2">
-        <v>43376.67361111111</v>
+        <v>43382.11458333334</v>
       </c>
       <c r="J56">
-        <v>826.7240134940057</v>
+        <v>0.48551</v>
       </c>
       <c r="K56">
         <v>200</v>
@@ -2896,13 +2890,13 @@
         <v>0</v>
       </c>
       <c r="M56">
-        <v>2844.816996152713</v>
+        <v>17847.26601999998</v>
       </c>
       <c r="N56">
-        <v>6</v>
+        <v>1.105735185290915</v>
       </c>
       <c r="O56">
-        <v>2844.816996152713</v>
+        <v>17847.26601999998</v>
       </c>
     </row>
     <row r="57" spans="1:15">
@@ -2916,19 +2910,19 @@
         <v>19</v>
       </c>
       <c r="F57" s="2">
-        <v>43377.41666666666</v>
+        <v>43382.41666666666</v>
       </c>
       <c r="G57">
-        <v>26618</v>
+        <v>26162</v>
       </c>
       <c r="H57">
         <v>150</v>
       </c>
       <c r="I57" s="2">
-        <v>43377.67361111111</v>
+        <v>43382.67361111111</v>
       </c>
       <c r="J57">
-        <v>26577</v>
+        <v>26098</v>
       </c>
       <c r="K57">
         <v>200</v>
@@ -2937,13 +2931,13 @@
         <v>0</v>
       </c>
       <c r="M57">
-        <v>5950</v>
+        <v>9400</v>
       </c>
       <c r="N57">
-        <v>0</v>
+        <v>0.2395331651504727</v>
       </c>
       <c r="O57">
-        <v>5950</v>
+        <v>9400</v>
       </c>
     </row>
     <row r="58" spans="1:15">
@@ -2954,7 +2948,7 @@
         <v>16</v>
       </c>
       <c r="C58">
-        <v>26200</v>
+        <v>25600</v>
       </c>
       <c r="D58">
         <v>10</v>
@@ -2963,19 +2957,19 @@
         <v>20</v>
       </c>
       <c r="F58" s="2">
-        <v>43377.41666666666</v>
+        <v>43382.41666666666</v>
       </c>
       <c r="G58">
-        <v>436.2770938820468</v>
+        <v>414.345979669386</v>
       </c>
       <c r="H58">
         <v>50</v>
       </c>
       <c r="I58" s="2">
-        <v>43377.67361111111</v>
+        <v>43382.67361111111</v>
       </c>
       <c r="J58">
-        <v>452.6091286850333</v>
+        <v>438.1398656293331</v>
       </c>
       <c r="K58">
         <v>200</v>
@@ -2984,13 +2978,13 @@
         <v>0</v>
       </c>
       <c r="M58">
-        <v>616.6017401493264</v>
+        <v>989.6942979973574</v>
       </c>
       <c r="N58">
-        <v>2</v>
+        <v>4.777139620309829</v>
       </c>
       <c r="O58">
-        <v>616.6017401493264</v>
+        <v>989.6942979973574</v>
       </c>
     </row>
     <row r="59" spans="1:15">
@@ -2998,25 +2992,25 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E59" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F59" s="2">
-        <v>43378.0125</v>
+        <v>43383.41666666666</v>
       </c>
       <c r="G59">
-        <v>0.5303600000000001</v>
+        <v>26394</v>
       </c>
       <c r="H59">
-        <v>420000</v>
+        <v>150</v>
       </c>
       <c r="I59" s="2">
-        <v>43378.85555555556</v>
+        <v>43383.67361111111</v>
       </c>
       <c r="J59">
-        <v>0.51388</v>
+        <v>26152</v>
       </c>
       <c r="K59">
         <v>200</v>
@@ -3025,13 +3019,13 @@
         <v>0</v>
       </c>
       <c r="M59">
-        <v>54023.12224000016</v>
+        <v>-36500</v>
       </c>
       <c r="N59">
-        <v>3</v>
+        <v>-0.9219267005127427</v>
       </c>
       <c r="O59">
-        <v>54023.12224000016</v>
+        <v>-36500</v>
       </c>
     </row>
     <row r="60" spans="1:15">
@@ -3039,25 +3033,31 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="C60">
+        <v>25800</v>
+      </c>
+      <c r="D60">
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F60" s="2">
-        <v>43378.41666666666</v>
+        <v>43383.41666666666</v>
       </c>
       <c r="G60">
-        <v>26469</v>
+        <v>392.7358557680946</v>
       </c>
       <c r="H60">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="I60" s="2">
-        <v>43378.67361111111</v>
+        <v>43383.67361111111</v>
       </c>
       <c r="J60">
-        <v>26498</v>
+        <v>485.567276947344</v>
       </c>
       <c r="K60">
         <v>200</v>
@@ -3066,13 +3066,13 @@
         <v>0</v>
       </c>
       <c r="M60">
-        <v>-4550</v>
+        <v>4441.571058962472</v>
       </c>
       <c r="N60">
-        <v>0</v>
+        <v>22.61861754524987</v>
       </c>
       <c r="O60">
-        <v>-4550</v>
+        <v>4441.571058962472</v>
       </c>
     </row>
     <row r="61" spans="1:15">
@@ -3080,31 +3080,25 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>16</v>
-      </c>
-      <c r="C61">
-        <v>26000</v>
-      </c>
-      <c r="D61">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E61" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F61" s="2">
-        <v>43378.41666666666</v>
+        <v>43383.91597222222</v>
       </c>
       <c r="G61">
-        <v>395.6477555102083</v>
+        <v>0.46519</v>
       </c>
       <c r="H61">
-        <v>50</v>
+        <v>420000</v>
       </c>
       <c r="I61" s="2">
-        <v>43378.67361111111</v>
+        <v>43384.6375</v>
       </c>
       <c r="J61">
-        <v>384.8490614674847</v>
+        <v>0.40006</v>
       </c>
       <c r="K61">
         <v>200</v>
@@ -3113,13 +3107,13 @@
         <v>0</v>
       </c>
       <c r="M61">
-        <v>-739.9347021361791</v>
+        <v>214161.5874399999</v>
       </c>
       <c r="N61">
-        <v>-3</v>
+        <v>13.98766816050986</v>
       </c>
       <c r="O61">
-        <v>-739.9347021361791</v>
+        <v>214161.5874399999</v>
       </c>
     </row>
     <row r="62" spans="1:15">
@@ -3127,25 +3121,25 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E62" t="s">
         <v>19</v>
       </c>
       <c r="F62" s="2">
-        <v>43378.99027777778</v>
+        <v>43384.41666666666</v>
       </c>
       <c r="G62">
-        <v>0.51524</v>
+        <v>25334</v>
       </c>
       <c r="H62">
-        <v>420000</v>
+        <v>150</v>
       </c>
       <c r="I62" s="2">
-        <v>43381.91111111111</v>
+        <v>43384.67361111111</v>
       </c>
       <c r="J62">
-        <v>0.48755</v>
+        <v>25247</v>
       </c>
       <c r="K62">
         <v>200</v>
@@ -3154,13 +3148,13 @@
         <v>0</v>
       </c>
       <c r="M62">
-        <v>90863.65996000015</v>
+        <v>12850</v>
       </c>
       <c r="N62">
-        <v>5</v>
+        <v>0.3381489960790505</v>
       </c>
       <c r="O62">
-        <v>90863.65996000015</v>
+        <v>12850</v>
       </c>
     </row>
     <row r="63" spans="1:15">
@@ -3168,25 +3162,31 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="C63">
+        <v>24800</v>
+      </c>
+      <c r="D63">
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F63" s="2">
-        <v>43379.41666666666</v>
+        <v>43384.41666666666</v>
       </c>
       <c r="G63">
-        <v>26303</v>
+        <v>376.0975627676744</v>
       </c>
       <c r="H63">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="I63" s="2">
-        <v>43379.67361111111</v>
+        <v>43384.67361111111</v>
       </c>
       <c r="J63">
-        <v>26303</v>
+        <v>408.4106353272491</v>
       </c>
       <c r="K63">
         <v>200</v>
@@ -3195,13 +3195,13 @@
         <v>0</v>
       </c>
       <c r="M63">
-        <v>-200</v>
+        <v>1415.653627978736</v>
       </c>
       <c r="N63">
-        <v>0</v>
+        <v>7.528119127180963</v>
       </c>
       <c r="O63">
-        <v>-200</v>
+        <v>1415.653627978736</v>
       </c>
     </row>
     <row r="64" spans="1:15">
@@ -3209,31 +3209,25 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>16</v>
-      </c>
-      <c r="C64">
-        <v>25800</v>
-      </c>
-      <c r="D64">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E64" t="s">
         <v>20</v>
       </c>
       <c r="F64" s="2">
-        <v>43379.41666666666</v>
+        <v>43385.41666666666</v>
       </c>
       <c r="G64">
-        <v>362.1659682835725</v>
+        <v>25379</v>
       </c>
       <c r="H64">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="I64" s="2">
-        <v>43379.67361111111</v>
+        <v>43385.54583333333</v>
       </c>
       <c r="J64">
-        <v>362.1659682835725</v>
+        <v>25636</v>
       </c>
       <c r="K64">
         <v>200</v>
@@ -3242,13 +3236,13 @@
         <v>0</v>
       </c>
       <c r="M64">
-        <v>-200</v>
+        <v>38350</v>
       </c>
       <c r="N64">
-        <v>-1</v>
+        <v>1.007394565060352</v>
       </c>
       <c r="O64">
-        <v>-200</v>
+        <v>38350</v>
       </c>
     </row>
     <row r="65" spans="1:15">
@@ -3256,25 +3250,31 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="C65">
+        <v>24800</v>
+      </c>
+      <c r="D65">
+        <v>10</v>
       </c>
       <c r="E65" t="s">
         <v>20</v>
       </c>
       <c r="F65" s="2">
-        <v>43381.41666666666</v>
+        <v>43385.41666666666</v>
       </c>
       <c r="G65">
-        <v>26426</v>
+        <v>345.3133027350905</v>
       </c>
       <c r="H65">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="I65" s="2">
-        <v>43381.67361111111</v>
+        <v>43385.67361111111</v>
       </c>
       <c r="J65">
-        <v>26157</v>
+        <v>236.8261600948526</v>
       </c>
       <c r="K65">
         <v>200</v>
@@ -3283,13 +3283,13 @@
         <v>0</v>
       </c>
       <c r="M65">
-        <v>-40550</v>
+        <v>-5624.357132011892</v>
       </c>
       <c r="N65">
-        <v>-1</v>
+        <v>-32.57538639527396</v>
       </c>
       <c r="O65">
-        <v>-40550</v>
+        <v>-5624.357132011892</v>
       </c>
     </row>
     <row r="66" spans="1:15">
@@ -3297,31 +3297,25 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>17</v>
-      </c>
-      <c r="C66">
-        <v>26000</v>
-      </c>
-      <c r="D66">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E66" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F66" s="2">
-        <v>43381.41666666666</v>
+        <v>43386.00347222222</v>
       </c>
       <c r="G66">
-        <v>770.8483662929521</v>
+        <v>0.42668</v>
       </c>
       <c r="H66">
-        <v>50</v>
+        <v>420000</v>
       </c>
       <c r="I66" s="2">
-        <v>43381.67361111111</v>
+        <v>43386.16041666667</v>
       </c>
       <c r="J66">
-        <v>615.5389658190688</v>
+        <v>0.42114</v>
       </c>
       <c r="K66">
         <v>200</v>
@@ -3330,13 +3324,13 @@
         <v>0</v>
       </c>
       <c r="M66">
-        <v>-7965.470023694161</v>
+        <v>18029.54727999996</v>
       </c>
       <c r="N66">
-        <v>-20</v>
+        <v>1.284151953400926</v>
       </c>
       <c r="O66">
-        <v>-7965.470023694161</v>
+        <v>18029.54727999996</v>
       </c>
     </row>
     <row r="67" spans="1:15">
@@ -3344,25 +3338,25 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E67" t="s">
         <v>19</v>
       </c>
       <c r="F67" s="2">
-        <v>43381.99166666667</v>
+        <v>43388.375</v>
       </c>
       <c r="G67">
-        <v>0.491</v>
+        <v>0.7509</v>
       </c>
       <c r="H67">
-        <v>420000</v>
+        <v>4000000</v>
       </c>
       <c r="I67" s="2">
-        <v>43382.10555555556</v>
+        <v>43434.375</v>
       </c>
       <c r="J67">
-        <v>0.48554</v>
+        <v>0.6608000000000001</v>
       </c>
       <c r="K67">
         <v>200</v>
@@ -3371,13 +3365,13 @@
         <v>0</v>
       </c>
       <c r="M67">
-        <v>17757.36123999989</v>
+        <v>545199.5157384985</v>
       </c>
       <c r="N67">
-        <v>1</v>
+        <v>11.99453455852976</v>
       </c>
       <c r="O67">
-        <v>17757.36123999989</v>
+        <v>545199.5157384985</v>
       </c>
     </row>
     <row r="68" spans="1:15">
@@ -3388,22 +3382,22 @@
         <v>15</v>
       </c>
       <c r="E68" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F68" s="2">
-        <v>43382.41666666666</v>
+        <v>43388.41666666666</v>
       </c>
       <c r="G68">
-        <v>26162</v>
+        <v>25623</v>
       </c>
       <c r="H68">
         <v>150</v>
       </c>
       <c r="I68" s="2">
-        <v>43382.67361111111</v>
+        <v>43388.67361111111</v>
       </c>
       <c r="J68">
-        <v>26098</v>
+        <v>25375</v>
       </c>
       <c r="K68">
         <v>200</v>
@@ -3412,13 +3406,13 @@
         <v>0</v>
       </c>
       <c r="M68">
-        <v>9400</v>
+        <v>-37400</v>
       </c>
       <c r="N68">
-        <v>0</v>
+        <v>-0.9730840781069092</v>
       </c>
       <c r="O68">
-        <v>9400</v>
+        <v>-37400</v>
       </c>
     </row>
     <row r="69" spans="1:15">
@@ -3426,10 +3420,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C69">
-        <v>25600</v>
+        <v>25200</v>
       </c>
       <c r="D69">
         <v>10</v>
@@ -3438,19 +3432,19 @@
         <v>20</v>
       </c>
       <c r="F69" s="2">
-        <v>43382.41666666666</v>
+        <v>43388.41666666666</v>
       </c>
       <c r="G69">
-        <v>320.615132396586</v>
+        <v>362.3957252885029</v>
       </c>
       <c r="H69">
         <v>50</v>
       </c>
       <c r="I69" s="2">
-        <v>43382.67361111111</v>
+        <v>43388.67361111111</v>
       </c>
       <c r="J69">
-        <v>343.0141751505325</v>
+        <v>464.9020959310237</v>
       </c>
       <c r="K69">
         <v>200</v>
@@ -3459,13 +3453,13 @@
         <v>0</v>
       </c>
       <c r="M69">
-        <v>919.952137697328</v>
+        <v>4925.318532126039</v>
       </c>
       <c r="N69">
-        <v>5</v>
+        <v>27.18199023018274</v>
       </c>
       <c r="O69">
-        <v>919.952137697328</v>
+        <v>4925.318532126039</v>
       </c>
     </row>
     <row r="70" spans="1:15">
@@ -3479,19 +3473,19 @@
         <v>20</v>
       </c>
       <c r="F70" s="2">
-        <v>43383.41666666666</v>
+        <v>43389.41666666666</v>
       </c>
       <c r="G70">
-        <v>26394</v>
+        <v>25648</v>
       </c>
       <c r="H70">
         <v>150</v>
       </c>
       <c r="I70" s="2">
-        <v>43383.67361111111</v>
+        <v>43389.67361111111</v>
       </c>
       <c r="J70">
-        <v>26152</v>
+        <v>25397</v>
       </c>
       <c r="K70">
         <v>200</v>
@@ -3500,13 +3494,13 @@
         <v>0</v>
       </c>
       <c r="M70">
-        <v>-36500</v>
+        <v>-37850</v>
       </c>
       <c r="N70">
-        <v>0</v>
+        <v>-0.9838323975878561</v>
       </c>
       <c r="O70">
-        <v>-36500</v>
+        <v>-37850</v>
       </c>
     </row>
     <row r="71" spans="1:15">
@@ -3517,7 +3511,7 @@
         <v>17</v>
       </c>
       <c r="C71">
-        <v>25800</v>
+        <v>25200</v>
       </c>
       <c r="D71">
         <v>10</v>
@@ -3526,19 +3520,19 @@
         <v>20</v>
       </c>
       <c r="F71" s="2">
-        <v>43383.41666666666</v>
+        <v>43389.41666666666</v>
       </c>
       <c r="G71">
-        <v>846.587692132769</v>
+        <v>335.9645880405351</v>
       </c>
       <c r="H71">
         <v>50</v>
       </c>
       <c r="I71" s="2">
-        <v>43383.67361111111</v>
+        <v>43389.67361111111</v>
       </c>
       <c r="J71">
-        <v>692.7164519834769</v>
+        <v>437.2151592028204</v>
       </c>
       <c r="K71">
         <v>200</v>
@@ -3547,13 +3541,13 @@
         <v>0</v>
       </c>
       <c r="M71">
-        <v>-7893.562007464607</v>
+        <v>4862.528558114263</v>
       </c>
       <c r="N71">
-        <v>-18</v>
+        <v>28.94667313882251</v>
       </c>
       <c r="O71">
-        <v>-7893.562007464607</v>
+        <v>4862.528558114263</v>
       </c>
     </row>
     <row r="72" spans="1:15">
@@ -3561,25 +3555,25 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E72" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F72" s="2">
-        <v>43383.97222222222</v>
+        <v>43390.41666666666</v>
       </c>
       <c r="G72">
-        <v>0.46057</v>
+        <v>25772</v>
       </c>
       <c r="H72">
-        <v>420000</v>
+        <v>150</v>
       </c>
       <c r="I72" s="2">
-        <v>43384.87638888889</v>
+        <v>43390.67361111111</v>
       </c>
       <c r="J72">
-        <v>0.39827</v>
+        <v>25772</v>
       </c>
       <c r="K72">
         <v>200</v>
@@ -3588,13 +3582,13 @@
         <v>0</v>
       </c>
       <c r="M72">
-        <v>204842.0091999999</v>
+        <v>-200</v>
       </c>
       <c r="N72">
-        <v>13</v>
+        <v>-0.005173573387138496</v>
       </c>
       <c r="O72">
-        <v>204842.0091999999</v>
+        <v>-200</v>
       </c>
     </row>
     <row r="73" spans="1:15">
@@ -3602,25 +3596,31 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="C73">
+        <v>25200</v>
+      </c>
+      <c r="D73">
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F73" s="2">
-        <v>43384.41666666666</v>
+        <v>43390.41666666666</v>
       </c>
       <c r="G73">
-        <v>25334</v>
+        <v>275.8338718934065</v>
       </c>
       <c r="H73">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="I73" s="2">
-        <v>43384.67361111111</v>
+        <v>43390.67361111111</v>
       </c>
       <c r="J73">
-        <v>25247</v>
+        <v>275.8338718934065</v>
       </c>
       <c r="K73">
         <v>200</v>
@@ -3629,13 +3629,13 @@
         <v>0</v>
       </c>
       <c r="M73">
-        <v>12850</v>
+        <v>-200</v>
       </c>
       <c r="N73">
-        <v>0</v>
+        <v>-1.450148226011113</v>
       </c>
       <c r="O73">
-        <v>12850</v>
+        <v>-200</v>
       </c>
     </row>
     <row r="74" spans="1:15">
@@ -3643,31 +3643,25 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>16</v>
-      </c>
-      <c r="C74">
-        <v>24800</v>
-      </c>
-      <c r="D74">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E74" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F74" s="2">
-        <v>43384.41666666666</v>
+        <v>43390.94513888889</v>
       </c>
       <c r="G74">
-        <v>280.9889974075058</v>
+        <v>0.458</v>
       </c>
       <c r="H74">
-        <v>50</v>
+        <v>420000</v>
       </c>
       <c r="I74" s="2">
-        <v>43384.67361111111</v>
+        <v>43390.94722222222</v>
       </c>
       <c r="J74">
-        <v>311.1567002674292</v>
+        <v>0.46244</v>
       </c>
       <c r="K74">
         <v>200</v>
@@ -3676,13 +3670,13 @@
         <v>0</v>
       </c>
       <c r="M74">
-        <v>1308.385142996167</v>
+        <v>-14814.99704</v>
       </c>
       <c r="N74">
-        <v>9</v>
+        <v>-0.9826985820909625</v>
       </c>
       <c r="O74">
-        <v>1308.385142996167</v>
+        <v>-14814.99704</v>
       </c>
     </row>
     <row r="75" spans="1:15">
@@ -3690,25 +3684,25 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E75" t="s">
         <v>19</v>
       </c>
       <c r="F75" s="2">
-        <v>43384.96180555555</v>
+        <v>43391.41666666666</v>
       </c>
       <c r="G75">
-        <v>0.40455</v>
+        <v>25402</v>
       </c>
       <c r="H75">
-        <v>420000</v>
+        <v>150</v>
       </c>
       <c r="I75" s="2">
-        <v>43385.01597222222</v>
+        <v>43391.67361111111</v>
       </c>
       <c r="J75">
-        <v>0.40449</v>
+        <v>25445</v>
       </c>
       <c r="K75">
         <v>200</v>
@@ -3717,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="M75">
-        <v>-2.530279999985197</v>
+        <v>-6650</v>
       </c>
       <c r="N75">
-        <v>0</v>
+        <v>-0.1745269401359473</v>
       </c>
       <c r="O75">
-        <v>-2.530279999985197</v>
+        <v>-6650</v>
       </c>
     </row>
     <row r="76" spans="1:15">
@@ -3731,25 +3725,31 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="C76">
+        <v>25000</v>
+      </c>
+      <c r="D76">
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F76" s="2">
-        <v>43385.09652777778</v>
+        <v>43391.41666666666</v>
       </c>
       <c r="G76">
-        <v>0.40554</v>
+        <v>313.3827528159836</v>
       </c>
       <c r="H76">
-        <v>420000</v>
+        <v>50</v>
       </c>
       <c r="I76" s="2">
-        <v>43385.63611111111</v>
+        <v>43391.67361111111</v>
       </c>
       <c r="J76">
-        <v>0.43224</v>
+        <v>297.7724446334523</v>
       </c>
       <c r="K76">
         <v>200</v>
@@ -3758,13 +3758,13 @@
         <v>0</v>
       </c>
       <c r="M76">
-        <v>-88065.0542</v>
+        <v>-980.5154091265649</v>
       </c>
       <c r="N76">
-        <v>-6</v>
+        <v>-6.257622031307622</v>
       </c>
       <c r="O76">
-        <v>-88065.0542</v>
+        <v>-980.5154091265649</v>
       </c>
     </row>
     <row r="77" spans="1:15">
@@ -3772,25 +3772,25 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E77" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F77" s="2">
-        <v>43385.41666666666</v>
+        <v>43391.99027777778</v>
       </c>
       <c r="G77">
-        <v>25379</v>
+        <v>0.45556</v>
       </c>
       <c r="H77">
-        <v>150</v>
+        <v>420000</v>
       </c>
       <c r="I77" s="2">
-        <v>43385.67361111111</v>
+        <v>43392.84513888889</v>
       </c>
       <c r="J77">
-        <v>25739</v>
+        <v>0.44675</v>
       </c>
       <c r="K77">
         <v>200</v>
@@ -3799,13 +3799,13 @@
         <v>0</v>
       </c>
       <c r="M77">
-        <v>53800</v>
+        <v>28805.86780000013</v>
       </c>
       <c r="N77">
-        <v>1</v>
+        <v>1.920549141846736</v>
       </c>
       <c r="O77">
-        <v>53800</v>
+        <v>28805.86780000013</v>
       </c>
     </row>
     <row r="78" spans="1:15">
@@ -3813,31 +3813,25 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>17</v>
-      </c>
-      <c r="C78">
-        <v>24800</v>
-      </c>
-      <c r="D78">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E78" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F78" s="2">
-        <v>43385.41666666666</v>
+        <v>43392.41666666666</v>
       </c>
       <c r="G78">
-        <v>791.3123242999682</v>
+        <v>25268</v>
       </c>
       <c r="H78">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="I78" s="2">
-        <v>43385.67361111111</v>
+        <v>43392.55347222222</v>
       </c>
       <c r="J78">
-        <v>1055.682141927973</v>
+        <v>25530</v>
       </c>
       <c r="K78">
         <v>200</v>
@@ -3846,13 +3840,13 @@
         <v>0</v>
       </c>
       <c r="M78">
-        <v>13018.49088140025</v>
+        <v>-39500</v>
       </c>
       <c r="N78">
-        <v>32</v>
+        <v>-1.042161363516437</v>
       </c>
       <c r="O78">
-        <v>13018.49088140025</v>
+        <v>-39500</v>
       </c>
     </row>
     <row r="79" spans="1:15">
@@ -3860,25 +3854,31 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="C79">
+        <v>24800</v>
+      </c>
+      <c r="D79">
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F79" s="2">
-        <v>43386.00625</v>
+        <v>43392.41666666666</v>
       </c>
       <c r="G79">
-        <v>0.42151</v>
+        <v>267.8679004969799</v>
       </c>
       <c r="H79">
-        <v>420000</v>
+        <v>50</v>
       </c>
       <c r="I79" s="2">
-        <v>43386.15625</v>
+        <v>43392.67361111111</v>
       </c>
       <c r="J79">
-        <v>0.41961</v>
+        <v>200.4089507548824</v>
       </c>
       <c r="K79">
         <v>200</v>
@@ -3887,13 +3887,13 @@
         <v>0</v>
       </c>
       <c r="M79">
-        <v>6052.170400000043</v>
+        <v>-3572.947487104875</v>
       </c>
       <c r="N79">
-        <v>0</v>
+        <v>-26.67693650845005</v>
       </c>
       <c r="O79">
-        <v>6052.170400000043</v>
+        <v>-3572.947487104875</v>
       </c>
     </row>
     <row r="80" spans="1:15">
@@ -3907,19 +3907,19 @@
         <v>20</v>
       </c>
       <c r="F80" s="2">
-        <v>43386.41666666666</v>
+        <v>43395.41666666666</v>
       </c>
       <c r="G80">
-        <v>25572</v>
+        <v>25816</v>
       </c>
       <c r="H80">
         <v>150</v>
       </c>
       <c r="I80" s="2">
-        <v>43386.67361111111</v>
+        <v>43395.48333333333</v>
       </c>
       <c r="J80">
-        <v>25572</v>
+        <v>26078</v>
       </c>
       <c r="K80">
         <v>200</v>
@@ -3928,13 +3928,13 @@
         <v>0</v>
       </c>
       <c r="M80">
-        <v>-200</v>
+        <v>39100</v>
       </c>
       <c r="N80">
-        <v>0</v>
+        <v>1.009709740729263</v>
       </c>
       <c r="O80">
-        <v>-200</v>
+        <v>39100</v>
       </c>
     </row>
     <row r="81" spans="1:15">
@@ -3945,7 +3945,7 @@
         <v>17</v>
       </c>
       <c r="C81">
-        <v>25000</v>
+        <v>25400</v>
       </c>
       <c r="D81">
         <v>10</v>
@@ -3954,19 +3954,19 @@
         <v>20</v>
       </c>
       <c r="F81" s="2">
-        <v>43386.41666666666</v>
+        <v>43395.41666666666</v>
       </c>
       <c r="G81">
-        <v>774.933307326166</v>
+        <v>235.5074816823526</v>
       </c>
       <c r="H81">
         <v>50</v>
       </c>
       <c r="I81" s="2">
-        <v>43386.67361111111</v>
+        <v>43395.67361111111</v>
       </c>
       <c r="J81">
-        <v>774.933307326166</v>
+        <v>148.5982732579732</v>
       </c>
       <c r="K81">
         <v>200</v>
@@ -3975,13 +3975,13 @@
         <v>0</v>
       </c>
       <c r="M81">
-        <v>-200</v>
+        <v>-4545.460421218968</v>
       </c>
       <c r="N81">
-        <v>0</v>
+        <v>-38.6014099318491</v>
       </c>
       <c r="O81">
-        <v>-200</v>
+        <v>-4545.460421218968</v>
       </c>
     </row>
     <row r="82" spans="1:15">
@@ -3989,25 +3989,25 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E82" t="s">
         <v>19</v>
       </c>
       <c r="F82" s="2">
-        <v>43388.16666666666</v>
+        <v>43396.41666666666</v>
       </c>
       <c r="G82">
-        <v>0.7495000000000001</v>
+        <v>25801</v>
       </c>
       <c r="H82">
-        <v>4000000</v>
+        <v>150</v>
       </c>
       <c r="I82" s="2">
-        <v>43434.16666666666</v>
+        <v>43396.67361111111</v>
       </c>
       <c r="J82">
-        <v>0.6609</v>
+        <v>25312</v>
       </c>
       <c r="K82">
         <v>200</v>
@@ -4016,13 +4016,13 @@
         <v>0</v>
       </c>
       <c r="M82">
-        <v>45146526.86230248</v>
+        <v>73150</v>
       </c>
       <c r="N82">
-        <v>845</v>
+        <v>1.890107618567756</v>
       </c>
       <c r="O82">
-        <v>45146526.86230248</v>
+        <v>73150</v>
       </c>
     </row>
     <row r="83" spans="1:15">
@@ -4030,25 +4030,31 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="C83">
+        <v>25400</v>
+      </c>
+      <c r="D83">
+        <v>10</v>
       </c>
       <c r="E83" t="s">
         <v>20</v>
       </c>
       <c r="F83" s="2">
-        <v>43388.41666666666</v>
+        <v>43396.41666666666</v>
       </c>
       <c r="G83">
-        <v>25623</v>
+        <v>218.4329319610097</v>
       </c>
       <c r="H83">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="I83" s="2">
-        <v>43388.67361111111</v>
+        <v>43396.67361111111</v>
       </c>
       <c r="J83">
-        <v>25375</v>
+        <v>432.0153383630623</v>
       </c>
       <c r="K83">
         <v>200</v>
@@ -4057,13 +4063,13 @@
         <v>0</v>
       </c>
       <c r="M83">
-        <v>-37400</v>
+        <v>10479.12032010263</v>
       </c>
       <c r="N83">
-        <v>0</v>
+        <v>95.94817252165213</v>
       </c>
       <c r="O83">
-        <v>-37400</v>
+        <v>10479.12032010263</v>
       </c>
     </row>
     <row r="84" spans="1:15">
@@ -4071,31 +4077,25 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>17</v>
-      </c>
-      <c r="C84">
-        <v>25200</v>
-      </c>
-      <c r="D84">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E84" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F84" s="2">
-        <v>43388.41666666666</v>
+        <v>43396.81805555556</v>
       </c>
       <c r="G84">
-        <v>679.1500112295307</v>
+        <v>0.43608</v>
       </c>
       <c r="H84">
-        <v>50</v>
+        <v>420000</v>
       </c>
       <c r="I84" s="2">
-        <v>43388.67361111111</v>
+        <v>43396.90486111111</v>
       </c>
       <c r="J84">
-        <v>530.6135568270347</v>
+        <v>0.44031</v>
       </c>
       <c r="K84">
         <v>200</v>
@@ -4104,13 +4104,13 @@
         <v>0</v>
       </c>
       <c r="M84">
-        <v>-7626.822720124801</v>
+        <v>-14127.83335999985</v>
       </c>
       <c r="N84">
-        <v>-22</v>
+        <v>-0.9839345258237058</v>
       </c>
       <c r="O84">
-        <v>-7626.822720124801</v>
+        <v>-14127.83335999985</v>
       </c>
     </row>
     <row r="85" spans="1:15">
@@ -4121,22 +4121,22 @@
         <v>15</v>
       </c>
       <c r="E85" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F85" s="2">
-        <v>43389.41666666666</v>
+        <v>43397.41666666666</v>
       </c>
       <c r="G85">
-        <v>25648</v>
+        <v>25305</v>
       </c>
       <c r="H85">
         <v>150</v>
       </c>
       <c r="I85" s="2">
-        <v>43389.67361111111</v>
+        <v>43397.47222222222</v>
       </c>
       <c r="J85">
-        <v>25397</v>
+        <v>25573</v>
       </c>
       <c r="K85">
         <v>200</v>
@@ -4145,13 +4145,13 @@
         <v>0</v>
       </c>
       <c r="M85">
-        <v>-37850</v>
+        <v>-40400</v>
       </c>
       <c r="N85">
-        <v>0</v>
+        <v>-1.064348284265297</v>
       </c>
       <c r="O85">
-        <v>-37850</v>
+        <v>-40400</v>
       </c>
     </row>
     <row r="86" spans="1:15">
@@ -4159,10 +4159,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C86">
-        <v>25200</v>
+        <v>24800</v>
       </c>
       <c r="D86">
         <v>10</v>
@@ -4171,19 +4171,19 @@
         <v>20</v>
       </c>
       <c r="F86" s="2">
-        <v>43389.41666666666</v>
+        <v>43397.41666666666</v>
       </c>
       <c r="G86">
-        <v>678.8732108210716</v>
+        <v>155.9799921758095</v>
       </c>
       <c r="H86">
         <v>50</v>
       </c>
       <c r="I86" s="2">
-        <v>43389.67361111111</v>
+        <v>43397.67361111111</v>
       </c>
       <c r="J86">
-        <v>525.3429979607117</v>
+        <v>184.519579175846</v>
       </c>
       <c r="K86">
         <v>200</v>
@@ -4192,13 +4192,13 @@
         <v>0</v>
       </c>
       <c r="M86">
-        <v>-7876.510643017991</v>
+        <v>1226.97935000183</v>
       </c>
       <c r="N86">
-        <v>-23</v>
+        <v>15.7325222663028</v>
       </c>
       <c r="O86">
-        <v>-7876.510643017991</v>
+        <v>1226.97935000183</v>
       </c>
     </row>
     <row r="87" spans="1:15">
@@ -4206,25 +4206,25 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E87" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F87" s="2">
-        <v>43390.41666666666</v>
+        <v>43398.12777777778</v>
       </c>
       <c r="G87">
-        <v>25772</v>
+        <v>0.45788</v>
       </c>
       <c r="H87">
-        <v>150</v>
+        <v>420000</v>
       </c>
       <c r="I87" s="2">
-        <v>43390.67361111111</v>
+        <v>43398.63680555556</v>
       </c>
       <c r="J87">
-        <v>25772</v>
+        <v>0.45131</v>
       </c>
       <c r="K87">
         <v>200</v>
@@ -4233,13 +4233,13 @@
         <v>0</v>
       </c>
       <c r="M87">
-        <v>-200</v>
+        <v>21431.21254000007</v>
       </c>
       <c r="N87">
-        <v>0</v>
+        <v>1.421607068557605</v>
       </c>
       <c r="O87">
-        <v>-200</v>
+        <v>21431.21254000007</v>
       </c>
     </row>
     <row r="88" spans="1:15">
@@ -4247,31 +4247,25 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>17</v>
-      </c>
-      <c r="C88">
-        <v>25200</v>
-      </c>
-      <c r="D88">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E88" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F88" s="2">
-        <v>43390.41666666666</v>
+        <v>43398.41666666666</v>
       </c>
       <c r="G88">
-        <v>746.4727124235942</v>
+        <v>24637</v>
       </c>
       <c r="H88">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="I88" s="2">
-        <v>43390.67361111111</v>
+        <v>43398.65347222222</v>
       </c>
       <c r="J88">
-        <v>746.4727124235942</v>
+        <v>24886</v>
       </c>
       <c r="K88">
         <v>200</v>
@@ -4280,13 +4274,13 @@
         <v>0</v>
       </c>
       <c r="M88">
-        <v>-200</v>
+        <v>-37550</v>
       </c>
       <c r="N88">
-        <v>0</v>
+        <v>-1.01608691534413</v>
       </c>
       <c r="O88">
-        <v>-200</v>
+        <v>-37550</v>
       </c>
     </row>
     <row r="89" spans="1:15">
@@ -4294,25 +4288,31 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="C89">
+        <v>24200</v>
+      </c>
+      <c r="D89">
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F89" s="2">
-        <v>43391.41666666666</v>
+        <v>43398.41666666666</v>
       </c>
       <c r="G89">
-        <v>25402</v>
+        <v>145.8477986162106</v>
       </c>
       <c r="H89">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="I89" s="2">
-        <v>43391.67361111111</v>
+        <v>43398.67361111111</v>
       </c>
       <c r="J89">
-        <v>25445</v>
+        <v>71.55626341804418</v>
       </c>
       <c r="K89">
         <v>200</v>
@@ -4321,13 +4321,13 @@
         <v>0</v>
       </c>
       <c r="M89">
-        <v>-6650</v>
+        <v>-3914.576759908323</v>
       </c>
       <c r="N89">
-        <v>0</v>
+        <v>-53.6802995595331</v>
       </c>
       <c r="O89">
-        <v>-6650</v>
+        <v>-3914.576759908323</v>
       </c>
     </row>
     <row r="90" spans="1:15">
@@ -4335,31 +4335,25 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>16</v>
-      </c>
-      <c r="C90">
-        <v>25000</v>
-      </c>
-      <c r="D90">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E90" t="s">
         <v>20</v>
       </c>
       <c r="F90" s="2">
-        <v>43391.41666666666</v>
+        <v>43399.41666666666</v>
       </c>
       <c r="G90">
-        <v>234.3513123243629</v>
+        <v>24985</v>
       </c>
       <c r="H90">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="I90" s="2">
-        <v>43391.67361111111</v>
+        <v>43399.67361111111</v>
       </c>
       <c r="J90">
-        <v>219.8956631176052</v>
+        <v>24647</v>
       </c>
       <c r="K90">
         <v>200</v>
@@ -4368,13 +4362,13 @@
         <v>0</v>
       </c>
       <c r="M90">
-        <v>-922.7824603378849</v>
+        <v>-50900</v>
       </c>
       <c r="N90">
-        <v>-7</v>
+        <v>-1.358148222266693</v>
       </c>
       <c r="O90">
-        <v>-922.7824603378849</v>
+        <v>-50900</v>
       </c>
     </row>
     <row r="91" spans="1:15">
@@ -4382,25 +4376,31 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="C91">
+        <v>24400</v>
+      </c>
+      <c r="D91">
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F91" s="2">
-        <v>43391.99097222222</v>
+        <v>43399.41666666666</v>
       </c>
       <c r="G91">
-        <v>0.45556</v>
+        <v>88.22446850723736</v>
       </c>
       <c r="H91">
-        <v>420000</v>
+        <v>50</v>
       </c>
       <c r="I91" s="2">
-        <v>43392.89861111111</v>
+        <v>43399.67361111111</v>
       </c>
       <c r="J91">
-        <v>0.4481</v>
+        <v>184.5094443892795</v>
       </c>
       <c r="K91">
         <v>200</v>
@@ -4409,13 +4409,13 @@
         <v>0</v>
       </c>
       <c r="M91">
-        <v>24361.78144000007</v>
+        <v>4614.248794102105</v>
       </c>
       <c r="N91">
-        <v>1</v>
+        <v>104.6024730366856</v>
       </c>
       <c r="O91">
-        <v>24361.78144000007</v>
+        <v>4614.248794102105</v>
       </c>
     </row>
     <row r="92" spans="1:15">
@@ -4423,25 +4423,25 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E92" t="s">
         <v>19</v>
       </c>
       <c r="F92" s="2">
-        <v>43392.41666666666</v>
+        <v>43399.72569444445</v>
       </c>
       <c r="G92">
-        <v>25268</v>
+        <v>0.45601</v>
       </c>
       <c r="H92">
-        <v>150</v>
+        <v>420000</v>
       </c>
       <c r="I92" s="2">
-        <v>43392.67361111111</v>
+        <v>43400.00555555556</v>
       </c>
       <c r="J92">
-        <v>25487</v>
+        <v>0.45569</v>
       </c>
       <c r="K92">
         <v>200</v>
@@ -4450,13 +4450,13 @@
         <v>0</v>
       </c>
       <c r="M92">
-        <v>-33050</v>
+        <v>853.6019200001399</v>
       </c>
       <c r="N92">
-        <v>0</v>
+        <v>0.05685313815079673</v>
       </c>
       <c r="O92">
-        <v>-33050</v>
+        <v>853.6019200001399</v>
       </c>
     </row>
     <row r="93" spans="1:15">
@@ -4464,31 +4464,25 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>16</v>
-      </c>
-      <c r="C93">
-        <v>24800</v>
-      </c>
-      <c r="D93">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E93" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F93" s="2">
-        <v>43392.41666666666</v>
+        <v>43402.41666666666</v>
       </c>
       <c r="G93">
-        <v>188.5723578204024</v>
+        <v>24761</v>
       </c>
       <c r="H93">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="I93" s="2">
-        <v>43392.67361111111</v>
+        <v>43402.67361111111</v>
       </c>
       <c r="J93">
-        <v>129.6506185040753</v>
+        <v>24819</v>
       </c>
       <c r="K93">
         <v>200</v>
@@ -4497,13 +4491,13 @@
         <v>0</v>
       </c>
       <c r="M93">
-        <v>-3146.086965816357</v>
+        <v>-8900</v>
       </c>
       <c r="N93">
-        <v>-33</v>
+        <v>-0.2396241401128118</v>
       </c>
       <c r="O93">
-        <v>-3146.086965816357</v>
+        <v>-8900</v>
       </c>
     </row>
     <row r="94" spans="1:15">
@@ -4511,25 +4505,31 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="C94">
+        <v>24200</v>
+      </c>
+      <c r="D94">
+        <v>10</v>
       </c>
       <c r="E94" t="s">
         <v>20</v>
       </c>
       <c r="F94" s="2">
-        <v>43393.41666666666</v>
+        <v>43402.41666666666</v>
       </c>
       <c r="G94">
-        <v>25468</v>
+        <v>24.06504095328501</v>
       </c>
       <c r="H94">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="I94" s="2">
-        <v>43393.67361111111</v>
+        <v>43402.67361111111</v>
       </c>
       <c r="J94">
-        <v>25468</v>
+        <v>18.43205806575088</v>
       </c>
       <c r="K94">
         <v>200</v>
@@ -4538,13 +4538,13 @@
         <v>0</v>
       </c>
       <c r="M94">
-        <v>-200</v>
+        <v>-481.6491443767063</v>
       </c>
       <c r="N94">
-        <v>0</v>
+        <v>-40.02894865723955</v>
       </c>
       <c r="O94">
-        <v>-200</v>
+        <v>-481.6491443767063</v>
       </c>
     </row>
     <row r="95" spans="1:15">
@@ -4552,31 +4552,25 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>17</v>
-      </c>
-      <c r="C95">
-        <v>25000</v>
-      </c>
-      <c r="D95">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E95" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F95" s="2">
-        <v>43393.41666666666</v>
+        <v>43403.13472222222</v>
       </c>
       <c r="G95">
-        <v>617.1526244636952</v>
+        <v>0.43771</v>
       </c>
       <c r="H95">
-        <v>50</v>
+        <v>420000</v>
       </c>
       <c r="I95" s="2">
-        <v>43393.67361111111</v>
+        <v>43403.46180555555</v>
       </c>
       <c r="J95">
-        <v>617.1526244636952</v>
+        <v>0.44241</v>
       </c>
       <c r="K95">
         <v>200</v>
@@ -4585,13 +4579,13 @@
         <v>0</v>
       </c>
       <c r="M95">
-        <v>-200</v>
+        <v>-15684.05600000012</v>
       </c>
       <c r="N95">
-        <v>0</v>
+        <v>-1.087639671900906</v>
       </c>
       <c r="O95">
-        <v>-200</v>
+        <v>-15684.05600000012</v>
       </c>
     </row>
     <row r="96" spans="1:15">
@@ -4602,22 +4596,22 @@
         <v>15</v>
       </c>
       <c r="E96" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F96" s="2">
-        <v>43395.41666666666</v>
+        <v>43403.41666666666</v>
       </c>
       <c r="G96">
-        <v>25816</v>
+        <v>24645</v>
       </c>
       <c r="H96">
         <v>150</v>
       </c>
       <c r="I96" s="2">
-        <v>43395.67361111111</v>
+        <v>43403.67361111111</v>
       </c>
       <c r="J96">
-        <v>26116</v>
+        <v>24722</v>
       </c>
       <c r="K96">
         <v>200</v>
@@ -4626,13 +4620,13 @@
         <v>0</v>
       </c>
       <c r="M96">
-        <v>44800</v>
+        <v>-11750</v>
       </c>
       <c r="N96">
-        <v>1</v>
+        <v>-0.317846757286806</v>
       </c>
       <c r="O96">
-        <v>44800</v>
+        <v>-11750</v>
       </c>
     </row>
     <row r="97" spans="1:15">
@@ -4640,10 +4634,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C97">
-        <v>25400</v>
+        <v>24200</v>
       </c>
       <c r="D97">
         <v>10</v>
@@ -4652,19 +4646,19 @@
         <v>20</v>
       </c>
       <c r="F97" s="2">
-        <v>43395.41666666666</v>
+        <v>43403.41666666666</v>
       </c>
       <c r="G97">
-        <v>585.98594622788</v>
+        <v>12.13659533199575</v>
       </c>
       <c r="H97">
         <v>50</v>
       </c>
       <c r="I97" s="2">
-        <v>43395.67361111111</v>
+        <v>43403.67361111111</v>
       </c>
       <c r="J97">
-        <v>806.3362437035976</v>
+        <v>7.054738738748938</v>
       </c>
       <c r="K97">
         <v>200</v>
@@ -4673,13 +4667,13 @@
         <v>0</v>
       </c>
       <c r="M97">
-        <v>10817.51487378588</v>
+        <v>-454.0928296623406</v>
       </c>
       <c r="N97">
-        <v>36</v>
+        <v>-74.83034858469971</v>
       </c>
       <c r="O97">
-        <v>10817.51487378588</v>
+        <v>-454.0928296623406</v>
       </c>
     </row>
     <row r="98" spans="1:15">
@@ -4690,22 +4684,22 @@
         <v>15</v>
       </c>
       <c r="E98" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F98" s="2">
-        <v>43396.41666666666</v>
+        <v>43404.41666666666</v>
       </c>
       <c r="G98">
-        <v>25801</v>
+        <v>24818</v>
       </c>
       <c r="H98">
         <v>150</v>
       </c>
       <c r="I98" s="2">
-        <v>43396.67361111111</v>
+        <v>43404.67361111111</v>
       </c>
       <c r="J98">
-        <v>25312</v>
+        <v>24925</v>
       </c>
       <c r="K98">
         <v>200</v>
@@ -4714,13 +4708,13 @@
         <v>0</v>
       </c>
       <c r="M98">
-        <v>73150</v>
+        <v>15850</v>
       </c>
       <c r="N98">
-        <v>1</v>
+        <v>0.4257662449297553</v>
       </c>
       <c r="O98">
-        <v>73150</v>
+        <v>15850</v>
       </c>
     </row>
     <row r="99" spans="1:15">
@@ -4728,31 +4722,31 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C99">
-        <v>25400</v>
+        <v>24400</v>
       </c>
       <c r="D99">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
         <v>20</v>
       </c>
       <c r="F99" s="2">
-        <v>43396.41666666666</v>
+        <v>43404.41666666666</v>
       </c>
       <c r="G99">
-        <v>170.4852142447353</v>
+        <v>546.723501405806</v>
       </c>
       <c r="H99">
         <v>50</v>
       </c>
       <c r="I99" s="2">
-        <v>43396.67361111111</v>
+        <v>43404.67361111111</v>
       </c>
       <c r="J99">
-        <v>379.2358841632977</v>
+        <v>504.1896616067788</v>
       </c>
       <c r="K99">
         <v>200</v>
@@ -4761,13 +4755,13 @@
         <v>0</v>
       </c>
       <c r="M99">
-        <v>10237.53349592812</v>
+        <v>-2326.69198995136</v>
       </c>
       <c r="N99">
-        <v>120</v>
+        <v>-8.511402871720966</v>
       </c>
       <c r="O99">
-        <v>10237.53349592812</v>
+        <v>-2326.69198995136</v>
       </c>
     </row>
     <row r="100" spans="1:15">
@@ -4775,25 +4769,25 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E100" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F100" s="2">
-        <v>43396.63611111111</v>
+        <v>43405.41666666666</v>
       </c>
       <c r="G100">
-        <v>0.44602</v>
+        <v>25343</v>
       </c>
       <c r="H100">
-        <v>420000</v>
+        <v>150</v>
       </c>
       <c r="I100" s="2">
-        <v>43396.90069444444</v>
+        <v>43405.67361111111</v>
       </c>
       <c r="J100">
-        <v>0.43967</v>
+        <v>25360</v>
       </c>
       <c r="K100">
         <v>200</v>
@@ -4802,13 +4796,13 @@
         <v>0</v>
       </c>
       <c r="M100">
-        <v>20708.21320000007</v>
+        <v>2350</v>
       </c>
       <c r="N100">
-        <v>1</v>
+        <v>0.06181851661865867</v>
       </c>
       <c r="O100">
-        <v>20708.21320000007</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="101" spans="1:15">
@@ -4816,25 +4810,31 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="C101">
+        <v>24800</v>
+      </c>
+      <c r="D101">
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F101" s="2">
-        <v>43397.41666666666</v>
+        <v>43405.41666666666</v>
       </c>
       <c r="G101">
-        <v>25305</v>
+        <v>496.1686251051724</v>
       </c>
       <c r="H101">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="I101" s="2">
-        <v>43397.67361111111</v>
+        <v>43405.67361111111</v>
       </c>
       <c r="J101">
-        <v>25210</v>
+        <v>489.704964968445</v>
       </c>
       <c r="K101">
         <v>200</v>
@@ -4843,13 +4843,13 @@
         <v>0</v>
       </c>
       <c r="M101">
-        <v>14050</v>
+        <v>-523.1830068363706</v>
       </c>
       <c r="N101">
-        <v>0</v>
+        <v>-2.108891938604429</v>
       </c>
       <c r="O101">
-        <v>14050</v>
+        <v>-523.1830068363706</v>
       </c>
     </row>
     <row r="102" spans="1:15">
@@ -4857,31 +4857,25 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>16</v>
-      </c>
-      <c r="C102">
-        <v>24800</v>
-      </c>
-      <c r="D102">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E102" t="s">
         <v>20</v>
       </c>
       <c r="F102" s="2">
-        <v>43397.41666666666</v>
+        <v>43406.41666666666</v>
       </c>
       <c r="G102">
-        <v>110.1105655393294</v>
+        <v>25941</v>
       </c>
       <c r="H102">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="I102" s="2">
-        <v>43397.67361111111</v>
+        <v>43406.54305555556</v>
       </c>
       <c r="J102">
-        <v>135.5247563539015</v>
+        <v>26265</v>
       </c>
       <c r="K102">
         <v>200</v>
@@ -4890,13 +4884,13 @@
         <v>0</v>
       </c>
       <c r="M102">
-        <v>1070.709540728603</v>
+        <v>48400</v>
       </c>
       <c r="N102">
-        <v>19</v>
+        <v>1.243848219677987</v>
       </c>
       <c r="O102">
-        <v>1070.709540728603</v>
+        <v>48400</v>
       </c>
     </row>
     <row r="103" spans="1:15">
@@ -4904,25 +4898,31 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="C103">
+        <v>25400</v>
+      </c>
+      <c r="D103">
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F103" s="2">
-        <v>43397.96388888889</v>
+        <v>43406.41666666666</v>
       </c>
       <c r="G103">
-        <v>0.4562</v>
+        <v>500.7879088899645</v>
       </c>
       <c r="H103">
-        <v>420000</v>
+        <v>50</v>
       </c>
       <c r="I103" s="2">
-        <v>43398.87708333333</v>
+        <v>43406.67361111111</v>
       </c>
       <c r="J103">
-        <v>0.45293</v>
+        <v>333.5875238225717</v>
       </c>
       <c r="K103">
         <v>200</v>
@@ -4931,13 +4931,13 @@
         <v>0</v>
       </c>
       <c r="M103">
-        <v>10567.45599999998</v>
+        <v>-8560.019253369637</v>
       </c>
       <c r="N103">
-        <v>0</v>
+        <v>-34.18620578257806</v>
       </c>
       <c r="O103">
-        <v>10567.45599999998</v>
+        <v>-8560.019253369637</v>
       </c>
     </row>
     <row r="104" spans="1:15">
@@ -4945,25 +4945,25 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E104" t="s">
         <v>19</v>
       </c>
       <c r="F104" s="2">
-        <v>43398.41666666666</v>
+        <v>43406.97291666667</v>
       </c>
       <c r="G104">
-        <v>24637</v>
+        <v>0.46</v>
       </c>
       <c r="H104">
-        <v>150</v>
+        <v>420000</v>
       </c>
       <c r="I104" s="2">
-        <v>43398.67361111111</v>
+        <v>43408.99652777778</v>
       </c>
       <c r="J104">
-        <v>24968</v>
+        <v>0.46445</v>
       </c>
       <c r="K104">
         <v>200</v>
@@ -4972,13 +4972,13 @@
         <v>0</v>
       </c>
       <c r="M104">
-        <v>-49850</v>
+        <v>-14810.15989999985</v>
       </c>
       <c r="N104">
-        <v>-1</v>
+        <v>-0.9806340246324562</v>
       </c>
       <c r="O104">
-        <v>-49850</v>
+        <v>-14810.15989999985</v>
       </c>
     </row>
     <row r="105" spans="1:15">
@@ -4986,31 +4986,25 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>16</v>
-      </c>
-      <c r="C105">
-        <v>24200</v>
-      </c>
-      <c r="D105">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E105" t="s">
         <v>20</v>
       </c>
       <c r="F105" s="2">
-        <v>43398.41666666666</v>
+        <v>43409.41666666666</v>
       </c>
       <c r="G105">
-        <v>96.50467783485055</v>
+        <v>25966</v>
       </c>
       <c r="H105">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="I105" s="2">
-        <v>43398.67361111111</v>
+        <v>43409.67361111111</v>
       </c>
       <c r="J105">
-        <v>37.82356648619225</v>
+        <v>25925</v>
       </c>
       <c r="K105">
         <v>200</v>
@@ -5019,13 +5013,13 @@
         <v>0</v>
       </c>
       <c r="M105">
-        <v>-3134.055567432915</v>
+        <v>-6350</v>
       </c>
       <c r="N105">
-        <v>-64</v>
+        <v>-0.1630337107499551</v>
       </c>
       <c r="O105">
-        <v>-3134.055567432915</v>
+        <v>-6350</v>
       </c>
     </row>
     <row r="106" spans="1:15">
@@ -5033,25 +5027,31 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="C106">
+        <v>25400</v>
+      </c>
+      <c r="D106">
+        <v>11</v>
       </c>
       <c r="E106" t="s">
         <v>20</v>
       </c>
       <c r="F106" s="2">
-        <v>43399.41666666666</v>
+        <v>43409.41666666666</v>
       </c>
       <c r="G106">
-        <v>24985</v>
+        <v>450.6709717585582</v>
       </c>
       <c r="H106">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="I106" s="2">
-        <v>43399.67361111111</v>
+        <v>43409.67361111111</v>
       </c>
       <c r="J106">
-        <v>24647</v>
+        <v>466.0586811834164</v>
       </c>
       <c r="K106">
         <v>200</v>
@@ -5060,13 +5060,13 @@
         <v>0</v>
       </c>
       <c r="M106">
-        <v>-50900</v>
+        <v>569.3854712429129</v>
       </c>
       <c r="N106">
-        <v>-1</v>
+        <v>2.526834462051639</v>
       </c>
       <c r="O106">
-        <v>-50900</v>
+        <v>569.3854712429129</v>
       </c>
     </row>
     <row r="107" spans="1:15">
@@ -5074,31 +5074,25 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>17</v>
-      </c>
-      <c r="C107">
-        <v>24400</v>
-      </c>
-      <c r="D107">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E107" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F107" s="2">
-        <v>43399.41666666666</v>
+        <v>43410.41666666666</v>
       </c>
       <c r="G107">
-        <v>620.5482834685863</v>
+        <v>25833</v>
       </c>
       <c r="H107">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="I107" s="2">
-        <v>43399.67361111111</v>
+        <v>43410.62986111111</v>
       </c>
       <c r="J107">
-        <v>361.1732714386853</v>
+        <v>26120</v>
       </c>
       <c r="K107">
         <v>200</v>
@@ -5107,13 +5101,13 @@
         <v>0</v>
       </c>
       <c r="M107">
-        <v>-13168.75060149505</v>
+        <v>-43250</v>
       </c>
       <c r="N107">
-        <v>-42</v>
+        <v>-1.116143434108827</v>
       </c>
       <c r="O107">
-        <v>-13168.75060149505</v>
+        <v>-43250</v>
       </c>
     </row>
     <row r="108" spans="1:15">
@@ -5121,25 +5115,31 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="C108">
+        <v>25400</v>
+      </c>
+      <c r="D108">
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F108" s="2">
-        <v>43399.69791666666</v>
+        <v>43410.41666666666</v>
       </c>
       <c r="G108">
-        <v>0.45357</v>
+        <v>487.6838060369137</v>
       </c>
       <c r="H108">
-        <v>420000</v>
+        <v>50</v>
       </c>
       <c r="I108" s="2">
-        <v>43399.87569444445</v>
+        <v>43410.67361111111</v>
       </c>
       <c r="J108">
-        <v>0.45463</v>
+        <v>405.8808907490529</v>
       </c>
       <c r="K108">
         <v>200</v>
@@ -5148,13 +5148,13 @@
         <v>0</v>
       </c>
       <c r="M108">
-        <v>-3690.457040000018</v>
+        <v>-4290.145764393037</v>
       </c>
       <c r="N108">
-        <v>0</v>
+        <v>-17.59396441418155</v>
       </c>
       <c r="O108">
-        <v>-3690.457040000018</v>
+        <v>-4290.145764393037</v>
       </c>
     </row>
     <row r="109" spans="1:15">
@@ -5165,22 +5165,22 @@
         <v>15</v>
       </c>
       <c r="E109" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F109" s="2">
-        <v>43400.41666666666</v>
+        <v>43411.41666666666</v>
       </c>
       <c r="G109">
-        <v>24848</v>
+        <v>26096</v>
       </c>
       <c r="H109">
         <v>150</v>
       </c>
       <c r="I109" s="2">
-        <v>43400.67361111111</v>
+        <v>43411.48680555556</v>
       </c>
       <c r="J109">
-        <v>24848</v>
+        <v>26394</v>
       </c>
       <c r="K109">
         <v>200</v>
@@ -5189,13 +5189,13 @@
         <v>0</v>
       </c>
       <c r="M109">
-        <v>-200</v>
+        <v>44500</v>
       </c>
       <c r="N109">
-        <v>0</v>
+        <v>1.136828121806663</v>
       </c>
       <c r="O109">
-        <v>-200</v>
+        <v>44500</v>
       </c>
     </row>
     <row r="110" spans="1:15">
@@ -5203,31 +5203,31 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C110">
-        <v>24400</v>
+        <v>25600</v>
       </c>
       <c r="D110">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
         <v>20</v>
       </c>
       <c r="F110" s="2">
-        <v>43400.41666666666</v>
+        <v>43411.41666666666</v>
       </c>
       <c r="G110">
-        <v>40.08912443712188</v>
+        <v>453.6694796015163</v>
       </c>
       <c r="H110">
         <v>50</v>
       </c>
       <c r="I110" s="2">
-        <v>43400.67361111111</v>
+        <v>43411.67361111111</v>
       </c>
       <c r="J110">
-        <v>40.08912443712188</v>
+        <v>453.2871351465437</v>
       </c>
       <c r="K110">
         <v>200</v>
@@ -5236,13 +5236,13 @@
         <v>0</v>
       </c>
       <c r="M110">
-        <v>-200</v>
+        <v>-219.1172227486277</v>
       </c>
       <c r="N110">
-        <v>-9</v>
+        <v>-0.9659773584111976</v>
       </c>
       <c r="O110">
-        <v>-200</v>
+        <v>-219.1172227486277</v>
       </c>
     </row>
     <row r="111" spans="1:15">
@@ -5253,22 +5253,22 @@
         <v>15</v>
       </c>
       <c r="E111" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F111" s="2">
-        <v>43402.41666666666</v>
+        <v>43412.41666666666</v>
       </c>
       <c r="G111">
-        <v>24761</v>
+        <v>26339</v>
       </c>
       <c r="H111">
         <v>150</v>
       </c>
       <c r="I111" s="2">
-        <v>43402.67361111111</v>
+        <v>43412.67361111111</v>
       </c>
       <c r="J111">
-        <v>24819</v>
+        <v>26181</v>
       </c>
       <c r="K111">
         <v>200</v>
@@ -5277,13 +5277,13 @@
         <v>0</v>
       </c>
       <c r="M111">
-        <v>-8900</v>
+        <v>-23900</v>
       </c>
       <c r="N111">
-        <v>0</v>
+        <v>-0.6049331156586557</v>
       </c>
       <c r="O111">
-        <v>-8900</v>
+        <v>-23900</v>
       </c>
     </row>
     <row r="112" spans="1:15">
@@ -5291,31 +5291,31 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C112">
-        <v>24200</v>
+        <v>25800</v>
       </c>
       <c r="D112">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
         <v>20</v>
       </c>
       <c r="F112" s="2">
-        <v>43402.41666666666</v>
+        <v>43412.41666666666</v>
       </c>
       <c r="G112">
-        <v>24.06504095328501</v>
+        <v>427.6475885376494</v>
       </c>
       <c r="H112">
         <v>50</v>
       </c>
       <c r="I112" s="2">
-        <v>43402.67361111111</v>
+        <v>43412.67361111111</v>
       </c>
       <c r="J112">
-        <v>18.43205806575088</v>
+        <v>489.1570368290686</v>
       </c>
       <c r="K112">
         <v>200</v>
@@ -5324,13 +5324,13 @@
         <v>0</v>
       </c>
       <c r="M112">
-        <v>-481.6491443767063</v>
+        <v>2875.472414570959</v>
       </c>
       <c r="N112">
-        <v>-40</v>
+        <v>13.44785983432621</v>
       </c>
       <c r="O112">
-        <v>-481.6491443767063</v>
+        <v>2875.472414570959</v>
       </c>
     </row>
     <row r="113" spans="1:15">
@@ -5338,25 +5338,25 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E113" t="s">
         <v>19</v>
       </c>
       <c r="F113" s="2">
-        <v>43403.10486111111</v>
+        <v>43413.41666666666</v>
       </c>
       <c r="G113">
-        <v>0.43897</v>
+        <v>25728</v>
       </c>
       <c r="H113">
-        <v>420000</v>
+        <v>150</v>
       </c>
       <c r="I113" s="2">
-        <v>43403.90416666667</v>
+        <v>43413.67361111111</v>
       </c>
       <c r="J113">
-        <v>0.4435</v>
+        <v>25544</v>
       </c>
       <c r="K113">
         <v>200</v>
@@ -5365,13 +5365,13 @@
         <v>0</v>
       </c>
       <c r="M113">
-        <v>-15128.18011999993</v>
+        <v>27400</v>
       </c>
       <c r="N113">
-        <v>-1</v>
+        <v>0.7099917081260365</v>
       </c>
       <c r="O113">
-        <v>-15128.18011999993</v>
+        <v>27400</v>
       </c>
     </row>
     <row r="114" spans="1:15">
@@ -5379,25 +5379,31 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="C114">
+        <v>25200</v>
+      </c>
+      <c r="D114">
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F114" s="2">
-        <v>43403.41666666666</v>
+        <v>43413.41666666666</v>
       </c>
       <c r="G114">
-        <v>24645</v>
+        <v>402.4364954671692</v>
       </c>
       <c r="H114">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="I114" s="2">
-        <v>43403.67361111111</v>
+        <v>43413.67361111111</v>
       </c>
       <c r="J114">
-        <v>24722</v>
+        <v>474.1981562144119</v>
       </c>
       <c r="K114">
         <v>200</v>
@@ -5406,13 +5412,13 @@
         <v>0</v>
       </c>
       <c r="M114">
-        <v>-11750</v>
+        <v>3388.083037362139</v>
       </c>
       <c r="N114">
-        <v>0</v>
+        <v>16.83785181276403</v>
       </c>
       <c r="O114">
-        <v>-11750</v>
+        <v>3388.083037362139</v>
       </c>
     </row>
     <row r="115" spans="1:15">
@@ -5420,31 +5426,25 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>16</v>
-      </c>
-      <c r="C115">
-        <v>24200</v>
-      </c>
-      <c r="D115">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E115" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F115" s="2">
-        <v>43403.41666666666</v>
+        <v>43416.41666666666</v>
       </c>
       <c r="G115">
-        <v>12.13659533199575</v>
+        <v>25583</v>
       </c>
       <c r="H115">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="I115" s="2">
-        <v>43403.67361111111</v>
+        <v>43416.67361111111</v>
       </c>
       <c r="J115">
-        <v>7.054738738748938</v>
+        <v>25570</v>
       </c>
       <c r="K115">
         <v>200</v>
@@ -5453,13 +5453,13 @@
         <v>0</v>
       </c>
       <c r="M115">
-        <v>-454.0928296623406</v>
+        <v>1750</v>
       </c>
       <c r="N115">
-        <v>-74</v>
+        <v>0.04560320004169435</v>
       </c>
       <c r="O115">
-        <v>-454.0928296623406</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="116" spans="1:15">
@@ -5467,25 +5467,31 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="C116">
+        <v>25000</v>
+      </c>
+      <c r="D116">
+        <v>11</v>
       </c>
       <c r="E116" t="s">
         <v>20</v>
       </c>
       <c r="F116" s="2">
-        <v>43404.41666666666</v>
+        <v>43416.41666666666</v>
       </c>
       <c r="G116">
-        <v>24818</v>
+        <v>333.0819351061127</v>
       </c>
       <c r="H116">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="I116" s="2">
-        <v>43404.67361111111</v>
+        <v>43416.67361111111</v>
       </c>
       <c r="J116">
-        <v>24925</v>
+        <v>337.5409078023094</v>
       </c>
       <c r="K116">
         <v>200</v>
@@ -5494,13 +5500,13 @@
         <v>0</v>
       </c>
       <c r="M116">
-        <v>15850</v>
+        <v>22.94863480983622</v>
       </c>
       <c r="N116">
-        <v>0</v>
+        <v>0.1377957336685058</v>
       </c>
       <c r="O116">
-        <v>15850</v>
+        <v>22.94863480983622</v>
       </c>
     </row>
     <row r="117" spans="1:15">
@@ -5508,31 +5514,25 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>17</v>
-      </c>
-      <c r="C117">
-        <v>24400</v>
-      </c>
-      <c r="D117">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E117" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F117" s="2">
-        <v>43404.41666666666</v>
+        <v>43417.00069444445</v>
       </c>
       <c r="G117">
-        <v>796.3568942322217</v>
+        <v>0.5203</v>
       </c>
       <c r="H117">
-        <v>50</v>
+        <v>420000</v>
       </c>
       <c r="I117" s="2">
-        <v>43404.67361111111</v>
+        <v>43417.70902777778</v>
       </c>
       <c r="J117">
-        <v>862.4076195927191</v>
+        <v>0.51019</v>
       </c>
       <c r="K117">
         <v>200</v>
@@ -5541,13 +5541,13 @@
         <v>0</v>
       </c>
       <c r="M117">
-        <v>3102.536268024869</v>
+        <v>33052.41681999985</v>
       </c>
       <c r="N117">
-        <v>7</v>
+        <v>1.931422715703618</v>
       </c>
       <c r="O117">
-        <v>3102.536268024869</v>
+        <v>33052.41681999985</v>
       </c>
     </row>
     <row r="118" spans="1:15">
@@ -5558,22 +5558,22 @@
         <v>15</v>
       </c>
       <c r="E118" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F118" s="2">
-        <v>43405.41666666666</v>
+        <v>43417.41666666666</v>
       </c>
       <c r="G118">
-        <v>25343</v>
+        <v>25101</v>
       </c>
       <c r="H118">
         <v>150</v>
       </c>
       <c r="I118" s="2">
-        <v>43405.67361111111</v>
+        <v>43417.47638888889</v>
       </c>
       <c r="J118">
-        <v>25360</v>
+        <v>25361</v>
       </c>
       <c r="K118">
         <v>200</v>
@@ -5582,13 +5582,13 @@
         <v>0</v>
       </c>
       <c r="M118">
-        <v>2350</v>
+        <v>-39200</v>
       </c>
       <c r="N118">
-        <v>0</v>
+        <v>-1.04112717952804</v>
       </c>
       <c r="O118">
-        <v>2350</v>
+        <v>-39200</v>
       </c>
     </row>
     <row r="119" spans="1:15">
@@ -5596,10 +5596,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C119">
-        <v>24800</v>
+        <v>24600</v>
       </c>
       <c r="D119">
         <v>11</v>
@@ -5608,19 +5608,19 @@
         <v>20</v>
       </c>
       <c r="F119" s="2">
-        <v>43405.41666666666</v>
+        <v>43417.41666666666</v>
       </c>
       <c r="G119">
-        <v>870.9223632222711</v>
+        <v>337.6276370035976</v>
       </c>
       <c r="H119">
         <v>50</v>
       </c>
       <c r="I119" s="2">
-        <v>43405.67361111111</v>
+        <v>43417.67361111111</v>
       </c>
       <c r="J119">
-        <v>881.7716568197702</v>
+        <v>146.7056386214208</v>
       </c>
       <c r="K119">
         <v>200</v>
@@ -5629,13 +5629,13 @@
         <v>0</v>
       </c>
       <c r="M119">
-        <v>342.4646798749563</v>
+        <v>-9746.099919108838</v>
       </c>
       <c r="N119">
-        <v>0</v>
+        <v>-57.73283257024951</v>
       </c>
       <c r="O119">
-        <v>342.4646798749563</v>
+        <v>-9746.099919108838</v>
       </c>
     </row>
     <row r="120" spans="1:15">
@@ -5649,19 +5649,19 @@
         <v>20</v>
       </c>
       <c r="F120" s="2">
-        <v>43406.41666666666</v>
+        <v>43418.41666666666</v>
       </c>
       <c r="G120">
-        <v>25941</v>
+        <v>25632</v>
       </c>
       <c r="H120">
         <v>150</v>
       </c>
       <c r="I120" s="2">
-        <v>43406.67361111111</v>
+        <v>43418.67361111111</v>
       </c>
       <c r="J120">
-        <v>26445</v>
+        <v>25625</v>
       </c>
       <c r="K120">
         <v>200</v>
@@ -5670,13 +5670,13 @@
         <v>0</v>
       </c>
       <c r="M120">
-        <v>75400</v>
+        <v>-1250</v>
       </c>
       <c r="N120">
-        <v>1</v>
+        <v>-0.03251144402829796</v>
       </c>
       <c r="O120">
-        <v>75400</v>
+        <v>-1250</v>
       </c>
     </row>
     <row r="121" spans="1:15">
@@ -5687,7 +5687,7 @@
         <v>17</v>
       </c>
       <c r="C121">
-        <v>25400</v>
+        <v>25200</v>
       </c>
       <c r="D121">
         <v>11</v>
@@ -5696,19 +5696,19 @@
         <v>20</v>
       </c>
       <c r="F121" s="2">
-        <v>43406.41666666666</v>
+        <v>43418.41666666666</v>
       </c>
       <c r="G121">
-        <v>870.2232293899651</v>
+        <v>359.0094549502337</v>
       </c>
       <c r="H121">
         <v>50</v>
       </c>
       <c r="I121" s="2">
-        <v>43406.67361111111</v>
+        <v>43418.67361111111</v>
       </c>
       <c r="J121">
-        <v>1220.397755953229</v>
+        <v>361.64124088469</v>
       </c>
       <c r="K121">
         <v>200</v>
@@ -5717,13 +5717,13 @@
         <v>0</v>
       </c>
       <c r="M121">
-        <v>17308.72632816317</v>
+        <v>-68.41070327718626</v>
       </c>
       <c r="N121">
-        <v>39</v>
+        <v>-0.3811080868979868</v>
       </c>
       <c r="O121">
-        <v>17308.72632816317</v>
+        <v>-68.41070327718626</v>
       </c>
     </row>
     <row r="122" spans="1:15">
@@ -5737,19 +5737,19 @@
         <v>19</v>
       </c>
       <c r="F122" s="2">
-        <v>43406.94513888889</v>
+        <v>43419.11458333334</v>
       </c>
       <c r="G122">
-        <v>0.4603</v>
+        <v>0.438</v>
       </c>
       <c r="H122">
         <v>420000</v>
       </c>
       <c r="I122" s="2">
-        <v>43409.87569444445</v>
+        <v>43419.22361111111</v>
       </c>
       <c r="J122">
-        <v>0.46185</v>
+        <v>0.445</v>
       </c>
       <c r="K122">
         <v>200</v>
@@ -5758,13 +5758,13 @@
         <v>0</v>
       </c>
       <c r="M122">
-        <v>-5297.915899999985</v>
+        <v>-23224.90400000002</v>
       </c>
       <c r="N122">
-        <v>0</v>
+        <v>-1.612055645661684</v>
       </c>
       <c r="O122">
-        <v>-5297.915899999985</v>
+        <v>-23224.90400000002</v>
       </c>
     </row>
     <row r="123" spans="1:15">
@@ -5778,19 +5778,19 @@
         <v>19</v>
       </c>
       <c r="F123" s="2">
-        <v>43407.41666666666</v>
+        <v>43419.41666666666</v>
       </c>
       <c r="G123">
-        <v>25867</v>
+        <v>25591</v>
       </c>
       <c r="H123">
         <v>150</v>
       </c>
       <c r="I123" s="2">
-        <v>43407.67361111111</v>
+        <v>43419.58333333334</v>
       </c>
       <c r="J123">
-        <v>25867</v>
+        <v>25862</v>
       </c>
       <c r="K123">
         <v>200</v>
@@ -5799,13 +5799,13 @@
         <v>0</v>
       </c>
       <c r="M123">
-        <v>-200</v>
+        <v>-40850</v>
       </c>
       <c r="N123">
-        <v>0</v>
+        <v>-1.064176207781381</v>
       </c>
       <c r="O123">
-        <v>-200</v>
+        <v>-40850</v>
       </c>
     </row>
     <row r="124" spans="1:15">
@@ -5816,7 +5816,7 @@
         <v>16</v>
       </c>
       <c r="C124">
-        <v>25400</v>
+        <v>25000</v>
       </c>
       <c r="D124">
         <v>11</v>
@@ -5825,19 +5825,19 @@
         <v>20</v>
       </c>
       <c r="F124" s="2">
-        <v>43407.41666666666</v>
+        <v>43419.41666666666</v>
       </c>
       <c r="G124">
-        <v>399.1695660060086</v>
+        <v>282.703181062484</v>
       </c>
       <c r="H124">
         <v>50</v>
       </c>
       <c r="I124" s="2">
-        <v>43407.67361111111</v>
+        <v>43419.67361111111</v>
       </c>
       <c r="J124">
-        <v>399.1695660060086</v>
+        <v>157.0591050761686</v>
       </c>
       <c r="K124">
         <v>200</v>
@@ -5846,13 +5846,13 @@
         <v>0</v>
       </c>
       <c r="M124">
-        <v>-200</v>
+        <v>-6482.203799315766</v>
       </c>
       <c r="N124">
-        <v>-1</v>
+        <v>-45.85872557184313</v>
       </c>
       <c r="O124">
-        <v>-200</v>
+        <v>-6482.203799315766</v>
       </c>
     </row>
     <row r="125" spans="1:15">
@@ -5866,19 +5866,19 @@
         <v>20</v>
       </c>
       <c r="F125" s="2">
-        <v>43409.41666666666</v>
+        <v>43420.41666666666</v>
       </c>
       <c r="G125">
-        <v>25966</v>
+        <v>25887</v>
       </c>
       <c r="H125">
         <v>150</v>
       </c>
       <c r="I125" s="2">
-        <v>43409.67361111111</v>
+        <v>43420.49722222222</v>
       </c>
       <c r="J125">
-        <v>25925</v>
+        <v>26146</v>
       </c>
       <c r="K125">
         <v>200</v>
@@ -5887,13 +5887,13 @@
         <v>0</v>
       </c>
       <c r="M125">
-        <v>-6350</v>
+        <v>38650</v>
       </c>
       <c r="N125">
-        <v>0</v>
+        <v>0.9953515921762532</v>
       </c>
       <c r="O125">
-        <v>-6350</v>
+        <v>38650</v>
       </c>
     </row>
     <row r="126" spans="1:15">
@@ -5913,19 +5913,19 @@
         <v>20</v>
       </c>
       <c r="F126" s="2">
-        <v>43409.41666666666</v>
+        <v>43420.41666666666</v>
       </c>
       <c r="G126">
-        <v>873.8195450432559</v>
+        <v>308.3096905649236</v>
       </c>
       <c r="H126">
         <v>50</v>
       </c>
       <c r="I126" s="2">
-        <v>43409.67361111111</v>
+        <v>43420.67361111111</v>
       </c>
       <c r="J126">
-        <v>847.5530733244123</v>
+        <v>236.2001600061867</v>
       </c>
       <c r="K126">
         <v>200</v>
@@ -5934,13 +5934,13 @@
         <v>0</v>
       </c>
       <c r="M126">
-        <v>-1513.32358594218</v>
+        <v>-3805.476527936844</v>
       </c>
       <c r="N126">
-        <v>-3</v>
+        <v>-24.68606498202488</v>
       </c>
       <c r="O126">
-        <v>-1513.32358594218</v>
+        <v>-3805.476527936844</v>
       </c>
     </row>
     <row r="127" spans="1:15">
@@ -5951,22 +5951,22 @@
         <v>15</v>
       </c>
       <c r="E127" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F127" s="2">
-        <v>43410.41666666666</v>
+        <v>43423.41666666666</v>
       </c>
       <c r="G127">
-        <v>25833</v>
+        <v>26302</v>
       </c>
       <c r="H127">
         <v>150</v>
       </c>
       <c r="I127" s="2">
-        <v>43410.67361111111</v>
+        <v>43423.67361111111</v>
       </c>
       <c r="J127">
-        <v>26052</v>
+        <v>26325</v>
       </c>
       <c r="K127">
         <v>200</v>
@@ -5975,13 +5975,13 @@
         <v>0</v>
       </c>
       <c r="M127">
-        <v>-33050</v>
+        <v>3250</v>
       </c>
       <c r="N127">
-        <v>0</v>
+        <v>0.08237649861860949</v>
       </c>
       <c r="O127">
-        <v>-33050</v>
+        <v>3250</v>
       </c>
     </row>
     <row r="128" spans="1:15">
@@ -5989,10 +5989,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C128">
-        <v>25400</v>
+        <v>25800</v>
       </c>
       <c r="D128">
         <v>11</v>
@@ -6001,19 +6001,19 @@
         <v>20</v>
       </c>
       <c r="F128" s="2">
-        <v>43410.41666666666</v>
+        <v>43423.41666666666</v>
       </c>
       <c r="G128">
-        <v>396.0704099066988</v>
+        <v>254.1167840513172</v>
       </c>
       <c r="H128">
         <v>50</v>
       </c>
       <c r="I128" s="2">
-        <v>43410.67361111111</v>
+        <v>43423.67361111111</v>
       </c>
       <c r="J128">
-        <v>318.4936401464302</v>
+        <v>246.6000521499591</v>
       </c>
       <c r="K128">
         <v>200</v>
@@ -6022,13 +6022,13 @@
         <v>0</v>
       </c>
       <c r="M128">
-        <v>-4078.838488013434</v>
+        <v>-575.8365950679035</v>
       </c>
       <c r="N128">
-        <v>-20</v>
+        <v>-4.532062667309825</v>
       </c>
       <c r="O128">
-        <v>-4078.838488013434</v>
+        <v>-575.8365950679035</v>
       </c>
     </row>
     <row r="129" spans="1:15">
@@ -6036,25 +6036,25 @@
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E129" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F129" s="2">
-        <v>43411.41666666666</v>
+        <v>43424.0375</v>
       </c>
       <c r="G129">
-        <v>26096</v>
+        <v>0.49134</v>
       </c>
       <c r="H129">
-        <v>150</v>
+        <v>420000</v>
       </c>
       <c r="I129" s="2">
-        <v>43411.67361111111</v>
+        <v>43425.70902777778</v>
       </c>
       <c r="J129">
-        <v>26097</v>
+        <v>0.44806</v>
       </c>
       <c r="K129">
         <v>200</v>
@@ -6063,13 +6063,13 @@
         <v>0</v>
       </c>
       <c r="M129">
-        <v>-50</v>
+        <v>142156.05664</v>
       </c>
       <c r="N129">
-        <v>0</v>
+        <v>8.796188936211779</v>
       </c>
       <c r="O129">
-        <v>-50</v>
+        <v>142156.05664</v>
       </c>
     </row>
     <row r="130" spans="1:15">
@@ -6077,31 +6077,25 @@
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>17</v>
-      </c>
-      <c r="C130">
-        <v>25600</v>
-      </c>
-      <c r="D130">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E130" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F130" s="2">
-        <v>43411.41666666666</v>
+        <v>43424.41666666666</v>
       </c>
       <c r="G130">
-        <v>806.7889568242008</v>
+        <v>26028</v>
       </c>
       <c r="H130">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="I130" s="2">
-        <v>43411.67361111111</v>
+        <v>43424.67361111111</v>
       </c>
       <c r="J130">
-        <v>807.4237523166939</v>
+        <v>25767</v>
       </c>
       <c r="K130">
         <v>200</v>
@@ -6110,13 +6104,13 @@
         <v>0</v>
       </c>
       <c r="M130">
-        <v>-168.260225375343</v>
+        <v>38950</v>
       </c>
       <c r="N130">
-        <v>0</v>
+        <v>0.997643563342042</v>
       </c>
       <c r="O130">
-        <v>-168.260225375343</v>
+        <v>38950</v>
       </c>
     </row>
     <row r="131" spans="1:15">
@@ -6124,25 +6118,31 @@
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="C131">
+        <v>25600</v>
+      </c>
+      <c r="D131">
+        <v>11</v>
       </c>
       <c r="E131" t="s">
         <v>20</v>
       </c>
       <c r="F131" s="2">
-        <v>43412.41666666666</v>
+        <v>43424.41666666666</v>
       </c>
       <c r="G131">
-        <v>26339</v>
+        <v>255.6612473082023</v>
       </c>
       <c r="H131">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="I131" s="2">
-        <v>43412.67361111111</v>
+        <v>43424.67361111111</v>
       </c>
       <c r="J131">
-        <v>26181</v>
+        <v>358.0494507771327</v>
       </c>
       <c r="K131">
         <v>200</v>
@@ -6151,13 +6151,13 @@
         <v>0</v>
       </c>
       <c r="M131">
-        <v>-23900</v>
+        <v>4919.410173446522</v>
       </c>
       <c r="N131">
-        <v>0</v>
+        <v>38.48381579329559</v>
       </c>
       <c r="O131">
-        <v>-23900</v>
+        <v>4919.410173446522</v>
       </c>
     </row>
     <row r="132" spans="1:15">
@@ -6165,31 +6165,25 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>17</v>
-      </c>
-      <c r="C132">
-        <v>25800</v>
-      </c>
-      <c r="D132">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E132" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F132" s="2">
-        <v>43412.41666666666</v>
+        <v>43425.41666666666</v>
       </c>
       <c r="G132">
-        <v>824.3572370028669</v>
+        <v>25616</v>
       </c>
       <c r="H132">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="I132" s="2">
-        <v>43412.67361111111</v>
+        <v>43425.61666666667</v>
       </c>
       <c r="J132">
-        <v>725.1398491401396</v>
+        <v>25881</v>
       </c>
       <c r="K132">
         <v>200</v>
@@ -6198,13 +6192,13 @@
         <v>0</v>
       </c>
       <c r="M132">
-        <v>-5160.869393136363</v>
+        <v>-39950</v>
       </c>
       <c r="N132">
-        <v>-12</v>
+        <v>-1.039714761607329</v>
       </c>
       <c r="O132">
-        <v>-5160.869393136363</v>
+        <v>-39950</v>
       </c>
     </row>
     <row r="133" spans="1:15">
@@ -6212,25 +6206,31 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="C133">
+        <v>25200</v>
+      </c>
+      <c r="D133">
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F133" s="2">
-        <v>43413.41666666666</v>
+        <v>43425.41666666666</v>
       </c>
       <c r="G133">
-        <v>25728</v>
+        <v>232.5370385540537</v>
       </c>
       <c r="H133">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="I133" s="2">
-        <v>43413.67361111111</v>
+        <v>43425.67361111111</v>
       </c>
       <c r="J133">
-        <v>25544</v>
+        <v>147.5155174206438</v>
       </c>
       <c r="K133">
         <v>200</v>
@@ -6239,13 +6239,13 @@
         <v>0</v>
       </c>
       <c r="M133">
-        <v>27400</v>
+        <v>-4451.07605667049</v>
       </c>
       <c r="N133">
-        <v>0</v>
+        <v>-38.28272764070512</v>
       </c>
       <c r="O133">
-        <v>27400</v>
+        <v>-4451.07605667049</v>
       </c>
     </row>
     <row r="134" spans="1:15">
@@ -6253,31 +6253,25 @@
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>16</v>
-      </c>
-      <c r="C134">
-        <v>25200</v>
-      </c>
-      <c r="D134">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E134" t="s">
         <v>20</v>
       </c>
       <c r="F134" s="2">
-        <v>43413.41666666666</v>
+        <v>43426.41666666666</v>
       </c>
       <c r="G134">
-        <v>307.5817432443419</v>
+        <v>25819</v>
       </c>
       <c r="H134">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="I134" s="2">
-        <v>43413.67361111111</v>
+        <v>43426.67361111111</v>
       </c>
       <c r="J134">
-        <v>375.6360750146541</v>
+        <v>25961</v>
       </c>
       <c r="K134">
         <v>200</v>
@@ -6286,13 +6280,13 @@
         <v>0</v>
       </c>
       <c r="M134">
-        <v>3202.716588515614</v>
+        <v>21100</v>
       </c>
       <c r="N134">
-        <v>20</v>
+        <v>0.5448184153788554</v>
       </c>
       <c r="O134">
-        <v>3202.716588515614</v>
+        <v>21100</v>
       </c>
     </row>
     <row r="135" spans="1:15">
@@ -6300,25 +6294,31 @@
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="C135">
+        <v>25400</v>
+      </c>
+      <c r="D135">
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F135" s="2">
-        <v>43414.41666666666</v>
+        <v>43426.41666666666</v>
       </c>
       <c r="G135">
-        <v>25331</v>
+        <v>212.4144697990068</v>
       </c>
       <c r="H135">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="I135" s="2">
-        <v>43414.67361111111</v>
+        <v>43426.67361111111</v>
       </c>
       <c r="J135">
-        <v>25331</v>
+        <v>169.1507539026261</v>
       </c>
       <c r="K135">
         <v>200</v>
@@ -6327,13 +6327,13 @@
         <v>0</v>
       </c>
       <c r="M135">
-        <v>-200</v>
+        <v>-2363.185794819037</v>
       </c>
       <c r="N135">
-        <v>0</v>
+        <v>-22.25070445582315</v>
       </c>
       <c r="O135">
-        <v>-200</v>
+        <v>-2363.185794819037</v>
       </c>
     </row>
     <row r="136" spans="1:15">
@@ -6341,31 +6341,25 @@
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>16</v>
-      </c>
-      <c r="C136">
-        <v>24800</v>
-      </c>
-      <c r="D136">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E136" t="s">
         <v>20</v>
       </c>
       <c r="F136" s="2">
-        <v>43414.41666666666</v>
+        <v>43427.41666666666</v>
       </c>
       <c r="G136">
-        <v>281.9919113872211</v>
+        <v>25849</v>
       </c>
       <c r="H136">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="I136" s="2">
-        <v>43414.67361111111</v>
+        <v>43427.67361111111</v>
       </c>
       <c r="J136">
-        <v>281.9919113872211</v>
+        <v>25900</v>
       </c>
       <c r="K136">
         <v>200</v>
@@ -6374,13 +6368,13 @@
         <v>0</v>
       </c>
       <c r="M136">
-        <v>-200</v>
+        <v>7450</v>
       </c>
       <c r="N136">
-        <v>-1</v>
+        <v>0.1921415399693089</v>
       </c>
       <c r="O136">
-        <v>-200</v>
+        <v>7450</v>
       </c>
     </row>
     <row r="137" spans="1:15">
@@ -6388,25 +6382,31 @@
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="C137">
+        <v>25400</v>
+      </c>
+      <c r="D137">
+        <v>11</v>
       </c>
       <c r="E137" t="s">
         <v>20</v>
       </c>
       <c r="F137" s="2">
-        <v>43416.41666666666</v>
+        <v>43427.41666666666</v>
       </c>
       <c r="G137">
-        <v>25583</v>
+        <v>179.860790656131</v>
       </c>
       <c r="H137">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="I137" s="2">
-        <v>43416.67361111111</v>
+        <v>43427.67361111111</v>
       </c>
       <c r="J137">
-        <v>25570</v>
+        <v>164.6602998628377</v>
       </c>
       <c r="K137">
         <v>200</v>
@@ -6415,13 +6415,13 @@
         <v>0</v>
       </c>
       <c r="M137">
-        <v>-2150</v>
+        <v>-960.0245396646642</v>
       </c>
       <c r="N137">
-        <v>0</v>
+        <v>-10.67519536817892</v>
       </c>
       <c r="O137">
-        <v>-2150</v>
+        <v>-960.0245396646642</v>
       </c>
     </row>
     <row r="138" spans="1:15">
@@ -6429,31 +6429,25 @@
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>17</v>
-      </c>
-      <c r="C138">
-        <v>25000</v>
-      </c>
-      <c r="D138">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E138" t="s">
         <v>20</v>
       </c>
       <c r="F138" s="2">
-        <v>43416.41666666666</v>
+        <v>43430.41666666666</v>
       </c>
       <c r="G138">
-        <v>811.4886734478932</v>
+        <v>26192</v>
       </c>
       <c r="H138">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="I138" s="2">
-        <v>43416.67361111111</v>
+        <v>43430.67361111111</v>
       </c>
       <c r="J138">
-        <v>802.7067264876714</v>
+        <v>26371</v>
       </c>
       <c r="K138">
         <v>200</v>
@@ -6462,13 +6456,13 @@
         <v>0</v>
       </c>
       <c r="M138">
-        <v>-639.0973480110915</v>
+        <v>26650</v>
       </c>
       <c r="N138">
-        <v>-1</v>
+        <v>0.6783241702300957</v>
       </c>
       <c r="O138">
-        <v>-639.0973480110915</v>
+        <v>26650</v>
       </c>
     </row>
     <row r="139" spans="1:15">
@@ -6476,25 +6470,31 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="C139">
+        <v>25600</v>
+      </c>
+      <c r="D139">
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F139" s="2">
-        <v>43417.0125</v>
+        <v>43430.41666666666</v>
       </c>
       <c r="G139">
-        <v>0.5196499999999999</v>
+        <v>73.61956767110587</v>
       </c>
       <c r="H139">
-        <v>420000</v>
+        <v>50</v>
       </c>
       <c r="I139" s="2">
-        <v>43417.87569444445</v>
+        <v>43430.67361111111</v>
       </c>
       <c r="J139">
-        <v>0.51774</v>
+        <v>45.10826219122146</v>
       </c>
       <c r="K139">
         <v>200</v>
@@ -6503,13 +6503,13 @@
         <v>0</v>
       </c>
       <c r="M139">
-        <v>6080.423799999892</v>
+        <v>-1625.565273994221</v>
       </c>
       <c r="N139">
-        <v>0</v>
+        <v>-44.16122847274531</v>
       </c>
       <c r="O139">
-        <v>6080.423799999892</v>
+        <v>-1625.565273994221</v>
       </c>
     </row>
     <row r="140" spans="1:15">
@@ -6523,19 +6523,19 @@
         <v>19</v>
       </c>
       <c r="F140" s="2">
-        <v>43417.41666666666</v>
+        <v>43431.41666666666</v>
       </c>
       <c r="G140">
-        <v>25101</v>
+        <v>26154</v>
       </c>
       <c r="H140">
         <v>150</v>
       </c>
       <c r="I140" s="2">
-        <v>43417.67361111111</v>
+        <v>43431.67361111111</v>
       </c>
       <c r="J140">
-        <v>25816</v>
+        <v>26294</v>
       </c>
       <c r="K140">
         <v>200</v>
@@ -6544,13 +6544,13 @@
         <v>0</v>
       </c>
       <c r="M140">
-        <v>-107450</v>
+        <v>-21200</v>
       </c>
       <c r="N140">
-        <v>-2</v>
+        <v>-0.5403889781040503</v>
       </c>
       <c r="O140">
-        <v>-107450</v>
+        <v>-21200</v>
       </c>
     </row>
     <row r="141" spans="1:15">
@@ -6561,7 +6561,7 @@
         <v>16</v>
       </c>
       <c r="C141">
-        <v>24600</v>
+        <v>25600</v>
       </c>
       <c r="D141">
         <v>11</v>
@@ -6570,19 +6570,19 @@
         <v>20</v>
       </c>
       <c r="F141" s="2">
-        <v>43417.41666666666</v>
+        <v>43431.41666666666</v>
       </c>
       <c r="G141">
-        <v>271.1403293543999</v>
+        <v>55.72211926498039</v>
       </c>
       <c r="H141">
         <v>50</v>
       </c>
       <c r="I141" s="2">
-        <v>43417.67361111111</v>
+        <v>43431.67361111111</v>
       </c>
       <c r="J141">
-        <v>100.3860705688676</v>
+        <v>35.38328026376075</v>
       </c>
       <c r="K141">
         <v>200</v>
@@ -6591,13 +6591,13 @@
         <v>0</v>
       </c>
       <c r="M141">
-        <v>-8737.712939276616</v>
+        <v>-1216.941950060982</v>
       </c>
       <c r="N141">
-        <v>-64</v>
+        <v>-43.67895428649972</v>
       </c>
       <c r="O141">
-        <v>-8737.712939276616</v>
+        <v>-1216.941950060982</v>
       </c>
     </row>
     <row r="142" spans="1:15">
@@ -6611,19 +6611,19 @@
         <v>20</v>
       </c>
       <c r="F142" s="2">
-        <v>43418.41666666666</v>
+        <v>43432.41666666666</v>
       </c>
       <c r="G142">
-        <v>25632</v>
+        <v>26350</v>
       </c>
       <c r="H142">
         <v>150</v>
       </c>
       <c r="I142" s="2">
-        <v>43418.67361111111</v>
+        <v>43432.58333333334</v>
       </c>
       <c r="J142">
-        <v>25625</v>
+        <v>26624</v>
       </c>
       <c r="K142">
         <v>200</v>
@@ -6632,13 +6632,13 @@
         <v>0</v>
       </c>
       <c r="M142">
-        <v>-1250</v>
+        <v>40900</v>
       </c>
       <c r="N142">
-        <v>0</v>
+        <v>1.034788108791904</v>
       </c>
       <c r="O142">
-        <v>-1250</v>
+        <v>40900</v>
       </c>
     </row>
     <row r="143" spans="1:15">
@@ -6649,7 +6649,7 @@
         <v>17</v>
       </c>
       <c r="C143">
-        <v>25200</v>
+        <v>25800</v>
       </c>
       <c r="D143">
         <v>11</v>
@@ -6658,19 +6658,19 @@
         <v>20</v>
       </c>
       <c r="F143" s="2">
-        <v>43418.41666666666</v>
+        <v>43432.41666666666</v>
       </c>
       <c r="G143">
-        <v>684.9215162802284</v>
+        <v>31.32150392742687</v>
       </c>
       <c r="H143">
         <v>50</v>
       </c>
       <c r="I143" s="2">
-        <v>43418.67361111111</v>
+        <v>43432.67361111111</v>
       </c>
       <c r="J143">
-        <v>680.4303199599453</v>
+        <v>8.461110060228293</v>
       </c>
       <c r="K143">
         <v>200</v>
@@ -6679,13 +6679,13 @@
         <v>0</v>
       </c>
       <c r="M143">
-        <v>-424.5598160141526</v>
+        <v>-1343.019693359929</v>
       </c>
       <c r="N143">
-        <v>-1</v>
+        <v>-85.75703749550195</v>
       </c>
       <c r="O143">
-        <v>-424.5598160141526</v>
+        <v>-1343.019693359929</v>
       </c>
     </row>
     <row r="144" spans="1:15">
@@ -6696,22 +6696,22 @@
         <v>15</v>
       </c>
       <c r="E144" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F144" s="2">
-        <v>43419.41666666666</v>
+        <v>43433.41666666666</v>
       </c>
       <c r="G144">
-        <v>25591</v>
+        <v>26766</v>
       </c>
       <c r="H144">
         <v>150</v>
       </c>
       <c r="I144" s="2">
-        <v>43419.67361111111</v>
+        <v>43433.67361111111</v>
       </c>
       <c r="J144">
-        <v>26069</v>
+        <v>26590</v>
       </c>
       <c r="K144">
         <v>200</v>
@@ -6720,13 +6720,13 @@
         <v>0</v>
       </c>
       <c r="M144">
-        <v>-71900</v>
+        <v>-26600</v>
       </c>
       <c r="N144">
-        <v>-1</v>
+        <v>-0.6625320680465268</v>
       </c>
       <c r="O144">
-        <v>-71900</v>
+        <v>-26600</v>
       </c>
     </row>
     <row r="145" spans="1:15">
@@ -6734,10 +6734,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C145">
-        <v>25000</v>
+        <v>26200</v>
       </c>
       <c r="D145">
         <v>11</v>
@@ -6746,19 +6746,19 @@
         <v>20</v>
       </c>
       <c r="F145" s="2">
-        <v>43419.41666666666</v>
+        <v>43433.41666666666</v>
       </c>
       <c r="G145">
-        <v>213.4452981619306</v>
+        <v>7.593484850304549</v>
       </c>
       <c r="H145">
         <v>50</v>
       </c>
       <c r="I145" s="2">
-        <v>43419.67361111111</v>
+        <v>43433.67361111111</v>
       </c>
       <c r="J145">
-        <v>103.8435894737813</v>
+        <v>22.74600053771655</v>
       </c>
       <c r="K145">
         <v>200</v>
@@ -6767,13 +6767,13 @@
         <v>0</v>
       </c>
       <c r="M145">
-        <v>-5680.085434407465</v>
+        <v>557.6257843706003</v>
       </c>
       <c r="N145">
-        <v>-53</v>
+        <v>146.8695323329014</v>
       </c>
       <c r="O145">
-        <v>-5680.085434407465</v>
+        <v>557.6257843706003</v>
       </c>
     </row>
     <row r="146" spans="1:15">
@@ -6784,22 +6784,22 @@
         <v>15</v>
       </c>
       <c r="E146" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F146" s="2">
-        <v>43420.41666666666</v>
+        <v>43434.41666666666</v>
       </c>
       <c r="G146">
-        <v>25887</v>
+        <v>26574</v>
       </c>
       <c r="H146">
         <v>150</v>
       </c>
       <c r="I146" s="2">
-        <v>43420.67361111111</v>
+        <v>43434.67361111111</v>
       </c>
       <c r="J146">
-        <v>26113</v>
+        <v>26521</v>
       </c>
       <c r="K146">
         <v>200</v>
@@ -6808,13 +6808,13 @@
         <v>0</v>
       </c>
       <c r="M146">
-        <v>33700</v>
+        <v>7750</v>
       </c>
       <c r="N146">
-        <v>0</v>
+        <v>0.1944256290609869</v>
       </c>
       <c r="O146">
-        <v>33700</v>
+        <v>7750</v>
       </c>
     </row>
     <row r="147" spans="1:15">
@@ -6822,31 +6822,31 @@
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C147">
-        <v>25400</v>
+        <v>26000</v>
       </c>
       <c r="D147">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E147" t="s">
         <v>20</v>
       </c>
       <c r="F147" s="2">
-        <v>43420.41666666666</v>
+        <v>43434.41666666666</v>
       </c>
       <c r="G147">
-        <v>690.733729848751</v>
+        <v>544.7415326308892</v>
       </c>
       <c r="H147">
         <v>50</v>
       </c>
       <c r="I147" s="2">
-        <v>43420.67361111111</v>
+        <v>43434.67361111111</v>
       </c>
       <c r="J147">
-        <v>851.2810180249435</v>
+        <v>565.4234594104473</v>
       </c>
       <c r="K147">
         <v>200</v>
@@ -6855,1110 +6855,13 @@
         <v>0</v>
       </c>
       <c r="M147">
-        <v>7827.364408809626</v>
+        <v>834.0963389779063</v>
       </c>
       <c r="N147">
-        <v>22</v>
+        <v>3.062356325024627</v>
       </c>
       <c r="O147">
-        <v>7827.364408809626</v>
-      </c>
-    </row>
-    <row r="148" spans="1:15">
-      <c r="A148" s="1">
-        <v>146</v>
-      </c>
-      <c r="B148" t="s">
-        <v>15</v>
-      </c>
-      <c r="E148" t="s">
-        <v>20</v>
-      </c>
-      <c r="F148" s="2">
-        <v>43421.41666666666</v>
-      </c>
-      <c r="G148">
-        <v>26128</v>
-      </c>
-      <c r="H148">
-        <v>150</v>
-      </c>
-      <c r="I148" s="2">
-        <v>43421.67361111111</v>
-      </c>
-      <c r="J148">
-        <v>26128</v>
-      </c>
-      <c r="K148">
-        <v>200</v>
-      </c>
-      <c r="L148">
-        <v>0</v>
-      </c>
-      <c r="M148">
-        <v>-200</v>
-      </c>
-      <c r="N148">
-        <v>0</v>
-      </c>
-      <c r="O148">
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="149" spans="1:15">
-      <c r="A149" s="1">
-        <v>147</v>
-      </c>
-      <c r="B149" t="s">
-        <v>17</v>
-      </c>
-      <c r="C149">
-        <v>25600</v>
-      </c>
-      <c r="D149">
-        <v>11</v>
-      </c>
-      <c r="E149" t="s">
-        <v>20</v>
-      </c>
-      <c r="F149" s="2">
-        <v>43421.41666666666</v>
-      </c>
-      <c r="G149">
-        <v>703.9846868013083</v>
-      </c>
-      <c r="H149">
-        <v>50</v>
-      </c>
-      <c r="I149" s="2">
-        <v>43421.67361111111</v>
-      </c>
-      <c r="J149">
-        <v>703.9846868013083</v>
-      </c>
-      <c r="K149">
-        <v>200</v>
-      </c>
-      <c r="L149">
-        <v>0</v>
-      </c>
-      <c r="M149">
-        <v>-200</v>
-      </c>
-      <c r="N149">
-        <v>0</v>
-      </c>
-      <c r="O149">
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="150" spans="1:15">
-      <c r="A150" s="1">
-        <v>148</v>
-      </c>
-      <c r="B150" t="s">
-        <v>15</v>
-      </c>
-      <c r="E150" t="s">
-        <v>20</v>
-      </c>
-      <c r="F150" s="2">
-        <v>43423.41666666666</v>
-      </c>
-      <c r="G150">
-        <v>26302</v>
-      </c>
-      <c r="H150">
-        <v>150</v>
-      </c>
-      <c r="I150" s="2">
-        <v>43423.67361111111</v>
-      </c>
-      <c r="J150">
-        <v>26325</v>
-      </c>
-      <c r="K150">
-        <v>200</v>
-      </c>
-      <c r="L150">
-        <v>0</v>
-      </c>
-      <c r="M150">
-        <v>3250</v>
-      </c>
-      <c r="N150">
-        <v>0</v>
-      </c>
-      <c r="O150">
-        <v>3250</v>
-      </c>
-    </row>
-    <row r="151" spans="1:15">
-      <c r="A151" s="1">
-        <v>149</v>
-      </c>
-      <c r="B151" t="s">
-        <v>17</v>
-      </c>
-      <c r="C151">
-        <v>25800</v>
-      </c>
-      <c r="D151">
-        <v>11</v>
-      </c>
-      <c r="E151" t="s">
-        <v>20</v>
-      </c>
-      <c r="F151" s="2">
-        <v>43423.41666666666</v>
-      </c>
-      <c r="G151">
-        <v>688.6807633966091</v>
-      </c>
-      <c r="H151">
-        <v>50</v>
-      </c>
-      <c r="I151" s="2">
-        <v>43423.67361111111</v>
-      </c>
-      <c r="J151">
-        <v>704.536297680781</v>
-      </c>
-      <c r="K151">
-        <v>200</v>
-      </c>
-      <c r="L151">
-        <v>0</v>
-      </c>
-      <c r="M151">
-        <v>592.7767142085941</v>
-      </c>
-      <c r="N151">
-        <v>1</v>
-      </c>
-      <c r="O151">
-        <v>592.7767142085941</v>
-      </c>
-    </row>
-    <row r="152" spans="1:15">
-      <c r="A152" s="1">
-        <v>150</v>
-      </c>
-      <c r="B152" t="s">
-        <v>15</v>
-      </c>
-      <c r="E152" t="s">
-        <v>19</v>
-      </c>
-      <c r="F152" s="2">
-        <v>43424.41666666666</v>
-      </c>
-      <c r="G152">
-        <v>26028</v>
-      </c>
-      <c r="H152">
-        <v>150</v>
-      </c>
-      <c r="I152" s="2">
-        <v>43424.67361111111</v>
-      </c>
-      <c r="J152">
-        <v>25767</v>
-      </c>
-      <c r="K152">
-        <v>200</v>
-      </c>
-      <c r="L152">
-        <v>0</v>
-      </c>
-      <c r="M152">
-        <v>38950</v>
-      </c>
-      <c r="N152">
-        <v>0</v>
-      </c>
-      <c r="O152">
-        <v>38950</v>
-      </c>
-    </row>
-    <row r="153" spans="1:15">
-      <c r="A153" s="1">
-        <v>151</v>
-      </c>
-      <c r="B153" t="s">
-        <v>16</v>
-      </c>
-      <c r="C153">
-        <v>25600</v>
-      </c>
-      <c r="D153">
-        <v>11</v>
-      </c>
-      <c r="E153" t="s">
-        <v>20</v>
-      </c>
-      <c r="F153" s="2">
-        <v>43424.41666666666</v>
-      </c>
-      <c r="G153">
-        <v>212.2065408598137</v>
-      </c>
-      <c r="H153">
-        <v>50</v>
-      </c>
-      <c r="I153" s="2">
-        <v>43424.67361111111</v>
-      </c>
-      <c r="J153">
-        <v>311.2921574652501</v>
-      </c>
-      <c r="K153">
-        <v>200</v>
-      </c>
-      <c r="L153">
-        <v>0</v>
-      </c>
-      <c r="M153">
-        <v>4754.280830271819</v>
-      </c>
-      <c r="N153">
-        <v>44</v>
-      </c>
-      <c r="O153">
-        <v>4754.280830271819</v>
-      </c>
-    </row>
-    <row r="154" spans="1:15">
-      <c r="A154" s="1">
-        <v>152</v>
-      </c>
-      <c r="B154" t="s">
-        <v>18</v>
-      </c>
-      <c r="E154" t="s">
-        <v>19</v>
-      </c>
-      <c r="F154" s="2">
-        <v>43424.71736111111</v>
-      </c>
-      <c r="G154">
-        <v>0.43935</v>
-      </c>
-      <c r="H154">
-        <v>420000</v>
-      </c>
-      <c r="I154" s="2">
-        <v>43424.87569444445</v>
-      </c>
-      <c r="J154">
-        <v>0.43383</v>
-      </c>
-      <c r="K154">
-        <v>200</v>
-      </c>
-      <c r="L154">
-        <v>0</v>
-      </c>
-      <c r="M154">
-        <v>17956.54960000008</v>
-      </c>
-      <c r="N154">
-        <v>1</v>
-      </c>
-      <c r="O154">
-        <v>17956.54960000008</v>
-      </c>
-    </row>
-    <row r="155" spans="1:15">
-      <c r="A155" s="1">
-        <v>153</v>
-      </c>
-      <c r="B155" t="s">
-        <v>15</v>
-      </c>
-      <c r="E155" t="s">
-        <v>19</v>
-      </c>
-      <c r="F155" s="2">
-        <v>43425.41666666666</v>
-      </c>
-      <c r="G155">
-        <v>25616</v>
-      </c>
-      <c r="H155">
-        <v>150</v>
-      </c>
-      <c r="I155" s="2">
-        <v>43425.67361111111</v>
-      </c>
-      <c r="J155">
-        <v>25910</v>
-      </c>
-      <c r="K155">
-        <v>200</v>
-      </c>
-      <c r="L155">
-        <v>0</v>
-      </c>
-      <c r="M155">
-        <v>-44300</v>
-      </c>
-      <c r="N155">
-        <v>-1</v>
-      </c>
-      <c r="O155">
-        <v>-44300</v>
-      </c>
-    </row>
-    <row r="156" spans="1:15">
-      <c r="A156" s="1">
-        <v>154</v>
-      </c>
-      <c r="B156" t="s">
-        <v>16</v>
-      </c>
-      <c r="C156">
-        <v>25200</v>
-      </c>
-      <c r="D156">
-        <v>11</v>
-      </c>
-      <c r="E156" t="s">
-        <v>20</v>
-      </c>
-      <c r="F156" s="2">
-        <v>43425.41666666666</v>
-      </c>
-      <c r="G156">
-        <v>187.6915948068945</v>
-      </c>
-      <c r="H156">
-        <v>50</v>
-      </c>
-      <c r="I156" s="2">
-        <v>43425.67361111111</v>
-      </c>
-      <c r="J156">
-        <v>110.0374028021506</v>
-      </c>
-      <c r="K156">
-        <v>200</v>
-      </c>
-      <c r="L156">
-        <v>0</v>
-      </c>
-      <c r="M156">
-        <v>-4082.709600237195</v>
-      </c>
-      <c r="N156">
-        <v>-43</v>
-      </c>
-      <c r="O156">
-        <v>-4082.709600237195</v>
-      </c>
-    </row>
-    <row r="157" spans="1:15">
-      <c r="A157" s="1">
-        <v>155</v>
-      </c>
-      <c r="B157" t="s">
-        <v>15</v>
-      </c>
-      <c r="E157" t="s">
-        <v>20</v>
-      </c>
-      <c r="F157" s="2">
-        <v>43426.41666666666</v>
-      </c>
-      <c r="G157">
-        <v>25819</v>
-      </c>
-      <c r="H157">
-        <v>150</v>
-      </c>
-      <c r="I157" s="2">
-        <v>43426.67361111111</v>
-      </c>
-      <c r="J157">
-        <v>25961</v>
-      </c>
-      <c r="K157">
-        <v>200</v>
-      </c>
-      <c r="L157">
-        <v>0</v>
-      </c>
-      <c r="M157">
-        <v>21100</v>
-      </c>
-      <c r="N157">
-        <v>0</v>
-      </c>
-      <c r="O157">
-        <v>21100</v>
-      </c>
-    </row>
-    <row r="158" spans="1:15">
-      <c r="A158" s="1">
-        <v>156</v>
-      </c>
-      <c r="B158" t="s">
-        <v>17</v>
-      </c>
-      <c r="C158">
-        <v>25400</v>
-      </c>
-      <c r="D158">
-        <v>11</v>
-      </c>
-      <c r="E158" t="s">
-        <v>20</v>
-      </c>
-      <c r="F158" s="2">
-        <v>43426.41666666666</v>
-      </c>
-      <c r="G158">
-        <v>566.5390328207141</v>
-      </c>
-      <c r="H158">
-        <v>50</v>
-      </c>
-      <c r="I158" s="2">
-        <v>43426.67361111111</v>
-      </c>
-      <c r="J158">
-        <v>669.0748998990712</v>
-      </c>
-      <c r="K158">
-        <v>200</v>
-      </c>
-      <c r="L158">
-        <v>0</v>
-      </c>
-      <c r="M158">
-        <v>4926.793353917856</v>
-      </c>
-      <c r="N158">
-        <v>17</v>
-      </c>
-      <c r="O158">
-        <v>4926.793353917856</v>
-      </c>
-    </row>
-    <row r="159" spans="1:15">
-      <c r="A159" s="1">
-        <v>157</v>
-      </c>
-      <c r="B159" t="s">
-        <v>15</v>
-      </c>
-      <c r="E159" t="s">
-        <v>20</v>
-      </c>
-      <c r="F159" s="2">
-        <v>43427.41666666666</v>
-      </c>
-      <c r="G159">
-        <v>25849</v>
-      </c>
-      <c r="H159">
-        <v>150</v>
-      </c>
-      <c r="I159" s="2">
-        <v>43427.67361111111</v>
-      </c>
-      <c r="J159">
-        <v>25900</v>
-      </c>
-      <c r="K159">
-        <v>200</v>
-      </c>
-      <c r="L159">
-        <v>0</v>
-      </c>
-      <c r="M159">
-        <v>7450</v>
-      </c>
-      <c r="N159">
-        <v>0</v>
-      </c>
-      <c r="O159">
-        <v>7450</v>
-      </c>
-    </row>
-    <row r="160" spans="1:15">
-      <c r="A160" s="1">
-        <v>158</v>
-      </c>
-      <c r="B160" t="s">
-        <v>17</v>
-      </c>
-      <c r="C160">
-        <v>25400</v>
-      </c>
-      <c r="D160">
-        <v>11</v>
-      </c>
-      <c r="E160" t="s">
-        <v>20</v>
-      </c>
-      <c r="F160" s="2">
-        <v>43427.41666666666</v>
-      </c>
-      <c r="G160">
-        <v>565.103167998037</v>
-      </c>
-      <c r="H160">
-        <v>50</v>
-      </c>
-      <c r="I160" s="2">
-        <v>43427.67361111111</v>
-      </c>
-      <c r="J160">
-        <v>602.5667114428543</v>
-      </c>
-      <c r="K160">
-        <v>200</v>
-      </c>
-      <c r="L160">
-        <v>0</v>
-      </c>
-      <c r="M160">
-        <v>1673.177172240867</v>
-      </c>
-      <c r="N160">
-        <v>5</v>
-      </c>
-      <c r="O160">
-        <v>1673.177172240867</v>
-      </c>
-    </row>
-    <row r="161" spans="1:15">
-      <c r="A161" s="1">
-        <v>159</v>
-      </c>
-      <c r="B161" t="s">
-        <v>15</v>
-      </c>
-      <c r="E161" t="s">
-        <v>20</v>
-      </c>
-      <c r="F161" s="2">
-        <v>43428.41666666666</v>
-      </c>
-      <c r="G161">
-        <v>25864</v>
-      </c>
-      <c r="H161">
-        <v>150</v>
-      </c>
-      <c r="I161" s="2">
-        <v>43428.67361111111</v>
-      </c>
-      <c r="J161">
-        <v>25864</v>
-      </c>
-      <c r="K161">
-        <v>200</v>
-      </c>
-      <c r="L161">
-        <v>0</v>
-      </c>
-      <c r="M161">
-        <v>-200</v>
-      </c>
-      <c r="N161">
-        <v>0</v>
-      </c>
-      <c r="O161">
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="162" spans="1:15">
-      <c r="A162" s="1">
-        <v>160</v>
-      </c>
-      <c r="B162" t="s">
-        <v>17</v>
-      </c>
-      <c r="C162">
-        <v>25400</v>
-      </c>
-      <c r="D162">
-        <v>11</v>
-      </c>
-      <c r="E162" t="s">
-        <v>20</v>
-      </c>
-      <c r="F162" s="2">
-        <v>43428.41666666666</v>
-      </c>
-      <c r="G162">
-        <v>552.3761832578712</v>
-      </c>
-      <c r="H162">
-        <v>50</v>
-      </c>
-      <c r="I162" s="2">
-        <v>43428.67361111111</v>
-      </c>
-      <c r="J162">
-        <v>552.3761832578712</v>
-      </c>
-      <c r="K162">
-        <v>200</v>
-      </c>
-      <c r="L162">
-        <v>0</v>
-      </c>
-      <c r="M162">
-        <v>-200</v>
-      </c>
-      <c r="N162">
-        <v>0</v>
-      </c>
-      <c r="O162">
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="163" spans="1:15">
-      <c r="A163" s="1">
-        <v>161</v>
-      </c>
-      <c r="B163" t="s">
-        <v>15</v>
-      </c>
-      <c r="E163" t="s">
-        <v>20</v>
-      </c>
-      <c r="F163" s="2">
-        <v>43430.41666666666</v>
-      </c>
-      <c r="G163">
-        <v>26192</v>
-      </c>
-      <c r="H163">
-        <v>150</v>
-      </c>
-      <c r="I163" s="2">
-        <v>43430.67361111111</v>
-      </c>
-      <c r="J163">
-        <v>26371</v>
-      </c>
-      <c r="K163">
-        <v>200</v>
-      </c>
-      <c r="L163">
-        <v>0</v>
-      </c>
-      <c r="M163">
-        <v>26650</v>
-      </c>
-      <c r="N163">
-        <v>0</v>
-      </c>
-      <c r="O163">
-        <v>26650</v>
-      </c>
-    </row>
-    <row r="164" spans="1:15">
-      <c r="A164" s="1">
-        <v>162</v>
-      </c>
-      <c r="B164" t="s">
-        <v>17</v>
-      </c>
-      <c r="C164">
-        <v>25600</v>
-      </c>
-      <c r="D164">
-        <v>11</v>
-      </c>
-      <c r="E164" t="s">
-        <v>20</v>
-      </c>
-      <c r="F164" s="2">
-        <v>43430.41666666666</v>
-      </c>
-      <c r="G164">
-        <v>653.8729030683971</v>
-      </c>
-      <c r="H164">
-        <v>50</v>
-      </c>
-      <c r="I164" s="2">
-        <v>43430.67361111111</v>
-      </c>
-      <c r="J164">
-        <v>804.2784432105327</v>
-      </c>
-      <c r="K164">
-        <v>200</v>
-      </c>
-      <c r="L164">
-        <v>0</v>
-      </c>
-      <c r="M164">
-        <v>7320.277007106779</v>
-      </c>
-      <c r="N164">
-        <v>22</v>
-      </c>
-      <c r="O164">
-        <v>7320.277007106779</v>
-      </c>
-    </row>
-    <row r="165" spans="1:15">
-      <c r="A165" s="1">
-        <v>163</v>
-      </c>
-      <c r="B165" t="s">
-        <v>15</v>
-      </c>
-      <c r="E165" t="s">
-        <v>19</v>
-      </c>
-      <c r="F165" s="2">
-        <v>43431.41666666666</v>
-      </c>
-      <c r="G165">
-        <v>26154</v>
-      </c>
-      <c r="H165">
-        <v>150</v>
-      </c>
-      <c r="I165" s="2">
-        <v>43431.67361111111</v>
-      </c>
-      <c r="J165">
-        <v>26294</v>
-      </c>
-      <c r="K165">
-        <v>200</v>
-      </c>
-      <c r="L165">
-        <v>0</v>
-      </c>
-      <c r="M165">
-        <v>-21200</v>
-      </c>
-      <c r="N165">
-        <v>0</v>
-      </c>
-      <c r="O165">
-        <v>-21200</v>
-      </c>
-    </row>
-    <row r="166" spans="1:15">
-      <c r="A166" s="1">
-        <v>164</v>
-      </c>
-      <c r="B166" t="s">
-        <v>16</v>
-      </c>
-      <c r="C166">
-        <v>25600</v>
-      </c>
-      <c r="D166">
-        <v>11</v>
-      </c>
-      <c r="E166" t="s">
-        <v>20</v>
-      </c>
-      <c r="F166" s="2">
-        <v>43431.41666666666</v>
-      </c>
-      <c r="G166">
-        <v>55.72211926498039</v>
-      </c>
-      <c r="H166">
-        <v>50</v>
-      </c>
-      <c r="I166" s="2">
-        <v>43431.67361111111</v>
-      </c>
-      <c r="J166">
-        <v>35.38328026376075</v>
-      </c>
-      <c r="K166">
-        <v>200</v>
-      </c>
-      <c r="L166">
-        <v>0</v>
-      </c>
-      <c r="M166">
-        <v>-1216.941950060982</v>
-      </c>
-      <c r="N166">
-        <v>-43</v>
-      </c>
-      <c r="O166">
-        <v>-1216.941950060982</v>
-      </c>
-    </row>
-    <row r="167" spans="1:15">
-      <c r="A167" s="1">
-        <v>165</v>
-      </c>
-      <c r="B167" t="s">
-        <v>15</v>
-      </c>
-      <c r="E167" t="s">
-        <v>20</v>
-      </c>
-      <c r="F167" s="2">
-        <v>43432.41666666666</v>
-      </c>
-      <c r="G167">
-        <v>26350</v>
-      </c>
-      <c r="H167">
-        <v>150</v>
-      </c>
-      <c r="I167" s="2">
-        <v>43432.67361111111</v>
-      </c>
-      <c r="J167">
-        <v>26640</v>
-      </c>
-      <c r="K167">
-        <v>200</v>
-      </c>
-      <c r="L167">
-        <v>0</v>
-      </c>
-      <c r="M167">
-        <v>43300</v>
-      </c>
-      <c r="N167">
-        <v>1</v>
-      </c>
-      <c r="O167">
-        <v>43300</v>
-      </c>
-    </row>
-    <row r="168" spans="1:15">
-      <c r="A168" s="1">
-        <v>166</v>
-      </c>
-      <c r="B168" t="s">
-        <v>17</v>
-      </c>
-      <c r="C168">
-        <v>25800</v>
-      </c>
-      <c r="D168">
-        <v>11</v>
-      </c>
-      <c r="E168" t="s">
-        <v>20</v>
-      </c>
-      <c r="F168" s="2">
-        <v>43432.41666666666</v>
-      </c>
-      <c r="G168">
-        <v>575.4124059241694</v>
-      </c>
-      <c r="H168">
-        <v>50</v>
-      </c>
-      <c r="I168" s="2">
-        <v>43432.67361111111</v>
-      </c>
-      <c r="J168">
-        <v>842.4846445405092</v>
-      </c>
-      <c r="K168">
-        <v>200</v>
-      </c>
-      <c r="L168">
-        <v>0</v>
-      </c>
-      <c r="M168">
-        <v>13153.61193081699</v>
-      </c>
-      <c r="N168">
-        <v>45</v>
-      </c>
-      <c r="O168">
-        <v>13153.61193081699</v>
-      </c>
-    </row>
-    <row r="169" spans="1:15">
-      <c r="A169" s="1">
-        <v>167</v>
-      </c>
-      <c r="B169" t="s">
-        <v>15</v>
-      </c>
-      <c r="E169" t="s">
-        <v>20</v>
-      </c>
-      <c r="F169" s="2">
-        <v>43433.41666666666</v>
-      </c>
-      <c r="G169">
-        <v>26766</v>
-      </c>
-      <c r="H169">
-        <v>150</v>
-      </c>
-      <c r="I169" s="2">
-        <v>43433.67361111111</v>
-      </c>
-      <c r="J169">
-        <v>26590</v>
-      </c>
-      <c r="K169">
-        <v>200</v>
-      </c>
-      <c r="L169">
-        <v>0</v>
-      </c>
-      <c r="M169">
-        <v>-26600</v>
-      </c>
-      <c r="N169">
-        <v>0</v>
-      </c>
-      <c r="O169">
-        <v>-26600</v>
-      </c>
-    </row>
-    <row r="170" spans="1:15">
-      <c r="A170" s="1">
-        <v>168</v>
-      </c>
-      <c r="B170" t="s">
-        <v>17</v>
-      </c>
-      <c r="C170">
-        <v>26200</v>
-      </c>
-      <c r="D170">
-        <v>11</v>
-      </c>
-      <c r="E170" t="s">
-        <v>20</v>
-      </c>
-      <c r="F170" s="2">
-        <v>43433.41666666666</v>
-      </c>
-      <c r="G170">
-        <v>570.5920805569331</v>
-      </c>
-      <c r="H170">
-        <v>50</v>
-      </c>
-      <c r="I170" s="2">
-        <v>43433.67361111111</v>
-      </c>
-      <c r="J170">
-        <v>409.7650399884114</v>
-      </c>
-      <c r="K170">
-        <v>200</v>
-      </c>
-      <c r="L170">
-        <v>0</v>
-      </c>
-      <c r="M170">
-        <v>-8241.352028426081</v>
-      </c>
-      <c r="N170">
-        <v>-28</v>
-      </c>
-      <c r="O170">
-        <v>-8241.352028426081</v>
-      </c>
-    </row>
-    <row r="171" spans="1:15">
-      <c r="A171" s="1">
-        <v>169</v>
-      </c>
-      <c r="B171" t="s">
-        <v>15</v>
-      </c>
-      <c r="E171" t="s">
-        <v>19</v>
-      </c>
-      <c r="F171" s="2">
-        <v>43434.41666666666</v>
-      </c>
-      <c r="G171">
-        <v>26574</v>
-      </c>
-      <c r="H171">
-        <v>150</v>
-      </c>
-      <c r="I171" s="2">
-        <v>43434.67361111111</v>
-      </c>
-      <c r="J171">
-        <v>26521</v>
-      </c>
-      <c r="K171">
-        <v>200</v>
-      </c>
-      <c r="L171">
-        <v>0</v>
-      </c>
-      <c r="M171">
-        <v>7750</v>
-      </c>
-      <c r="N171">
-        <v>0</v>
-      </c>
-      <c r="O171">
-        <v>7750</v>
-      </c>
-    </row>
-    <row r="172" spans="1:15">
-      <c r="A172" s="1">
-        <v>170</v>
-      </c>
-      <c r="B172" t="s">
-        <v>16</v>
-      </c>
-      <c r="C172">
-        <v>26000</v>
-      </c>
-      <c r="D172">
-        <v>12</v>
-      </c>
-      <c r="E172" t="s">
-        <v>20</v>
-      </c>
-      <c r="F172" s="2">
-        <v>43434.41666666666</v>
-      </c>
-      <c r="G172">
-        <v>404.5757462954934</v>
-      </c>
-      <c r="H172">
-        <v>50</v>
-      </c>
-      <c r="I172" s="2">
-        <v>43434.67361111111</v>
-      </c>
-      <c r="J172">
-        <v>424.0053780154703</v>
-      </c>
-      <c r="K172">
-        <v>200</v>
-      </c>
-      <c r="L172">
-        <v>0</v>
-      </c>
-      <c r="M172">
-        <v>771.4815859988448</v>
-      </c>
-      <c r="N172">
-        <v>3</v>
-      </c>
-      <c r="O172">
-        <v>771.4815859988448</v>
+        <v>834.0963389779063</v>
       </c>
     </row>
   </sheetData>

--- a/df1.xlsx
+++ b/df1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="16">
   <si>
     <t>Product</t>
   </si>
@@ -58,16 +58,7 @@
     <t>P&amp;L</t>
   </si>
   <si>
-    <t>HSI</t>
-  </si>
-  <si>
-    <t>CALL</t>
-  </si>
-  <si>
-    <t>PUT</t>
-  </si>
-  <si>
-    <t>SHORT</t>
+    <t>VHSI</t>
   </si>
   <si>
     <t>LONG</t>
@@ -432,7 +423,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O69"/>
+  <dimension ref="A1:O66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -490,22 +481,22 @@
         <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F2" s="2">
-        <v>43347.41666666666</v>
+        <v>43346.67361111111</v>
       </c>
       <c r="G2">
-        <v>27667</v>
+        <v>19.63</v>
       </c>
       <c r="H2">
         <v>150</v>
       </c>
       <c r="I2" s="2">
-        <v>43347.61180555556</v>
+        <v>43347.67361111111</v>
       </c>
       <c r="J2">
-        <v>27944</v>
+        <v>18.73</v>
       </c>
       <c r="K2">
         <v>200</v>
@@ -514,13 +505,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>-41750</v>
+        <v>-334.9999999999998</v>
       </c>
       <c r="N2">
-        <v>-1.006011975759328</v>
+        <v>-11.37714382747495</v>
       </c>
       <c r="O2">
-        <v>-41750</v>
+        <v>-334.9999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -531,13 +522,13 @@
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F3" s="2">
-        <v>43348.41666666666</v>
+        <v>43347.67361111111</v>
       </c>
       <c r="G3">
-        <v>27628</v>
+        <v>18.73</v>
       </c>
       <c r="H3">
         <v>150</v>
@@ -546,7 +537,7 @@
         <v>43348.67361111111</v>
       </c>
       <c r="J3">
-        <v>27113</v>
+        <v>20.5</v>
       </c>
       <c r="K3">
         <v>200</v>
@@ -555,13 +546,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>77050</v>
+        <v>65.49999999999994</v>
       </c>
       <c r="N3">
-        <v>1.859224940881232</v>
+        <v>2.331375689624486</v>
       </c>
       <c r="O3">
-        <v>77050</v>
+        <v>65.49999999999994</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -572,13 +563,13 @@
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F4" s="2">
-        <v>43349.41666666666</v>
+        <v>43348.67361111111</v>
       </c>
       <c r="G4">
-        <v>27134</v>
+        <v>20.5</v>
       </c>
       <c r="H4">
         <v>150</v>
@@ -587,7 +578,7 @@
         <v>43349.67361111111</v>
       </c>
       <c r="J4">
-        <v>26968</v>
+        <v>21.42</v>
       </c>
       <c r="K4">
         <v>200</v>
@@ -596,13 +587,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>24700</v>
+        <v>-61.99999999999974</v>
       </c>
       <c r="N4">
-        <v>0.6068646961991107</v>
+        <v>-2.016260162601618</v>
       </c>
       <c r="O4">
-        <v>24700</v>
+        <v>-61.99999999999974</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -613,13 +604,13 @@
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F5" s="2">
-        <v>43350.41666666666</v>
+        <v>43349.67361111111</v>
       </c>
       <c r="G5">
-        <v>27106</v>
+        <v>21.42</v>
       </c>
       <c r="H5">
         <v>150</v>
@@ -628,7 +619,7 @@
         <v>43350.67361111111</v>
       </c>
       <c r="J5">
-        <v>26852</v>
+        <v>21.34</v>
       </c>
       <c r="K5">
         <v>200</v>
@@ -637,13 +628,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>37900</v>
+        <v>-212.0000000000003</v>
       </c>
       <c r="N5">
-        <v>0.932142944981431</v>
+        <v>-6.598194833488959</v>
       </c>
       <c r="O5">
-        <v>37900</v>
+        <v>-212.0000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -654,22 +645,22 @@
         <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F6" s="2">
-        <v>43353.41666666666</v>
+        <v>43350.67361111111</v>
       </c>
       <c r="G6">
-        <v>26605</v>
+        <v>21.34</v>
       </c>
       <c r="H6">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="I6" s="2">
         <v>43353.67361111111</v>
       </c>
       <c r="J6">
-        <v>26620</v>
+        <v>22.07</v>
       </c>
       <c r="K6">
         <v>200</v>
@@ -678,13 +669,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>-1700</v>
+        <v>-90.49999999999994</v>
       </c>
       <c r="N6">
-        <v>-0.06389776357827476</v>
+        <v>-2.8272414870353</v>
       </c>
       <c r="O6">
-        <v>-1700</v>
+        <v>-90.49999999999994</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -692,31 +683,25 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7">
-        <v>26200</v>
-      </c>
-      <c r="D7">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F7" s="2">
-        <v>43353.41666666666</v>
+        <v>43353.67361111111</v>
       </c>
       <c r="G7">
-        <v>424.7070774311796</v>
+        <v>22.07</v>
       </c>
       <c r="H7">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="I7" s="2">
-        <v>43353.67361111111</v>
+        <v>43354.67361111111</v>
       </c>
       <c r="J7">
-        <v>418.8329549772825</v>
+        <v>21.79</v>
       </c>
       <c r="K7">
         <v>200</v>
@@ -725,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>-787.4122453897144</v>
+        <v>-242.0000000000002</v>
       </c>
       <c r="N7">
-        <v>-1.854012535303955</v>
+        <v>-7.310074006947596</v>
       </c>
       <c r="O7">
-        <v>-787.4122453897144</v>
+        <v>-242.0000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -742,22 +727,22 @@
         <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F8" s="2">
-        <v>43354.41666666666</v>
+        <v>43354.67361111111</v>
       </c>
       <c r="G8">
-        <v>26548</v>
+        <v>21.79</v>
       </c>
       <c r="H8">
         <v>150</v>
       </c>
       <c r="I8" s="2">
-        <v>43354.67361111111</v>
+        <v>43355.67361111111</v>
       </c>
       <c r="J8">
-        <v>26347</v>
+        <v>21.09</v>
       </c>
       <c r="K8">
         <v>200</v>
@@ -766,13 +751,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>29950</v>
+        <v>-304.9999999999999</v>
       </c>
       <c r="N8">
-        <v>0.7520968308974939</v>
+        <v>-9.331497628881745</v>
       </c>
       <c r="O8">
-        <v>29950</v>
+        <v>-304.9999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -783,22 +768,22 @@
         <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F9" s="2">
-        <v>43355.41666666666</v>
+        <v>43355.67361111111</v>
       </c>
       <c r="G9">
-        <v>26230</v>
+        <v>21.09</v>
       </c>
       <c r="H9">
         <v>150</v>
       </c>
       <c r="I9" s="2">
-        <v>43355.67361111111</v>
+        <v>43356.67361111111</v>
       </c>
       <c r="J9">
-        <v>26363</v>
+        <v>19.89</v>
       </c>
       <c r="K9">
         <v>200</v>
@@ -807,13 +792,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>-20150</v>
+        <v>-379.9999999999999</v>
       </c>
       <c r="N9">
-        <v>-0.5121362307790063</v>
+        <v>-12.01201201201201</v>
       </c>
       <c r="O9">
-        <v>-20150</v>
+        <v>-379.9999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -824,22 +809,22 @@
         <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F10" s="2">
-        <v>43356.41666666666</v>
+        <v>43356.67361111111</v>
       </c>
       <c r="G10">
-        <v>26890</v>
+        <v>19.89</v>
       </c>
       <c r="H10">
         <v>150</v>
       </c>
       <c r="I10" s="2">
-        <v>43356.67361111111</v>
+        <v>43357.67361111111</v>
       </c>
       <c r="J10">
-        <v>27026</v>
+        <v>19</v>
       </c>
       <c r="K10">
         <v>200</v>
@@ -848,13 +833,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>20200</v>
+        <v>-333.5000000000001</v>
       </c>
       <c r="N10">
-        <v>0.5008057518284368</v>
+        <v>-11.17814647226412</v>
       </c>
       <c r="O10">
-        <v>20200</v>
+        <v>-333.5000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -865,22 +850,22 @@
         <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F11" s="2">
-        <v>43357.41666666666</v>
+        <v>43357.67361111111</v>
       </c>
       <c r="G11">
-        <v>27080</v>
+        <v>19</v>
       </c>
       <c r="H11">
         <v>150</v>
       </c>
       <c r="I11" s="2">
-        <v>43357.67361111111</v>
+        <v>43360.67361111111</v>
       </c>
       <c r="J11">
-        <v>27226</v>
+        <v>19.66</v>
       </c>
       <c r="K11">
         <v>200</v>
@@ -889,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>21700</v>
+        <v>-101</v>
       </c>
       <c r="N11">
-        <v>0.534219596258001</v>
+        <v>-3.543859649122806</v>
       </c>
       <c r="O11">
-        <v>21700</v>
+        <v>-101</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -906,22 +891,22 @@
         <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F12" s="2">
-        <v>43360.41666666666</v>
+        <v>43360.67361111111</v>
       </c>
       <c r="G12">
-        <v>26831</v>
+        <v>19.66</v>
       </c>
       <c r="H12">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="I12" s="2">
-        <v>43360.67361111111</v>
+        <v>43361.67361111111</v>
       </c>
       <c r="J12">
-        <v>26855</v>
+        <v>20.05</v>
       </c>
       <c r="K12">
         <v>200</v>
@@ -930,13 +915,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>-2600</v>
+        <v>-141.4999999999999</v>
       </c>
       <c r="N12">
-        <v>-0.09690283627147703</v>
+        <v>-4.798236690403524</v>
       </c>
       <c r="O12">
-        <v>-2600</v>
+        <v>-141.4999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -944,31 +929,25 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13">
-        <v>26400</v>
-      </c>
-      <c r="D13">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F13" s="2">
-        <v>43360.41666666666</v>
+        <v>43361.67361111111</v>
       </c>
       <c r="G13">
-        <v>288.4177385503608</v>
+        <v>20.05</v>
       </c>
       <c r="H13">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="I13" s="2">
-        <v>43360.67361111111</v>
+        <v>43362.67361111111</v>
       </c>
       <c r="J13">
-        <v>279.9534827878233</v>
+        <v>19.38</v>
       </c>
       <c r="K13">
         <v>200</v>
@@ -977,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>-1046.42557625375</v>
+        <v>-300.5000000000002</v>
       </c>
       <c r="N13">
-        <v>-3.628159562977204</v>
+        <v>-9.991687448046557</v>
       </c>
       <c r="O13">
-        <v>-1046.42557625375</v>
+        <v>-300.5000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -994,22 +973,22 @@
         <v>14</v>
       </c>
       <c r="E14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F14" s="2">
-        <v>43361.41666666666</v>
+        <v>43362.67361111111</v>
       </c>
       <c r="G14">
-        <v>26740</v>
+        <v>19.38</v>
       </c>
       <c r="H14">
         <v>150</v>
       </c>
       <c r="I14" s="2">
-        <v>43361.59513888889</v>
+        <v>43363.67361111111</v>
       </c>
       <c r="J14">
-        <v>27008</v>
+        <v>18.62</v>
       </c>
       <c r="K14">
         <v>200</v>
@@ -1018,13 +997,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>-40400</v>
+        <v>-313.9999999999997</v>
       </c>
       <c r="N14">
-        <v>-1.007230117177761</v>
+        <v>-10.80151358789129</v>
       </c>
       <c r="O14">
-        <v>-40400</v>
+        <v>-313.9999999999997</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,22 +1014,22 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F15" s="2">
-        <v>43362.41666666666</v>
+        <v>43363.67361111111</v>
       </c>
       <c r="G15">
-        <v>27128</v>
+        <v>18.62</v>
       </c>
       <c r="H15">
         <v>150</v>
       </c>
       <c r="I15" s="2">
-        <v>43362.48055555556</v>
+        <v>43364.67361111111</v>
       </c>
       <c r="J15">
-        <v>27404</v>
+        <v>19.11</v>
       </c>
       <c r="K15">
         <v>200</v>
@@ -1059,13 +1038,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>41200</v>
+        <v>-126.5000000000002</v>
       </c>
       <c r="N15">
-        <v>1.012484026344245</v>
+        <v>-4.529180093089876</v>
       </c>
       <c r="O15">
-        <v>41200</v>
+        <v>-126.5000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1076,22 +1055,22 @@
         <v>14</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F16" s="2">
-        <v>43363.41666666666</v>
+        <v>43364.67361111111</v>
       </c>
       <c r="G16">
-        <v>27597</v>
+        <v>19.11</v>
       </c>
       <c r="H16">
         <v>150</v>
       </c>
       <c r="I16" s="2">
-        <v>43363.67361111111</v>
+        <v>43367.67361111111</v>
       </c>
       <c r="J16">
-        <v>27454</v>
+        <v>19.75</v>
       </c>
       <c r="K16">
         <v>200</v>
@@ -1100,13 +1079,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>-21650</v>
+        <v>-103.9999999999999</v>
       </c>
       <c r="N16">
-        <v>-0.5230037081325265</v>
+        <v>-3.628117913832197</v>
       </c>
       <c r="O16">
-        <v>-21650</v>
+        <v>-103.9999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1117,22 +1096,22 @@
         <v>14</v>
       </c>
       <c r="E17" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F17" s="2">
-        <v>43364.41666666666</v>
+        <v>43367.67361111111</v>
       </c>
       <c r="G17">
-        <v>27651</v>
+        <v>19.75</v>
       </c>
       <c r="H17">
         <v>150</v>
       </c>
       <c r="I17" s="2">
-        <v>43364.61736111111</v>
+        <v>43368.67361111111</v>
       </c>
       <c r="J17">
-        <v>27934</v>
+        <v>19.75</v>
       </c>
       <c r="K17">
         <v>200</v>
@@ -1141,13 +1120,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>42250</v>
+        <v>-200</v>
       </c>
       <c r="N17">
-        <v>1.018649114558847</v>
+        <v>-6.751054852320674</v>
       </c>
       <c r="O17">
-        <v>42250</v>
+        <v>-200</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1158,22 +1137,22 @@
         <v>14</v>
       </c>
       <c r="E18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F18" s="2">
-        <v>43367.41666666666</v>
+        <v>43368.67361111111</v>
       </c>
       <c r="G18">
-        <v>27567</v>
+        <v>19.75</v>
       </c>
       <c r="H18">
         <v>150</v>
       </c>
       <c r="I18" s="2">
-        <v>43367.67361111111</v>
+        <v>43369.67361111111</v>
       </c>
       <c r="J18">
-        <v>27473</v>
+        <v>20.01</v>
       </c>
       <c r="K18">
         <v>200</v>
@@ -1182,13 +1161,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>13900</v>
+        <v>-160.9999999999998</v>
       </c>
       <c r="N18">
-        <v>0.3361507115996179</v>
+        <v>-5.434599156118136</v>
       </c>
       <c r="O18">
-        <v>13900</v>
+        <v>-160.9999999999998</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1199,22 +1178,22 @@
         <v>14</v>
       </c>
       <c r="E19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F19" s="2">
-        <v>43368.41666666666</v>
+        <v>43369.67361111111</v>
       </c>
       <c r="G19">
-        <v>27446</v>
+        <v>20.01</v>
       </c>
       <c r="H19">
         <v>150</v>
       </c>
       <c r="I19" s="2">
-        <v>43368.67361111111</v>
+        <v>43370.67361111111</v>
       </c>
       <c r="J19">
-        <v>27446</v>
+        <v>18.94</v>
       </c>
       <c r="K19">
         <v>200</v>
@@ -1223,13 +1202,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>-200</v>
+        <v>-360.5000000000001</v>
       </c>
       <c r="N19">
-        <v>-0.004858024241540965</v>
+        <v>-12.01066133599867</v>
       </c>
       <c r="O19">
-        <v>-200</v>
+        <v>-360.5000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1240,22 +1219,22 @@
         <v>14</v>
       </c>
       <c r="E20" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F20" s="2">
-        <v>43369.41666666666</v>
+        <v>43370.67361111111</v>
       </c>
       <c r="G20">
-        <v>27656</v>
+        <v>18.94</v>
       </c>
       <c r="H20">
         <v>150</v>
       </c>
       <c r="I20" s="2">
-        <v>43369.45763888889</v>
+        <v>43371.67361111111</v>
       </c>
       <c r="J20">
-        <v>27945</v>
+        <v>18.1</v>
       </c>
       <c r="K20">
         <v>200</v>
@@ -1264,13 +1243,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>43150</v>
+        <v>-326</v>
       </c>
       <c r="N20">
-        <v>1.040160061710539</v>
+        <v>-11.47483280535023</v>
       </c>
       <c r="O20">
-        <v>43150</v>
+        <v>-326</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1281,22 +1260,22 @@
         <v>14</v>
       </c>
       <c r="E21" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F21" s="2">
-        <v>43370.41666666666</v>
+        <v>43371.67361111111</v>
       </c>
       <c r="G21">
-        <v>27836</v>
+        <v>18.1</v>
       </c>
       <c r="H21">
         <v>150</v>
       </c>
       <c r="I21" s="2">
-        <v>43370.67361111111</v>
+        <v>43374.67361111111</v>
       </c>
       <c r="J21">
-        <v>27742</v>
+        <v>18.1</v>
       </c>
       <c r="K21">
         <v>200</v>
@@ -1305,13 +1284,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>-14300</v>
+        <v>-200</v>
       </c>
       <c r="N21">
-        <v>-0.3424821573980936</v>
+        <v>-7.366482504604052</v>
       </c>
       <c r="O21">
-        <v>-14300</v>
+        <v>-200</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1322,22 +1301,22 @@
         <v>14</v>
       </c>
       <c r="E22" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F22" s="2">
-        <v>43374.41666666666</v>
+        <v>43374.67361111111</v>
       </c>
       <c r="G22">
-        <v>27707</v>
+        <v>18.1</v>
       </c>
       <c r="H22">
         <v>150</v>
       </c>
       <c r="I22" s="2">
-        <v>43374.67361111111</v>
+        <v>43375.67361111111</v>
       </c>
       <c r="J22">
-        <v>27707</v>
+        <v>20.14</v>
       </c>
       <c r="K22">
         <v>200</v>
@@ -1346,13 +1325,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>-200</v>
+        <v>105.9999999999999</v>
       </c>
       <c r="N22">
-        <v>-0.004812261642665512</v>
+        <v>3.904235727440143</v>
       </c>
       <c r="O22">
-        <v>-200</v>
+        <v>105.9999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1363,22 +1342,22 @@
         <v>14</v>
       </c>
       <c r="E23" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F23" s="2">
-        <v>43375.41666666666</v>
+        <v>43375.67361111111</v>
       </c>
       <c r="G23">
-        <v>27373</v>
+        <v>20.14</v>
       </c>
       <c r="H23">
         <v>150</v>
       </c>
       <c r="I23" s="2">
-        <v>43375.67361111111</v>
+        <v>43376.67361111111</v>
       </c>
       <c r="J23">
-        <v>27043</v>
+        <v>19.71</v>
       </c>
       <c r="K23">
         <v>200</v>
@@ -1387,13 +1366,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>49300</v>
+        <v>-264.4999999999999</v>
       </c>
       <c r="N23">
-        <v>1.200696550128472</v>
+        <v>-8.755379013571662</v>
       </c>
       <c r="O23">
-        <v>49300</v>
+        <v>-264.4999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1404,22 +1383,22 @@
         <v>14</v>
       </c>
       <c r="E24" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F24" s="2">
-        <v>43376.41666666666</v>
+        <v>43376.67361111111</v>
       </c>
       <c r="G24">
-        <v>27129</v>
+        <v>19.71</v>
       </c>
       <c r="H24">
         <v>150</v>
       </c>
       <c r="I24" s="2">
-        <v>43376.67361111111</v>
+        <v>43377.67361111111</v>
       </c>
       <c r="J24">
-        <v>27030</v>
+        <v>20.72</v>
       </c>
       <c r="K24">
         <v>200</v>
@@ -1428,13 +1407,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>14650</v>
+        <v>-48.50000000000028</v>
       </c>
       <c r="N24">
-        <v>0.3600083551427132</v>
+        <v>-1.640453238626764</v>
       </c>
       <c r="O24">
-        <v>14650</v>
+        <v>-48.50000000000028</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1445,22 +1424,22 @@
         <v>14</v>
       </c>
       <c r="E25" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F25" s="2">
-        <v>43377.41666666666</v>
+        <v>43377.67361111111</v>
       </c>
       <c r="G25">
-        <v>26618</v>
+        <v>20.72</v>
       </c>
       <c r="H25">
         <v>150</v>
       </c>
       <c r="I25" s="2">
-        <v>43377.67361111111</v>
+        <v>43378.67361111111</v>
       </c>
       <c r="J25">
-        <v>26577</v>
+        <v>20.7</v>
       </c>
       <c r="K25">
         <v>200</v>
@@ -1469,13 +1448,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>5950</v>
+        <v>-202.9999999999999</v>
       </c>
       <c r="N25">
-        <v>0.1490219650862825</v>
+        <v>-6.53153153153153</v>
       </c>
       <c r="O25">
-        <v>5950</v>
+        <v>-202.9999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -1486,22 +1465,22 @@
         <v>14</v>
       </c>
       <c r="E26" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F26" s="2">
-        <v>43378.41666666666</v>
+        <v>43378.67361111111</v>
       </c>
       <c r="G26">
-        <v>26469</v>
+        <v>20.7</v>
       </c>
       <c r="H26">
         <v>150</v>
       </c>
       <c r="I26" s="2">
-        <v>43378.67361111111</v>
+        <v>43381.67361111111</v>
       </c>
       <c r="J26">
-        <v>26498</v>
+        <v>21.29</v>
       </c>
       <c r="K26">
         <v>200</v>
@@ -1510,13 +1489,13 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>-4550</v>
+        <v>-111.5</v>
       </c>
       <c r="N26">
-        <v>-0.1145994685607062</v>
+        <v>-3.590982286634461</v>
       </c>
       <c r="O26">
-        <v>-4550</v>
+        <v>-111.5</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -1527,22 +1506,22 @@
         <v>14</v>
       </c>
       <c r="E27" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F27" s="2">
-        <v>43381.41666666666</v>
+        <v>43381.67361111111</v>
       </c>
       <c r="G27">
-        <v>26426</v>
+        <v>21.29</v>
       </c>
       <c r="H27">
         <v>150</v>
       </c>
       <c r="I27" s="2">
-        <v>43381.67361111111</v>
+        <v>43382.67361111111</v>
       </c>
       <c r="J27">
-        <v>26157</v>
+        <v>21.07</v>
       </c>
       <c r="K27">
         <v>200</v>
@@ -1551,13 +1530,13 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>40150</v>
+        <v>-232.9999999999998</v>
       </c>
       <c r="N27">
-        <v>1.012891344383057</v>
+        <v>-7.296070142476902</v>
       </c>
       <c r="O27">
-        <v>40150</v>
+        <v>-232.9999999999998</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -1568,22 +1547,22 @@
         <v>14</v>
       </c>
       <c r="E28" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F28" s="2">
-        <v>43382.41666666666</v>
+        <v>43382.67361111111</v>
       </c>
       <c r="G28">
-        <v>26162</v>
+        <v>21.07</v>
       </c>
       <c r="H28">
         <v>150</v>
       </c>
       <c r="I28" s="2">
-        <v>43382.67361111111</v>
+        <v>43383.67361111111</v>
       </c>
       <c r="J28">
-        <v>26098</v>
+        <v>20.89</v>
       </c>
       <c r="K28">
         <v>200</v>
@@ -1592,13 +1571,13 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>9400</v>
+        <v>-226.9999999999999</v>
       </c>
       <c r="N28">
-        <v>0.2395331651504727</v>
+        <v>-7.182407846859672</v>
       </c>
       <c r="O28">
-        <v>9400</v>
+        <v>-226.9999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -1609,22 +1588,22 @@
         <v>14</v>
       </c>
       <c r="E29" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F29" s="2">
-        <v>43383.41666666666</v>
+        <v>43383.67361111111</v>
       </c>
       <c r="G29">
-        <v>26394</v>
+        <v>20.89</v>
       </c>
       <c r="H29">
         <v>150</v>
       </c>
       <c r="I29" s="2">
-        <v>43383.67361111111</v>
+        <v>43384.67361111111</v>
       </c>
       <c r="J29">
-        <v>26152</v>
+        <v>25.73</v>
       </c>
       <c r="K29">
         <v>200</v>
@@ -1633,13 +1612,13 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <v>-36500</v>
+        <v>526</v>
       </c>
       <c r="N29">
-        <v>-0.9219267005127427</v>
+        <v>16.78634115206638</v>
       </c>
       <c r="O29">
-        <v>-36500</v>
+        <v>526</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -1650,22 +1629,22 @@
         <v>14</v>
       </c>
       <c r="E30" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F30" s="2">
-        <v>43384.41666666666</v>
+        <v>43384.67361111111</v>
       </c>
       <c r="G30">
-        <v>25334</v>
+        <v>25.73</v>
       </c>
       <c r="H30">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="I30" s="2">
-        <v>43384.67361111111</v>
+        <v>43385.67361111111</v>
       </c>
       <c r="J30">
-        <v>25247</v>
+        <v>23.76</v>
       </c>
       <c r="K30">
         <v>200</v>
@@ -1674,13 +1653,13 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>8500</v>
+        <v>-495.4999999999998</v>
       </c>
       <c r="N30">
-        <v>0.3355174863819373</v>
+        <v>-12.83845057649954</v>
       </c>
       <c r="O30">
-        <v>8500</v>
+        <v>-495.4999999999998</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -1688,31 +1667,25 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31">
-        <v>24800</v>
-      </c>
-      <c r="D31">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E31" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F31" s="2">
-        <v>43384.41666666666</v>
+        <v>43385.67361111111</v>
       </c>
       <c r="G31">
-        <v>376.0975627676744</v>
+        <v>23.76</v>
       </c>
       <c r="H31">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="I31" s="2">
-        <v>43384.67361111111</v>
+        <v>43388.67361111111</v>
       </c>
       <c r="J31">
-        <v>408.4106353272491</v>
+        <v>25.16</v>
       </c>
       <c r="K31">
         <v>200</v>
@@ -1721,13 +1694,13 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>3031.307255957472</v>
+        <v>9.999999999999773</v>
       </c>
       <c r="N31">
-        <v>8.059896037746972</v>
+        <v>0.2805836139169409</v>
       </c>
       <c r="O31">
-        <v>3031.307255957472</v>
+        <v>9.999999999999773</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -1738,22 +1711,22 @@
         <v>14</v>
       </c>
       <c r="E32" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F32" s="2">
-        <v>43385.41666666666</v>
+        <v>43388.67361111111</v>
       </c>
       <c r="G32">
-        <v>25379</v>
+        <v>25.16</v>
       </c>
       <c r="H32">
         <v>150</v>
       </c>
       <c r="I32" s="2">
-        <v>43385.54583333333</v>
+        <v>43389.67361111111</v>
       </c>
       <c r="J32">
-        <v>25636</v>
+        <v>24.41</v>
       </c>
       <c r="K32">
         <v>200</v>
@@ -1762,13 +1735,13 @@
         <v>0</v>
       </c>
       <c r="M32">
-        <v>38350</v>
+        <v>-312.5</v>
       </c>
       <c r="N32">
-        <v>1.007394565060352</v>
+        <v>-8.280339162692103</v>
       </c>
       <c r="O32">
-        <v>38350</v>
+        <v>-312.5</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -1779,22 +1752,22 @@
         <v>14</v>
       </c>
       <c r="E33" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F33" s="2">
-        <v>43388.41666666666</v>
+        <v>43389.67361111111</v>
       </c>
       <c r="G33">
-        <v>25623</v>
+        <v>24.41</v>
       </c>
       <c r="H33">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="I33" s="2">
-        <v>43388.67361111111</v>
+        <v>43390.67361111111</v>
       </c>
       <c r="J33">
-        <v>25375</v>
+        <v>24.41</v>
       </c>
       <c r="K33">
         <v>200</v>
@@ -1803,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="M33">
-        <v>-25000</v>
+        <v>-200</v>
       </c>
       <c r="N33">
-        <v>-0.9756859071927564</v>
+        <v>-5.462242250443807</v>
       </c>
       <c r="O33">
-        <v>-25000</v>
+        <v>-200</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -1817,31 +1790,25 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C34">
-        <v>26000</v>
-      </c>
-      <c r="D34">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E34" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F34" s="2">
-        <v>43388.41666666666</v>
+        <v>43390.67361111111</v>
       </c>
       <c r="G34">
-        <v>775.7224065252594</v>
+        <v>24.41</v>
       </c>
       <c r="H34">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="I34" s="2">
-        <v>43388.67361111111</v>
+        <v>43391.67361111111</v>
       </c>
       <c r="J34">
-        <v>936.0991712733085</v>
+        <v>24.27</v>
       </c>
       <c r="K34">
         <v>200</v>
@@ -1850,13 +1817,13 @@
         <v>0</v>
       </c>
       <c r="M34">
-        <v>15837.6764748049</v>
+        <v>-221.0000000000001</v>
       </c>
       <c r="N34">
-        <v>20.41668042792211</v>
+        <v>-6.03577768674041</v>
       </c>
       <c r="O34">
-        <v>15837.6764748049</v>
+        <v>-221.0000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -1867,22 +1834,22 @@
         <v>14</v>
       </c>
       <c r="E35" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F35" s="2">
-        <v>43390.41666666666</v>
+        <v>43391.67361111111</v>
       </c>
       <c r="G35">
-        <v>25772</v>
+        <v>24.27</v>
       </c>
       <c r="H35">
         <v>150</v>
       </c>
       <c r="I35" s="2">
-        <v>43390.67361111111</v>
+        <v>43392.67361111111</v>
       </c>
       <c r="J35">
-        <v>25772</v>
+        <v>23.68</v>
       </c>
       <c r="K35">
         <v>200</v>
@@ -1891,13 +1858,13 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>-200</v>
+        <v>-288.5</v>
       </c>
       <c r="N35">
-        <v>-0.005173573387138496</v>
+        <v>-7.92473561323994</v>
       </c>
       <c r="O35">
-        <v>-200</v>
+        <v>-288.5</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -1908,22 +1875,22 @@
         <v>14</v>
       </c>
       <c r="E36" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F36" s="2">
-        <v>43391.41666666666</v>
+        <v>43392.67361111111</v>
       </c>
       <c r="G36">
-        <v>25402</v>
+        <v>23.68</v>
       </c>
       <c r="H36">
         <v>150</v>
       </c>
       <c r="I36" s="2">
-        <v>43391.67361111111</v>
+        <v>43395.67361111111</v>
       </c>
       <c r="J36">
-        <v>25445</v>
+        <v>23.67</v>
       </c>
       <c r="K36">
         <v>200</v>
@@ -1932,13 +1899,13 @@
         <v>0</v>
       </c>
       <c r="M36">
-        <v>-6650</v>
+        <v>-201.4999999999997</v>
       </c>
       <c r="N36">
-        <v>-0.1745269401359473</v>
+        <v>-5.672860360360352</v>
       </c>
       <c r="O36">
-        <v>-6650</v>
+        <v>-201.4999999999997</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -1949,22 +1916,22 @@
         <v>14</v>
       </c>
       <c r="E37" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F37" s="2">
-        <v>43392.41666666666</v>
+        <v>43395.67361111111</v>
       </c>
       <c r="G37">
-        <v>25268</v>
+        <v>23.67</v>
       </c>
       <c r="H37">
         <v>150</v>
       </c>
       <c r="I37" s="2">
-        <v>43392.55347222222</v>
+        <v>43396.67361111111</v>
       </c>
       <c r="J37">
-        <v>25530</v>
+        <v>26.67</v>
       </c>
       <c r="K37">
         <v>200</v>
@@ -1973,13 +1940,13 @@
         <v>0</v>
       </c>
       <c r="M37">
-        <v>-39500</v>
+        <v>250</v>
       </c>
       <c r="N37">
-        <v>-1.042161363516437</v>
+        <v>7.041261794113504</v>
       </c>
       <c r="O37">
-        <v>-39500</v>
+        <v>250</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -1990,22 +1957,22 @@
         <v>14</v>
       </c>
       <c r="E38" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F38" s="2">
-        <v>43395.41666666666</v>
+        <v>43396.67361111111</v>
       </c>
       <c r="G38">
-        <v>25816</v>
+        <v>26.67</v>
       </c>
       <c r="H38">
         <v>150</v>
       </c>
       <c r="I38" s="2">
-        <v>43395.48333333333</v>
+        <v>43397.67361111111</v>
       </c>
       <c r="J38">
-        <v>26078</v>
+        <v>26.31</v>
       </c>
       <c r="K38">
         <v>200</v>
@@ -2014,13 +1981,13 @@
         <v>0</v>
       </c>
       <c r="M38">
-        <v>39100</v>
+        <v>-254.0000000000005</v>
       </c>
       <c r="N38">
-        <v>1.009709740729263</v>
+        <v>-6.34920634920636</v>
       </c>
       <c r="O38">
-        <v>39100</v>
+        <v>-254.0000000000005</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -2031,22 +1998,22 @@
         <v>14</v>
       </c>
       <c r="E39" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F39" s="2">
-        <v>43396.41666666666</v>
+        <v>43397.67361111111</v>
       </c>
       <c r="G39">
-        <v>25801</v>
+        <v>26.31</v>
       </c>
       <c r="H39">
         <v>150</v>
       </c>
       <c r="I39" s="2">
-        <v>43396.67361111111</v>
+        <v>43398.67361111111</v>
       </c>
       <c r="J39">
-        <v>25312</v>
+        <v>27.81</v>
       </c>
       <c r="K39">
         <v>200</v>
@@ -2055,13 +2022,13 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>73150</v>
+        <v>25</v>
       </c>
       <c r="N39">
-        <v>1.890107618567756</v>
+        <v>0.6334726973267453</v>
       </c>
       <c r="O39">
-        <v>73150</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -2072,22 +2039,22 @@
         <v>14</v>
       </c>
       <c r="E40" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F40" s="2">
-        <v>43397.41666666666</v>
+        <v>43398.67361111111</v>
       </c>
       <c r="G40">
-        <v>25305</v>
+        <v>27.81</v>
       </c>
       <c r="H40">
         <v>150</v>
       </c>
       <c r="I40" s="2">
-        <v>43397.47222222222</v>
+        <v>43399.67361111111</v>
       </c>
       <c r="J40">
-        <v>25573</v>
+        <v>29.07</v>
       </c>
       <c r="K40">
         <v>200</v>
@@ -2096,13 +2063,13 @@
         <v>0</v>
       </c>
       <c r="M40">
-        <v>-40400</v>
+        <v>-10.99999999999977</v>
       </c>
       <c r="N40">
-        <v>-1.064348284265297</v>
+        <v>-0.2636941148267954</v>
       </c>
       <c r="O40">
-        <v>-40400</v>
+        <v>-10.99999999999977</v>
       </c>
     </row>
     <row r="41" spans="1:15">
@@ -2113,22 +2080,22 @@
         <v>14</v>
       </c>
       <c r="E41" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F41" s="2">
-        <v>43398.41666666666</v>
+        <v>43399.67361111111</v>
       </c>
       <c r="G41">
-        <v>24637</v>
+        <v>29.07</v>
       </c>
       <c r="H41">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="I41" s="2">
-        <v>43398.65347222222</v>
+        <v>43402.67361111111</v>
       </c>
       <c r="J41">
-        <v>24886</v>
+        <v>28.36</v>
       </c>
       <c r="K41">
         <v>200</v>
@@ -2137,13 +2104,13 @@
         <v>0</v>
       </c>
       <c r="M41">
-        <v>-25100</v>
+        <v>-306.5000000000001</v>
       </c>
       <c r="N41">
-        <v>-1.018792872508828</v>
+        <v>-7.029010434583192</v>
       </c>
       <c r="O41">
-        <v>-25100</v>
+        <v>-306.5000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -2151,31 +2118,25 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>15</v>
-      </c>
-      <c r="C42">
-        <v>24200</v>
-      </c>
-      <c r="D42">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E42" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F42" s="2">
-        <v>43398.41666666666</v>
+        <v>43402.67361111111</v>
       </c>
       <c r="G42">
-        <v>145.8477986162106</v>
+        <v>28.36</v>
       </c>
       <c r="H42">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="I42" s="2">
-        <v>43398.67361111111</v>
+        <v>43403.67361111111</v>
       </c>
       <c r="J42">
-        <v>71.55626341804418</v>
+        <v>27.85</v>
       </c>
       <c r="K42">
         <v>200</v>
@@ -2184,13 +2145,13 @@
         <v>0</v>
       </c>
       <c r="M42">
-        <v>-7629.153519816646</v>
+        <v>-276.4999999999997</v>
       </c>
       <c r="N42">
-        <v>-52.30900700731375</v>
+        <v>-6.499764927127402</v>
       </c>
       <c r="O42">
-        <v>-7629.153519816646</v>
+        <v>-276.4999999999997</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -2201,22 +2162,22 @@
         <v>14</v>
       </c>
       <c r="E43" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F43" s="2">
-        <v>43399.41666666666</v>
+        <v>43403.67361111111</v>
       </c>
       <c r="G43">
-        <v>24985</v>
+        <v>27.85</v>
       </c>
       <c r="H43">
         <v>150</v>
       </c>
       <c r="I43" s="2">
-        <v>43399.67361111111</v>
+        <v>43404.67361111111</v>
       </c>
       <c r="J43">
-        <v>24647</v>
+        <v>25.87</v>
       </c>
       <c r="K43">
         <v>200</v>
@@ -2225,13 +2186,13 @@
         <v>0</v>
       </c>
       <c r="M43">
-        <v>-50900</v>
+        <v>-497.0000000000001</v>
       </c>
       <c r="N43">
-        <v>-1.358148222266693</v>
+        <v>-11.89706762417714</v>
       </c>
       <c r="O43">
-        <v>-50900</v>
+        <v>-497.0000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -2242,22 +2203,22 @@
         <v>14</v>
       </c>
       <c r="E44" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F44" s="2">
-        <v>43402.41666666666</v>
+        <v>43404.67361111111</v>
       </c>
       <c r="G44">
-        <v>24761</v>
+        <v>25.87</v>
       </c>
       <c r="H44">
         <v>150</v>
       </c>
       <c r="I44" s="2">
-        <v>43402.67361111111</v>
+        <v>43405.67361111111</v>
       </c>
       <c r="J44">
-        <v>24819</v>
+        <v>24.18</v>
       </c>
       <c r="K44">
         <v>200</v>
@@ -2266,13 +2227,13 @@
         <v>0</v>
       </c>
       <c r="M44">
-        <v>-8900</v>
+        <v>-453.5000000000002</v>
       </c>
       <c r="N44">
-        <v>-0.2396241401128118</v>
+        <v>-11.68663831980416</v>
       </c>
       <c r="O44">
-        <v>-8900</v>
+        <v>-453.5000000000002</v>
       </c>
     </row>
     <row r="45" spans="1:15">
@@ -2283,22 +2244,22 @@
         <v>14</v>
       </c>
       <c r="E45" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F45" s="2">
-        <v>43403.41666666666</v>
+        <v>43405.67361111111</v>
       </c>
       <c r="G45">
-        <v>24645</v>
+        <v>24.18</v>
       </c>
       <c r="H45">
         <v>150</v>
       </c>
       <c r="I45" s="2">
-        <v>43403.67361111111</v>
+        <v>43406.67361111111</v>
       </c>
       <c r="J45">
-        <v>24722</v>
+        <v>24.94</v>
       </c>
       <c r="K45">
         <v>200</v>
@@ -2307,13 +2268,13 @@
         <v>0</v>
       </c>
       <c r="M45">
-        <v>-11750</v>
+        <v>-85.99999999999977</v>
       </c>
       <c r="N45">
-        <v>-0.317846757286806</v>
+        <v>-2.371105596912042</v>
       </c>
       <c r="O45">
-        <v>-11750</v>
+        <v>-85.99999999999977</v>
       </c>
     </row>
     <row r="46" spans="1:15">
@@ -2324,22 +2285,22 @@
         <v>14</v>
       </c>
       <c r="E46" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F46" s="2">
-        <v>43404.41666666666</v>
+        <v>43406.67361111111</v>
       </c>
       <c r="G46">
-        <v>24818</v>
+        <v>24.94</v>
       </c>
       <c r="H46">
         <v>150</v>
       </c>
       <c r="I46" s="2">
-        <v>43404.67361111111</v>
+        <v>43409.67361111111</v>
       </c>
       <c r="J46">
-        <v>24925</v>
+        <v>27.08</v>
       </c>
       <c r="K46">
         <v>200</v>
@@ -2348,13 +2309,13 @@
         <v>0</v>
       </c>
       <c r="M46">
-        <v>15850</v>
+        <v>120.9999999999995</v>
       </c>
       <c r="N46">
-        <v>0.4257662449297553</v>
+        <v>3.234429296979406</v>
       </c>
       <c r="O46">
-        <v>15850</v>
+        <v>120.9999999999995</v>
       </c>
     </row>
     <row r="47" spans="1:15">
@@ -2365,22 +2326,22 @@
         <v>14</v>
       </c>
       <c r="E47" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F47" s="2">
-        <v>43405.41666666666</v>
+        <v>43409.67361111111</v>
       </c>
       <c r="G47">
-        <v>25343</v>
+        <v>27.08</v>
       </c>
       <c r="H47">
         <v>150</v>
       </c>
       <c r="I47" s="2">
-        <v>43405.67361111111</v>
+        <v>43410.67361111111</v>
       </c>
       <c r="J47">
-        <v>25360</v>
+        <v>26.2</v>
       </c>
       <c r="K47">
         <v>200</v>
@@ -2389,13 +2350,13 @@
         <v>0</v>
       </c>
       <c r="M47">
-        <v>2350</v>
+        <v>-331.9999999999999</v>
       </c>
       <c r="N47">
-        <v>0.06181851661865867</v>
+        <v>-8.173313638601671</v>
       </c>
       <c r="O47">
-        <v>2350</v>
+        <v>-331.9999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -2406,22 +2367,22 @@
         <v>14</v>
       </c>
       <c r="E48" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F48" s="2">
-        <v>43406.41666666666</v>
+        <v>43410.67361111111</v>
       </c>
       <c r="G48">
-        <v>25941</v>
+        <v>26.2</v>
       </c>
       <c r="H48">
         <v>150</v>
       </c>
       <c r="I48" s="2">
-        <v>43406.54305555556</v>
+        <v>43411.67361111111</v>
       </c>
       <c r="J48">
-        <v>26265</v>
+        <v>25.05</v>
       </c>
       <c r="K48">
         <v>200</v>
@@ -2430,13 +2391,13 @@
         <v>0</v>
       </c>
       <c r="M48">
-        <v>48400</v>
+        <v>-372.4999999999998</v>
       </c>
       <c r="N48">
-        <v>1.243848219677987</v>
+        <v>-9.478371501272258</v>
       </c>
       <c r="O48">
-        <v>48400</v>
+        <v>-372.4999999999998</v>
       </c>
     </row>
     <row r="49" spans="1:15">
@@ -2444,31 +2405,25 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>15</v>
-      </c>
-      <c r="C49">
-        <v>25400</v>
-      </c>
-      <c r="D49">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E49" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F49" s="2">
-        <v>43409.41666666666</v>
+        <v>43411.67361111111</v>
       </c>
       <c r="G49">
-        <v>450.6709717585582</v>
+        <v>25.05</v>
       </c>
       <c r="H49">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="I49" s="2">
-        <v>43409.67361111111</v>
+        <v>43412.67361111111</v>
       </c>
       <c r="J49">
-        <v>466.0586811834164</v>
+        <v>22.95</v>
       </c>
       <c r="K49">
         <v>200</v>
@@ -2477,13 +2432,13 @@
         <v>0</v>
       </c>
       <c r="M49">
-        <v>1338.770942485826</v>
+        <v>-515.0000000000002</v>
       </c>
       <c r="N49">
-        <v>2.970617204968455</v>
+        <v>-13.70592149035263</v>
       </c>
       <c r="O49">
-        <v>1338.770942485826</v>
+        <v>-515.0000000000002</v>
       </c>
     </row>
     <row r="50" spans="1:15">
@@ -2491,31 +2446,25 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>16</v>
-      </c>
-      <c r="C50">
-        <v>26200</v>
-      </c>
-      <c r="D50">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E50" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F50" s="2">
-        <v>43409.41666666666</v>
+        <v>43412.67361111111</v>
       </c>
       <c r="G50">
-        <v>843.2887938031563</v>
+        <v>22.95</v>
       </c>
       <c r="H50">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="I50" s="2">
-        <v>43409.67361111111</v>
+        <v>43413.67361111111</v>
       </c>
       <c r="J50">
-        <v>866.3193509494758</v>
+        <v>23.86</v>
       </c>
       <c r="K50">
         <v>200</v>
@@ -2524,13 +2473,13 @@
         <v>0</v>
       </c>
       <c r="M50">
-        <v>2103.055714631955</v>
+        <v>-63.49999999999997</v>
       </c>
       <c r="N50">
-        <v>2.493873664735142</v>
+        <v>-1.844589687726942</v>
       </c>
       <c r="O50">
-        <v>2103.055714631955</v>
+        <v>-63.49999999999997</v>
       </c>
     </row>
     <row r="51" spans="1:15">
@@ -2541,22 +2490,22 @@
         <v>14</v>
       </c>
       <c r="E51" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F51" s="2">
-        <v>43410.41666666666</v>
+        <v>43413.67361111111</v>
       </c>
       <c r="G51">
-        <v>25833</v>
+        <v>23.86</v>
       </c>
       <c r="H51">
         <v>150</v>
       </c>
       <c r="I51" s="2">
-        <v>43410.62986111111</v>
+        <v>43416.67361111111</v>
       </c>
       <c r="J51">
-        <v>26120</v>
+        <v>23.42</v>
       </c>
       <c r="K51">
         <v>200</v>
@@ -2565,13 +2514,13 @@
         <v>0</v>
       </c>
       <c r="M51">
-        <v>-43250</v>
+        <v>-265.9999999999997</v>
       </c>
       <c r="N51">
-        <v>-1.116143434108827</v>
+        <v>-7.432243643475822</v>
       </c>
       <c r="O51">
-        <v>-43250</v>
+        <v>-265.9999999999997</v>
       </c>
     </row>
     <row r="52" spans="1:15">
@@ -2582,22 +2531,22 @@
         <v>14</v>
       </c>
       <c r="E52" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F52" s="2">
-        <v>43411.41666666666</v>
+        <v>43416.67361111111</v>
       </c>
       <c r="G52">
-        <v>26096</v>
+        <v>23.42</v>
       </c>
       <c r="H52">
         <v>150</v>
       </c>
       <c r="I52" s="2">
-        <v>43411.48680555556</v>
+        <v>43417.67361111111</v>
       </c>
       <c r="J52">
-        <v>26394</v>
+        <v>23.75</v>
       </c>
       <c r="K52">
         <v>200</v>
@@ -2606,13 +2555,13 @@
         <v>0</v>
       </c>
       <c r="M52">
-        <v>44500</v>
+        <v>-150.5000000000003</v>
       </c>
       <c r="N52">
-        <v>1.136828121806663</v>
+        <v>-4.284087674352413</v>
       </c>
       <c r="O52">
-        <v>44500</v>
+        <v>-150.5000000000003</v>
       </c>
     </row>
     <row r="53" spans="1:15">
@@ -2623,22 +2572,22 @@
         <v>14</v>
       </c>
       <c r="E53" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F53" s="2">
-        <v>43412.41666666666</v>
+        <v>43417.67361111111</v>
       </c>
       <c r="G53">
-        <v>26339</v>
+        <v>23.75</v>
       </c>
       <c r="H53">
         <v>150</v>
       </c>
       <c r="I53" s="2">
-        <v>43412.67361111111</v>
+        <v>43418.67361111111</v>
       </c>
       <c r="J53">
-        <v>26181</v>
+        <v>24.39</v>
       </c>
       <c r="K53">
         <v>200</v>
@@ -2647,13 +2596,13 @@
         <v>0</v>
       </c>
       <c r="M53">
-        <v>-23900</v>
+        <v>-103.9999999999999</v>
       </c>
       <c r="N53">
-        <v>-0.6049331156586557</v>
+        <v>-2.919298245614033</v>
       </c>
       <c r="O53">
-        <v>-23900</v>
+        <v>-103.9999999999999</v>
       </c>
     </row>
     <row r="54" spans="1:15">
@@ -2664,22 +2613,22 @@
         <v>14</v>
       </c>
       <c r="E54" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F54" s="2">
-        <v>43413.41666666666</v>
+        <v>43418.67361111111</v>
       </c>
       <c r="G54">
-        <v>25728</v>
+        <v>24.39</v>
       </c>
       <c r="H54">
         <v>150</v>
       </c>
       <c r="I54" s="2">
-        <v>43413.67361111111</v>
+        <v>43419.67361111111</v>
       </c>
       <c r="J54">
-        <v>25544</v>
+        <v>24.1</v>
       </c>
       <c r="K54">
         <v>200</v>
@@ -2688,13 +2637,13 @@
         <v>0</v>
       </c>
       <c r="M54">
-        <v>27400</v>
+        <v>-243.4999999999999</v>
       </c>
       <c r="N54">
-        <v>0.7099917081260365</v>
+        <v>-6.655733223998904</v>
       </c>
       <c r="O54">
-        <v>27400</v>
+        <v>-243.4999999999999</v>
       </c>
     </row>
     <row r="55" spans="1:15">
@@ -2705,22 +2654,22 @@
         <v>14</v>
       </c>
       <c r="E55" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F55" s="2">
-        <v>43416.41666666666</v>
+        <v>43419.67361111111</v>
       </c>
       <c r="G55">
-        <v>25583</v>
+        <v>24.1</v>
       </c>
       <c r="H55">
         <v>150</v>
       </c>
       <c r="I55" s="2">
-        <v>43416.67361111111</v>
+        <v>43420.67361111111</v>
       </c>
       <c r="J55">
-        <v>25570</v>
+        <v>24.21</v>
       </c>
       <c r="K55">
         <v>200</v>
@@ -2729,13 +2678,13 @@
         <v>0</v>
       </c>
       <c r="M55">
-        <v>1750</v>
+        <v>-183.5000000000001</v>
       </c>
       <c r="N55">
-        <v>0.04560320004169435</v>
+        <v>-5.076071922544954</v>
       </c>
       <c r="O55">
-        <v>1750</v>
+        <v>-183.5000000000001</v>
       </c>
     </row>
     <row r="56" spans="1:15">
@@ -2746,22 +2695,22 @@
         <v>14</v>
       </c>
       <c r="E56" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F56" s="2">
-        <v>43417.41666666666</v>
+        <v>43420.67361111111</v>
       </c>
       <c r="G56">
-        <v>25101</v>
+        <v>24.21</v>
       </c>
       <c r="H56">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="I56" s="2">
-        <v>43417.47638888889</v>
+        <v>43423.67361111111</v>
       </c>
       <c r="J56">
-        <v>25361</v>
+        <v>23.89</v>
       </c>
       <c r="K56">
         <v>200</v>
@@ -2770,13 +2719,13 @@
         <v>0</v>
       </c>
       <c r="M56">
-        <v>-26200</v>
+        <v>-248.0000000000001</v>
       </c>
       <c r="N56">
-        <v>-1.04378311621051</v>
+        <v>-6.829133966680437</v>
       </c>
       <c r="O56">
-        <v>-26200</v>
+        <v>-248.0000000000001</v>
       </c>
     </row>
     <row r="57" spans="1:15">
@@ -2784,31 +2733,25 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>15</v>
-      </c>
-      <c r="C57">
-        <v>24600</v>
-      </c>
-      <c r="D57">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E57" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F57" s="2">
-        <v>43417.41666666666</v>
+        <v>43423.67361111111</v>
       </c>
       <c r="G57">
-        <v>337.6276370035976</v>
+        <v>23.89</v>
       </c>
       <c r="H57">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="I57" s="2">
-        <v>43417.67361111111</v>
+        <v>43424.67361111111</v>
       </c>
       <c r="J57">
-        <v>146.7056386214208</v>
+        <v>24.75</v>
       </c>
       <c r="K57">
         <v>200</v>
@@ -2817,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="M57">
-        <v>-19292.19983821768</v>
+        <v>-71.00000000000009</v>
       </c>
       <c r="N57">
-        <v>-57.14046400180241</v>
+        <v>-1.981303195200226</v>
       </c>
       <c r="O57">
-        <v>-19292.19983821768</v>
+        <v>-71.00000000000009</v>
       </c>
     </row>
     <row r="58" spans="1:15">
@@ -2834,22 +2777,22 @@
         <v>14</v>
       </c>
       <c r="E58" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F58" s="2">
-        <v>43418.41666666666</v>
+        <v>43424.67361111111</v>
       </c>
       <c r="G58">
-        <v>25632</v>
+        <v>24.75</v>
       </c>
       <c r="H58">
         <v>150</v>
       </c>
       <c r="I58" s="2">
-        <v>43418.67361111111</v>
+        <v>43425.67361111111</v>
       </c>
       <c r="J58">
-        <v>25625</v>
+        <v>24.8</v>
       </c>
       <c r="K58">
         <v>200</v>
@@ -2858,13 +2801,13 @@
         <v>0</v>
       </c>
       <c r="M58">
-        <v>-1250</v>
+        <v>-192.4999999999999</v>
       </c>
       <c r="N58">
-        <v>-0.03251144402829796</v>
+        <v>-5.185185185185182</v>
       </c>
       <c r="O58">
-        <v>-1250</v>
+        <v>-192.4999999999999</v>
       </c>
     </row>
     <row r="59" spans="1:15">
@@ -2875,22 +2818,22 @@
         <v>14</v>
       </c>
       <c r="E59" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F59" s="2">
-        <v>43419.41666666666</v>
+        <v>43425.67361111111</v>
       </c>
       <c r="G59">
-        <v>25591</v>
+        <v>24.8</v>
       </c>
       <c r="H59">
         <v>150</v>
       </c>
       <c r="I59" s="2">
-        <v>43419.58333333334</v>
+        <v>43426.67361111111</v>
       </c>
       <c r="J59">
-        <v>25862</v>
+        <v>23.51</v>
       </c>
       <c r="K59">
         <v>200</v>
@@ -2899,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="M59">
-        <v>-40850</v>
+        <v>-393.4999999999999</v>
       </c>
       <c r="N59">
-        <v>-1.064176207781381</v>
+        <v>-10.57795698924731</v>
       </c>
       <c r="O59">
-        <v>-40850</v>
+        <v>-393.4999999999999</v>
       </c>
     </row>
     <row r="60" spans="1:15">
@@ -2916,22 +2859,22 @@
         <v>14</v>
       </c>
       <c r="E60" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F60" s="2">
-        <v>43420.41666666666</v>
+        <v>43426.67361111111</v>
       </c>
       <c r="G60">
-        <v>25887</v>
+        <v>23.51</v>
       </c>
       <c r="H60">
         <v>150</v>
       </c>
       <c r="I60" s="2">
-        <v>43420.49722222222</v>
+        <v>43427.67361111111</v>
       </c>
       <c r="J60">
-        <v>26146</v>
+        <v>23.51</v>
       </c>
       <c r="K60">
         <v>200</v>
@@ -2940,13 +2883,13 @@
         <v>0</v>
       </c>
       <c r="M60">
-        <v>38650</v>
+        <v>-200</v>
       </c>
       <c r="N60">
-        <v>0.9953515921762532</v>
+        <v>-5.671345526726215</v>
       </c>
       <c r="O60">
-        <v>38650</v>
+        <v>-200</v>
       </c>
     </row>
     <row r="61" spans="1:15">
@@ -2957,22 +2900,22 @@
         <v>14</v>
       </c>
       <c r="E61" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F61" s="2">
-        <v>43423.41666666666</v>
+        <v>43427.67361111111</v>
       </c>
       <c r="G61">
-        <v>26302</v>
+        <v>23.51</v>
       </c>
       <c r="H61">
         <v>150</v>
       </c>
       <c r="I61" s="2">
-        <v>43423.67361111111</v>
+        <v>43430.67361111111</v>
       </c>
       <c r="J61">
-        <v>26325</v>
+        <v>24.17</v>
       </c>
       <c r="K61">
         <v>200</v>
@@ -2981,13 +2924,13 @@
         <v>0</v>
       </c>
       <c r="M61">
-        <v>3250</v>
+        <v>-101</v>
       </c>
       <c r="N61">
-        <v>0.08237649861860949</v>
+        <v>-2.864029490996738</v>
       </c>
       <c r="O61">
-        <v>3250</v>
+        <v>-101</v>
       </c>
     </row>
     <row r="62" spans="1:15">
@@ -2998,22 +2941,22 @@
         <v>14</v>
       </c>
       <c r="E62" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F62" s="2">
-        <v>43424.41666666666</v>
+        <v>43430.67361111111</v>
       </c>
       <c r="G62">
-        <v>26028</v>
+        <v>24.17</v>
       </c>
       <c r="H62">
         <v>150</v>
       </c>
       <c r="I62" s="2">
-        <v>43424.67361111111</v>
+        <v>43431.67361111111</v>
       </c>
       <c r="J62">
-        <v>25767</v>
+        <v>24.39</v>
       </c>
       <c r="K62">
         <v>200</v>
@@ -3022,13 +2965,13 @@
         <v>0</v>
       </c>
       <c r="M62">
-        <v>38950</v>
+        <v>-167.0000000000002</v>
       </c>
       <c r="N62">
-        <v>0.997643563342042</v>
+        <v>-4.60626120535099</v>
       </c>
       <c r="O62">
-        <v>38950</v>
+        <v>-167.0000000000002</v>
       </c>
     </row>
     <row r="63" spans="1:15">
@@ -3039,22 +2982,22 @@
         <v>14</v>
       </c>
       <c r="E63" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F63" s="2">
-        <v>43425.41666666666</v>
+        <v>43431.67361111111</v>
       </c>
       <c r="G63">
-        <v>25616</v>
+        <v>24.39</v>
       </c>
       <c r="H63">
         <v>150</v>
       </c>
       <c r="I63" s="2">
-        <v>43425.61666666667</v>
+        <v>43432.67361111111</v>
       </c>
       <c r="J63">
-        <v>25881</v>
+        <v>24.76</v>
       </c>
       <c r="K63">
         <v>200</v>
@@ -3063,13 +3006,13 @@
         <v>0</v>
       </c>
       <c r="M63">
-        <v>-39950</v>
+        <v>-144.4999999999999</v>
       </c>
       <c r="N63">
-        <v>-1.039714761607329</v>
+        <v>-3.9497061637283</v>
       </c>
       <c r="O63">
-        <v>-39950</v>
+        <v>-144.4999999999999</v>
       </c>
     </row>
     <row r="64" spans="1:15">
@@ -3080,22 +3023,22 @@
         <v>14</v>
       </c>
       <c r="E64" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F64" s="2">
-        <v>43426.41666666666</v>
+        <v>43432.67361111111</v>
       </c>
       <c r="G64">
-        <v>25819</v>
+        <v>24.76</v>
       </c>
       <c r="H64">
         <v>150</v>
       </c>
       <c r="I64" s="2">
-        <v>43426.67361111111</v>
+        <v>43433.67361111111</v>
       </c>
       <c r="J64">
-        <v>25961</v>
+        <v>24.83</v>
       </c>
       <c r="K64">
         <v>200</v>
@@ -3104,13 +3047,13 @@
         <v>0</v>
       </c>
       <c r="M64">
-        <v>21100</v>
+        <v>-189.5000000000005</v>
       </c>
       <c r="N64">
-        <v>0.5448184153788554</v>
+        <v>-5.102315562735607</v>
       </c>
       <c r="O64">
-        <v>21100</v>
+        <v>-189.5000000000005</v>
       </c>
     </row>
     <row r="65" spans="1:15">
@@ -3121,22 +3064,22 @@
         <v>14</v>
       </c>
       <c r="E65" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F65" s="2">
-        <v>43430.41666666666</v>
+        <v>43433.67361111111</v>
       </c>
       <c r="G65">
-        <v>26192</v>
+        <v>24.83</v>
       </c>
       <c r="H65">
         <v>150</v>
       </c>
       <c r="I65" s="2">
-        <v>43430.67361111111</v>
+        <v>43434.67361111111</v>
       </c>
       <c r="J65">
-        <v>26371</v>
+        <v>24.14</v>
       </c>
       <c r="K65">
         <v>200</v>
@@ -3145,13 +3088,13 @@
         <v>0</v>
       </c>
       <c r="M65">
-        <v>26650</v>
+        <v>-303.4999999999997</v>
       </c>
       <c r="N65">
-        <v>0.6783241702300957</v>
+        <v>-8.148744797959449</v>
       </c>
       <c r="O65">
-        <v>26650</v>
+        <v>-303.4999999999997</v>
       </c>
     </row>
     <row r="66" spans="1:15">
@@ -3162,160 +3105,31 @@
         <v>14</v>
       </c>
       <c r="E66" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F66" s="2">
-        <v>43431.41666666666</v>
+        <v>43434.67361111111</v>
       </c>
       <c r="G66">
-        <v>26154</v>
+        <v>24.14</v>
       </c>
       <c r="H66">
         <v>150</v>
       </c>
-      <c r="I66" s="2">
-        <v>43431.67361111111</v>
-      </c>
-      <c r="J66">
-        <v>26294</v>
-      </c>
       <c r="K66">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L66">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="M66">
-        <v>-21200</v>
+        <v>0</v>
       </c>
       <c r="N66">
-        <v>-0.5403889781040503</v>
+        <v>-0.05523336095001381</v>
       </c>
       <c r="O66">
-        <v>-21200</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15">
-      <c r="A67" s="1">
-        <v>65</v>
-      </c>
-      <c r="B67" t="s">
-        <v>14</v>
-      </c>
-      <c r="E67" t="s">
-        <v>18</v>
-      </c>
-      <c r="F67" s="2">
-        <v>43432.41666666666</v>
-      </c>
-      <c r="G67">
-        <v>26350</v>
-      </c>
-      <c r="H67">
-        <v>150</v>
-      </c>
-      <c r="I67" s="2">
-        <v>43432.58333333334</v>
-      </c>
-      <c r="J67">
-        <v>26624</v>
-      </c>
-      <c r="K67">
-        <v>200</v>
-      </c>
-      <c r="L67">
-        <v>0</v>
-      </c>
-      <c r="M67">
-        <v>40900</v>
-      </c>
-      <c r="N67">
-        <v>1.034788108791904</v>
-      </c>
-      <c r="O67">
-        <v>40900</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15">
-      <c r="A68" s="1">
-        <v>66</v>
-      </c>
-      <c r="B68" t="s">
-        <v>14</v>
-      </c>
-      <c r="E68" t="s">
-        <v>18</v>
-      </c>
-      <c r="F68" s="2">
-        <v>43433.41666666666</v>
-      </c>
-      <c r="G68">
-        <v>26766</v>
-      </c>
-      <c r="H68">
-        <v>150</v>
-      </c>
-      <c r="I68" s="2">
-        <v>43433.67361111111</v>
-      </c>
-      <c r="J68">
-        <v>26590</v>
-      </c>
-      <c r="K68">
-        <v>200</v>
-      </c>
-      <c r="L68">
-        <v>0</v>
-      </c>
-      <c r="M68">
-        <v>-26600</v>
-      </c>
-      <c r="N68">
-        <v>-0.6625320680465268</v>
-      </c>
-      <c r="O68">
-        <v>-26600</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15">
-      <c r="A69" s="1">
-        <v>67</v>
-      </c>
-      <c r="B69" t="s">
-        <v>14</v>
-      </c>
-      <c r="E69" t="s">
-        <v>17</v>
-      </c>
-      <c r="F69" s="2">
-        <v>43434.41666666666</v>
-      </c>
-      <c r="G69">
-        <v>26574</v>
-      </c>
-      <c r="H69">
-        <v>150</v>
-      </c>
-      <c r="I69" s="2">
-        <v>43434.67361111111</v>
-      </c>
-      <c r="J69">
-        <v>26521</v>
-      </c>
-      <c r="K69">
-        <v>200</v>
-      </c>
-      <c r="L69">
-        <v>0</v>
-      </c>
-      <c r="M69">
-        <v>7750</v>
-      </c>
-      <c r="N69">
-        <v>0.1944256290609869</v>
-      </c>
-      <c r="O69">
-        <v>7750</v>
+        <v>-200</v>
       </c>
     </row>
   </sheetData>
